--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="T02" sheetId="1" r:id="rId1"/>
@@ -1029,9 +1029,6 @@
 자녀수</t>
   </si>
   <si>
-    <t>Lương 70%</t>
-  </si>
-  <si>
     <t>Điểu chỉnh công</t>
   </si>
   <si>
@@ -1120,9 +1117,6 @@
     <t>BHYT(4.5%)-NLD</t>
   </si>
   <si>
-    <t>SỐ NGÀY NGHỈ 70%</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -1219,10 +1213,6 @@
 급여 총금액</t>
   </si>
   <si>
-    <t>Nghỉ 70%
-70% 최저임금</t>
-  </si>
-  <si>
     <t>Hỗ trợ cách ly</t>
   </si>
   <si>
@@ -1571,6 +1561,17 @@
   </si>
   <si>
     <t>Đối tượng phụ cấp độc hại</t>
+  </si>
+  <si>
+    <t>Lương TTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SỐ NGÀY
+(L160) </t>
+  </si>
+  <si>
+    <t>Lương TTV
+최저임금</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1590,7 @@
     <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="000"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1803,6 +1804,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2243,7 +2250,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2345,9 +2352,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2580,6 +2584,9 @@
     <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2837,6 +2844,12 @@
     </xf>
     <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3516,11 +3529,11 @@
   </sheetPr>
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="CE6" sqref="CE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -3630,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="163" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D1" s="163" t="s">
         <v>2</v>
@@ -3853,7 +3866,7 @@
         <v>64</v>
       </c>
       <c r="CP1" s="165" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CQ1" s="146" t="s">
         <v>65</v>
@@ -3880,7 +3893,7 @@
         <v>72</v>
       </c>
       <c r="CY1" s="152" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="CZ1" s="140" t="s">
         <v>73</v>
@@ -3922,24 +3935,24 @@
         <v>79</v>
       </c>
       <c r="DU1" s="142" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="DV1" s="143"/>
       <c r="DW1" s="144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="DX1" s="140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="DY1" s="140"/>
       <c r="DZ1" s="140"/>
       <c r="EA1" s="140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="EB1" s="140"/>
       <c r="EC1" s="140"/>
       <c r="ED1" s="141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="3" customFormat="1" ht="92.25" customHeight="1">
@@ -3959,10 +3972,10 @@
       <c r="N2" s="194"/>
       <c r="O2" s="196"/>
       <c r="P2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="R2" s="198"/>
       <c r="S2" s="200"/>
@@ -4058,27 +4071,27 @@
       <c r="BI2" s="181"/>
       <c r="BJ2" s="181"/>
       <c r="BK2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BO2" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="BP2" s="186"/>
       <c r="BQ2" s="188"/>
-      <c r="BR2" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS2" s="68" t="s">
-        <v>118</v>
+      <c r="BR2" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS2" s="67" t="s">
+        <v>116</v>
       </c>
       <c r="BT2" s="174"/>
       <c r="BU2" s="174"/>
@@ -4113,524 +4126,524 @@
       <c r="CX2" s="151"/>
       <c r="CY2" s="153"/>
       <c r="CZ2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="DA2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="DA2" s="30" t="s">
+      <c r="DB2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="DB2" s="30" t="s">
+      <c r="DC2" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="DC2" s="30" t="s">
-        <v>94</v>
       </c>
       <c r="DD2" s="155"/>
       <c r="DE2" s="157"/>
       <c r="DF2" s="159"/>
       <c r="DG2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="DH2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="DH2" s="31" t="s">
+      <c r="DI2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="DI2" s="32" t="s">
+      <c r="DJ2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="DJ2" s="32" t="s">
+      <c r="DK2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="DK2" s="32" t="s">
+      <c r="DL2" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="DL2" s="32" t="s">
+      <c r="DM2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="DM2" s="32" t="s">
+      <c r="DN2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="DN2" s="32" t="s">
+      <c r="DO2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="DO2" s="32" t="s">
+      <c r="DP2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="DP2" s="32" t="s">
+      <c r="DQ2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="DQ2" s="32" t="s">
+      <c r="DR2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="DR2" s="30" t="s">
+      <c r="DS2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="DS2" s="32" t="s">
-        <v>107</v>
-      </c>
       <c r="DT2" s="141"/>
-      <c r="DU2" s="35" t="s">
-        <v>108</v>
+      <c r="DU2" s="139" t="s">
+        <v>243</v>
       </c>
       <c r="DV2" s="33">
-        <f>3920000/26</f>
-        <v>150769.23076923078</v>
+        <f>4160000/26</f>
+        <v>160000</v>
       </c>
       <c r="DW2" s="145"/>
       <c r="DX2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="DY2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="DZ2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="DY2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="DZ2" s="34" t="s">
-        <v>111</v>
-      </c>
       <c r="EA2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="EB2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="EC2" s="34" t="s">
         <v>109</v>
-      </c>
-      <c r="EB2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="EC2" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="ED2" s="141"/>
     </row>
     <row r="3" spans="1:139" s="10" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39" t="s">
+      <c r="F3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="41">
+      <c r="I3" s="40">
         <v>42065</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <v>4800000</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="42">
         <v>350000</v>
       </c>
-      <c r="L3" s="43">
-        <v>0</v>
-      </c>
-      <c r="M3" s="42">
-        <v>0</v>
-      </c>
-      <c r="N3" s="66">
+      <c r="L3" s="42">
+        <v>0</v>
+      </c>
+      <c r="M3" s="41">
+        <v>0</v>
+      </c>
+      <c r="N3" s="65">
         <f t="shared" ref="N3" si="0">+IF(DG3&gt;=120,1250000,IF(AND(DG3&lt;=119,DG3&gt;=108),1150000,IF(AND(DG3&lt;=107,DG3&gt;=96),1050000,IF(AND(DG3&lt;=95,DG3&gt;=84),950000,IF(AND(DG3&lt;=83,DG3&gt;=72),850000,IF(AND(DG3&lt;=71,DG3&gt;=60),750000,IF(AND(DG3&lt;=59,DG3&gt;=48),650000,IF(AND(DG3&lt;=47,DG3&gt;=36),550000,IF(AND(DG3&lt;=35,DG3&gt;=24),450000,IF(AND(DG3&lt;=23,DG3&gt;=18),350000,IF(AND(DG3&lt;=17,DG3&gt;=12),250000,IF(AND(DG3&lt;=11,DG3&gt;=2),150000,0))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="O3" s="43">
-        <v>0</v>
-      </c>
-      <c r="P3" s="44">
+      <c r="O3" s="42">
+        <v>0</v>
+      </c>
+      <c r="P3" s="43">
         <f t="shared" ref="P3" si="1">+SUM($J3:$O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>214583.33333333334</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="43">
         <f t="shared" ref="Q3" si="2">+IF(NETWORKDAYS.INTL($P$1,$Q$1,11)&lt;=26,P3/8,(SUM(J3:O3)/26)/8)</f>
         <v>26822.916666666668</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45">
-        <v>0</v>
-      </c>
-      <c r="T3" s="45">
-        <v>0</v>
-      </c>
-      <c r="U3" s="46">
+      <c r="R3" s="44"/>
+      <c r="S3" s="44">
+        <v>0</v>
+      </c>
+      <c r="T3" s="44">
+        <v>0</v>
+      </c>
+      <c r="U3" s="45">
         <f t="shared" ref="U3" si="3">85%*$P3*$S3</f>
         <v>0</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3" s="45">
         <f t="shared" ref="V3" si="4">85%*$P3*130%*$T3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="46">
+      <c r="W3" s="44"/>
+      <c r="X3" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="44">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="45">
         <f t="shared" ref="Z3" si="5">+$P3*($W3+$Y3)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3" s="45">
         <f t="shared" ref="AA3" si="6">+$P3*130%*X3</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3" s="45">
         <f t="shared" ref="AB3" si="7">+U3+V3+Z3+AA3</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="46">
+      <c r="AC3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="45">
         <f t="shared" ref="AO3" si="8">SUM(AC3:AH3,AI3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="46">
+      <c r="AP3" s="45">
         <f t="shared" ref="AP3" si="9">+IF(H3="operator",Q3*((AC3+AI3)*150%+(AD3+AJ3)*200%+(AE3+AK3)*210%+(AF3+AL3)*270%+(AG3+AM3)*300%+(AH3+AN3)*390%),Q3*85%*(AC3*150%+AD3*200%+AE3*210%+AF3*270%+AG3*300%+AH3*390%)+Q3*(AI3*150%+AJ3*200%+AK3*210%+AL3*270%+AM3*300%+AN3*390%))</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="46">
+      <c r="AQ3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="45">
         <f t="shared" ref="AS3" si="10">260%*P3*(85%*AQ3/2+AR3/2)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="46">
+      <c r="AT3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="45">
         <f t="shared" ref="AV3" si="11">+IF(E3="M1-1",Q3*(AT3+AU3)*200%*(45/60),Q3*85%*AT3*200%*(45/60)+Q3*AU3*200%*(45/60))</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="46">
+      <c r="AW3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="45">
         <f t="shared" ref="BI3" si="12">SUM(AW3:BB3,BC3:BH3)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" s="46">
+      <c r="BJ3" s="45">
         <f t="shared" ref="BJ3" si="13">+Q3*85%*(AW3*$AW$2+AX3*$AX$2+AY3*$AY$2+AZ3*$AZ$2+BA3*$BA$2+BB3*$BB$2)+Q3*(BC3*$BC$2+BD3*$BD$2+BE3*$BE$2+BF3*$BF$2+BG3*$BG$2+BH3*$BH$2)</f>
         <v>0</v>
       </c>
-      <c r="BK3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="47">
+      <c r="BK3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="46">
         <f t="shared" ref="BO3" si="14">+P3*(BK3*85%+BL3)+Q3*(85%*BM3*(2*70%+2*140%)+BN3*(2*70%+2*140%))</f>
         <v>0</v>
       </c>
-      <c r="BP3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="47">
-        <f>+IF(BQ3&lt;=0,IF(E3="M1-1",350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*(R3+BP3),350000*85%/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)+350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*((W3+X3+Y3+BP3))),0)+(85%*BS3)*350000/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
-        <v>0</v>
-      </c>
-      <c r="BU3" s="47">
+      <c r="BP3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="44">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="46">
+        <f>+IF(BQ3&lt;=0,IF(E3="M1-1",350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*(R3+BP3),350000*85%/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)+350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*((W3+X3+Y3+BP3))),0)+(BS3)*350000/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
+        <v>0</v>
+      </c>
+      <c r="BU3" s="46">
         <f>(DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(85%*BS3)*DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="47">
+      <c r="BV3" s="46">
         <f>DC3/NETWORKDAYS.INTL($P$1,$Q$1,11)*R3</f>
         <v>0</v>
       </c>
-      <c r="BW3" s="139">
+      <c r="BW3" s="138">
         <f>+BS3*SUM(K3:O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BX3" s="139">
+      <c r="BX3" s="138">
         <f>30%*P3*(BR3+BS3)</f>
         <v>0</v>
       </c>
-      <c r="BY3" s="47">
+      <c r="BY3" s="46">
         <f>(DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(85%*BS3)*DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BZ3" s="47">
+      <c r="BZ3" s="46">
         <f t="shared" ref="BZ3" si="15">30000*$DT3</f>
         <v>0</v>
       </c>
-      <c r="CA3" s="48"/>
-      <c r="CB3" s="47">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="49">
+      <c r="CA3" s="47"/>
+      <c r="CB3" s="46">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="48">
         <f>+DY3+EB3+ED3</f>
         <v>0</v>
       </c>
-      <c r="CD3" s="45">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="45">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="45">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="45">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="46">
+      <c r="CD3" s="44">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="44">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="44">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="44">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="45">
         <f t="shared" ref="CH3" si="16">IF(H3="operator",(CF3+CG3)*$Q3,CF3*$Q3*85%+CG3*$Q3)</f>
         <v>0</v>
       </c>
-      <c r="CI3" s="49">
+      <c r="CI3" s="48">
         <f>+DZ3+EC3</f>
         <v>0</v>
       </c>
-      <c r="CJ3" s="50">
+      <c r="CJ3" s="49">
         <f>ROUND(AB3+AP3+AS3+AV3+BJ3+BO3+SUM(BT3:CC3)+DV3-SUM(CH3:CI3),0)</f>
         <v>0</v>
       </c>
-      <c r="CK3" s="51">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="52">
+      <c r="CK3" s="50">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="51">
         <f t="shared" ref="CL3" si="17">IF(CK3="x",10.5%*(J3+K3+L3+M3+N3+O3+CA3+CB3),IF(DR3="x",DS3,0))</f>
         <v>231750</v>
       </c>
-      <c r="CM3" s="52">
+      <c r="CM3" s="51">
         <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;149000,(J3+K3+L3+M3+N3+O3)*1%,149000),0)</f>
         <v>0</v>
       </c>
-      <c r="CN3" s="52">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="46">
-        <f t="shared" ref="CO3" si="18">IF(H3="operator",Q3*((AC3+AI3)*50%+(AD3+AJ3)*100%+(AE3+AK3)*110%+(AF3+AL3)*170%+(AG3+AM3)*200%+(AH3+AN3)*290%),Q3*85%*(AC3*50%+AD3*100%+AE3*110%+AF3*170%+AG3*200%+AH3*290%)+Q3*(AI3*50%+AJ3*100%+AK3*110%+AL3*170%+AM3*200%+AN3*290%))</f>
-        <v>0</v>
-      </c>
-      <c r="CP3" s="53">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="46">
-        <f t="shared" ref="CQ3" si="19">(CJ3+CP3-CO3-O3)</f>
-        <v>0</v>
-      </c>
-      <c r="CR3" s="53">
+      <c r="CN3" s="51">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="45">
+        <f>IF(H3="operator",Q3*((AC3+AI3)*50%+(AD3+AJ3)*100%+(AE3+AK3)*110%+(AF3+AL3)*170%+(AG3+AM3)*200%+(AH3+AN3)*290%),Q3*85%*(AC3*50%+AD3*100%+AE3*110%+AF3*170%+AG3*200%+AH3*290%)+Q3*(AI3*50%+AJ3*100%+AK3*110%+AL3*170%+AM3*200%+AN3*290%))+P3*30%*(85%*T3+X3)</f>
+        <v>0</v>
+      </c>
+      <c r="CP3" s="52">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="45">
+        <f t="shared" ref="CQ3" si="18">(CJ3+CP3-CO3-O3)</f>
+        <v>0</v>
+      </c>
+      <c r="CR3" s="52">
         <v>11000000</v>
       </c>
-      <c r="CS3" s="54">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="46">
-        <f t="shared" ref="CT3" si="20">CS3*4400000</f>
-        <v>0</v>
-      </c>
-      <c r="CU3" s="52">
-        <f t="shared" ref="CU3" si="21">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
-        <v>0</v>
-      </c>
-      <c r="CV3" s="52">
-        <f t="shared" ref="CV3" si="22">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="CW3" s="55">
-        <f t="shared" ref="CW3" si="23">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
+      <c r="CS3" s="53">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="45">
+        <f t="shared" ref="CT3" si="19">CS3*4400000</f>
+        <v>0</v>
+      </c>
+      <c r="CU3" s="51">
+        <f t="shared" ref="CU3" si="20">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
+        <v>0</v>
+      </c>
+      <c r="CV3" s="51">
+        <f t="shared" ref="CV3" si="21">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="CW3" s="54">
+        <f t="shared" ref="CW3" si="22">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
         <v>-231750</v>
       </c>
-      <c r="CX3" s="56">
-        <f t="shared" ref="CX3" si="24">I3</f>
+      <c r="CX3" s="55">
+        <f t="shared" ref="CX3" si="23">I3</f>
         <v>42065</v>
       </c>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="58"/>
-      <c r="DB3" s="58">
-        <f t="shared" ref="DB3" si="25">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
-        <v>0</v>
-      </c>
-      <c r="DC3" s="59">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="58">
-        <v>0</v>
-      </c>
-      <c r="DE3" s="60"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="61">
-        <f t="shared" ref="DG3" si="26">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DH3" s="61">
-        <f t="shared" ref="DH3" si="27">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DI3" s="62">
-        <f t="shared" ref="DI3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="62">
-        <f t="shared" ref="DJ3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DK3" s="62">
-        <f t="shared" ref="DK3" si="30">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL3" s="62">
-        <f t="shared" ref="DL3" si="31">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DM3" s="62">
-        <f t="shared" ref="DM3" si="32">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DN3" s="62">
-        <f t="shared" ref="DN3" si="33">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DO3" s="62">
-        <f t="shared" ref="DO3" si="34">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DP3" s="58">
-        <f t="shared" ref="DP3" si="35">+CM3</f>
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="58">
-        <f t="shared" ref="DQ3" si="36">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DR3" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="DS3" s="63">
-        <f t="shared" ref="DS3" si="37">+IF($DR3="x",($J3+$K3+$L3+M3+$N3+$O3)*4.5%,0)</f>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="57">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="57"/>
+      <c r="DB3" s="57">
+        <f t="shared" ref="DB3" si="24">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
+        <v>0</v>
+      </c>
+      <c r="DC3" s="58">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="57">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="59"/>
+      <c r="DF3" s="66"/>
+      <c r="DG3" s="60">
+        <f t="shared" ref="DG3" si="25">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH3" s="60">
+        <f t="shared" ref="DH3" si="26">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DI3" s="61">
+        <f t="shared" ref="DI3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="61">
+        <f t="shared" ref="DJ3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DK3" s="61">
+        <f t="shared" ref="DK3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL3" s="61">
+        <f t="shared" ref="DL3" si="30">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DM3" s="61">
+        <f t="shared" ref="DM3" si="31">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DN3" s="61">
+        <f t="shared" ref="DN3" si="32">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DO3" s="61">
+        <f t="shared" ref="DO3" si="33">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DP3" s="57">
+        <f t="shared" ref="DP3" si="34">+CM3</f>
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="57">
+        <f t="shared" ref="DQ3" si="35">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DR3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="DS3" s="62">
+        <f t="shared" ref="DS3" si="36">+IF($DR3="x",($J3+$K3+$L3+M3+$N3+$O3)*4.5%,0)</f>
         <v>231750</v>
       </c>
-      <c r="DT3" s="64">
-        <v>0</v>
-      </c>
-      <c r="DU3" s="62">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="62">
-        <f t="shared" ref="DV3" si="38">+DU3*70%*$DV$2</f>
-        <v>0</v>
-      </c>
-      <c r="DW3" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="DX3" s="65">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="65">
-        <f t="shared" ref="DY3" si="39">+IF(DX3&gt;0,DX3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="65">
-        <f t="shared" ref="DZ3" si="40">+IF(DX3&lt;0,-DX3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="EA3" s="65">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="58">
-        <f t="shared" ref="EB3" si="41">+IF(EA3&gt;0,EA3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="EC3" s="58">
-        <f t="shared" ref="EC3" si="42">-IF(EA3&lt;0,EA3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="ED3" s="65">
+      <c r="DT3" s="63">
+        <v>0</v>
+      </c>
+      <c r="DU3" s="61">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="61">
+        <f>+DU3*$DV$2</f>
+        <v>0</v>
+      </c>
+      <c r="DW3" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX3" s="64">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="64">
+        <f t="shared" ref="DY3" si="37">+IF(DX3&gt;0,DX3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="64">
+        <f t="shared" ref="DZ3" si="38">+IF(DX3&lt;0,-DX3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EA3" s="64">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="57">
+        <f t="shared" ref="EB3" si="39">+IF(EA3&gt;0,EA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC3" s="57">
+        <f t="shared" ref="EC3" si="40">-IF(EA3&lt;0,EA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="ED3" s="64">
         <v>0</v>
       </c>
       <c r="EE3" s="28"/>
@@ -4775,62 +4788,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AO601" sqref="AO601"/>
       <selection pane="topRight" activeCell="AO601" sqref="AO601"/>
       <selection pane="bottomLeft" activeCell="AO601" sqref="AO601"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="74" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="74" customWidth="1"/>
-    <col min="3" max="3" width="6" style="74" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="100" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="74" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="74" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="74" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="74" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="102" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="106" customWidth="1"/>
-    <col min="15" max="15" width="15" style="107" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="107" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" style="107" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="107" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="74" customWidth="1"/>
-    <col min="21" max="21" width="11" style="74" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="74" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="74" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="74" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="74" customWidth="1"/>
-    <col min="26" max="26" width="9" style="74" customWidth="1"/>
-    <col min="27" max="27" width="11" style="74" customWidth="1"/>
-    <col min="28" max="28" width="13" style="74" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="74" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="74" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="74" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="74" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" style="74" customWidth="1"/>
-    <col min="34" max="34" width="13.5703125" style="74" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11" style="74" customWidth="1"/>
-    <col min="37" max="37" width="13" style="74" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="74" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="74" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" style="74" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="5" style="73" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="6" style="73" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="73" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="73" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="73" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="73" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="73" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="101" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="105" customWidth="1"/>
+    <col min="15" max="15" width="15" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="106" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="106" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="106" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="73" customWidth="1"/>
+    <col min="21" max="21" width="11" style="73" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="73" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="73" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="73" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="73" customWidth="1"/>
+    <col min="26" max="26" width="9" style="73" customWidth="1"/>
+    <col min="27" max="27" width="11" style="73" customWidth="1"/>
+    <col min="28" max="28" width="13" style="73" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="73" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" style="73" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="73" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="73" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="73" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11" style="73" customWidth="1"/>
+    <col min="37" max="37" width="13" style="73" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="73" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="73" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" style="73" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="214" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="214"/>
       <c r="E1" s="214"/>
@@ -4839,42 +4852,42 @@
       <c r="H1" s="214"/>
       <c r="I1" s="214"/>
       <c r="J1" s="214"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
     </row>
     <row r="2" spans="1:41" ht="23.25" customHeight="1">
-      <c r="A2" s="69"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="215" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" s="215"/>
       <c r="D2" s="215"/>
@@ -4917,9 +4930,9 @@
       <c r="AO2" s="215"/>
     </row>
     <row r="3" spans="1:41" ht="30" customHeight="1">
-      <c r="A3" s="69"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="215" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="215"/>
       <c r="D3" s="215"/>
@@ -4966,22 +4979,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="216" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="216" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="E4" s="218" t="s">
         <v>121</v>
-      </c>
-      <c r="D4" s="218" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="218" t="s">
-        <v>123</v>
       </c>
       <c r="F4" s="218" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="218" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="220" t="s">
         <v>11</v>
@@ -4993,34 +5006,34 @@
         <v>13</v>
       </c>
       <c r="K4" s="218" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="218" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="212" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="218" t="s">
+      <c r="N4" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="212" t="s">
+      <c r="O4" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="212" t="s">
+      <c r="P4" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="226" t="s">
+      <c r="Q4" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="228" t="s">
+      <c r="R4" s="230" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="226" t="s">
+      <c r="S4" s="230" t="s">
         <v>131</v>
       </c>
-      <c r="R4" s="228" t="s">
+      <c r="T4" s="218" t="s">
         <v>132</v>
-      </c>
-      <c r="S4" s="228" t="s">
-        <v>133</v>
-      </c>
-      <c r="T4" s="218" t="s">
-        <v>134</v>
       </c>
       <c r="U4" s="218"/>
       <c r="V4" s="218"/>
@@ -5031,25 +5044,25 @@
       <c r="AA4" s="218"/>
       <c r="AB4" s="218"/>
       <c r="AC4" s="218" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD4" s="226" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE4" s="220" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF4" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" s="220" t="s">
+      <c r="AG4" s="218" t="s">
         <v>136</v>
       </c>
-      <c r="AE4" s="220" t="s">
+      <c r="AH4" s="220" t="s">
         <v>137</v>
       </c>
-      <c r="AF4" s="220" t="s">
+      <c r="AI4" s="218" t="s">
         <v>138</v>
-      </c>
-      <c r="AG4" s="218" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH4" s="220" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI4" s="218" t="s">
-        <v>141</v>
       </c>
       <c r="AJ4" s="218"/>
       <c r="AK4" s="218"/>
@@ -5057,7 +5070,7 @@
       <c r="AM4" s="218"/>
       <c r="AN4" s="218"/>
       <c r="AO4" s="222" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="45" customHeight="1">
@@ -5075,718 +5088,718 @@
       <c r="L5" s="219"/>
       <c r="M5" s="213"/>
       <c r="N5" s="213"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="227"/>
-      <c r="R5" s="229"/>
-      <c r="S5" s="229"/>
-      <c r="T5" s="75" t="s">
+      <c r="O5" s="229"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="V5" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="W5" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="75" t="s">
+      <c r="X5" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="Y5" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="W5" s="75" t="s">
+      <c r="Z5" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="X5" s="75" t="s">
+      <c r="AB5" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="Y5" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z5" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB5" s="75" t="s">
-        <v>150</v>
-      </c>
       <c r="AC5" s="219"/>
-      <c r="AD5" s="221"/>
+      <c r="AD5" s="227"/>
       <c r="AE5" s="221"/>
       <c r="AF5" s="221"/>
       <c r="AG5" s="219"/>
       <c r="AH5" s="221"/>
-      <c r="AI5" s="75" t="s">
+      <c r="AI5" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ5" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK5" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL5" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="AJ5" s="75" t="s">
+      <c r="AM5" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="AK5" s="75" t="s">
+      <c r="AN5" s="74" t="s">
         <v>153</v>
-      </c>
-      <c r="AL5" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM5" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN5" s="75" t="s">
-        <v>156</v>
       </c>
       <c r="AO5" s="223"/>
     </row>
-    <row r="6" spans="1:41" s="80" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="76">
+    <row r="6" spans="1:41" s="79" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="75">
         <f>+IF(B6="","",SUBTOTAL(3,$B$6:B6))</f>
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="76" t="str">
+      <c r="B6" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="75" t="str">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,4,0)</f>
         <v>M7-1</v>
       </c>
-      <c r="D6" s="76" t="str">
+      <c r="D6" s="75" t="str">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,5,0)</f>
         <v>Vũ Thị Ngọc</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,9,0)</f>
         <v>4800000</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,10,0)</f>
         <v>350000</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,11,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,12,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,13,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,14,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,15,0)</f>
         <v>214583.33333333334</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,16,0)</f>
         <v>26822.916666666668</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,17,0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,40,0)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="78">
+      <c r="O6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,41,0)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="78">
+      <c r="P6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,44,0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,47,0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="78">
+      <c r="R6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,61,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="78">
-        <v>0</v>
-      </c>
-      <c r="T6" s="78">
+      <c r="S6" s="77">
+        <v>0</v>
+      </c>
+      <c r="T6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,71,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="78">
+      <c r="U6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,72,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="78">
-        <v>0</v>
-      </c>
-      <c r="W6" s="78">
+      <c r="V6" s="77">
+        <v>0</v>
+      </c>
+      <c r="W6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,73,0)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="78">
+      <c r="X6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,78,0)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="78">
+      <c r="Y6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,79,0)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="78">
+      <c r="Z6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,76,0)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="78">
+      <c r="AA6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,74,0)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="78">
+      <c r="AB6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,75,0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="78">
+      <c r="AC6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,27,0)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="78">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,127,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="78">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="78">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="78">
+      <c r="AD6" s="77">
+        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="77">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="77">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,80,0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="78">
+      <c r="AH6" s="77">
         <f>ROUND(SUM(O6:AG6)-AN6-AM6,0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="78">
+      <c r="AI6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,89,0)</f>
         <v>231750</v>
       </c>
-      <c r="AJ6" s="78">
+      <c r="AJ6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,90,0)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="78">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="78">
+      <c r="AK6" s="77">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,99,0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="78">
+      <c r="AM6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,86,0)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="78">
+      <c r="AN6" s="77">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,85,0)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="79">
+      <c r="AO6" s="78">
         <f>ROUND(AH6-SUM(AI6:AL6),0)</f>
         <v>-231750</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="83" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="81"/>
+    <row r="7" spans="1:41" s="82" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="80"/>
       <c r="B7" s="224" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="224"/>
       <c r="D7" s="224"/>
-      <c r="E7" s="82">
+      <c r="E7" s="81">
         <f t="shared" ref="E7:AO7" si="0">+SUBTOTAL(9,E6:E6)</f>
         <v>4800000</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="81">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="81">
         <f t="shared" si="0"/>
         <v>214583.33333333334</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="81">
         <f t="shared" si="0"/>
         <v>26822.916666666668</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="82">
+      <c r="N7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="82">
+      <c r="O7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="82">
+      <c r="P7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="82">
+      <c r="R7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="82">
+      <c r="S7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="82">
+      <c r="T7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="82">
+      <c r="U7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="82">
+      <c r="V7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="82">
+      <c r="W7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="82">
+      <c r="X7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="82">
+      <c r="Y7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="82">
+      <c r="Z7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="82">
+      <c r="AA7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="82">
+      <c r="AB7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="82">
+      <c r="AC7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="82">
+      <c r="AD7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="82">
+      <c r="AE7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="82">
+      <c r="AF7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="82">
+      <c r="AG7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="82">
+      <c r="AH7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="82">
+      <c r="AI7" s="81">
         <f t="shared" si="0"/>
         <v>231750</v>
       </c>
-      <c r="AJ7" s="82">
+      <c r="AJ7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="82">
+      <c r="AK7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="82">
+      <c r="AL7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="82">
+      <c r="AM7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="82">
+      <c r="AN7" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="82">
+      <c r="AO7" s="81">
         <f t="shared" si="0"/>
         <v>-231750</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="89" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
+    <row r="8" spans="1:41" s="88" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
     </row>
-    <row r="9" spans="1:41" s="93" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
+    <row r="9" spans="1:41" s="92" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
     </row>
-    <row r="10" spans="1:41" s="94" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
+    <row r="10" spans="1:41" s="93" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="95"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
     </row>
-    <row r="11" spans="1:41" s="94" customFormat="1" ht="18.75">
-      <c r="D11" s="95"/>
-      <c r="M11" s="97"/>
+    <row r="11" spans="1:41" s="93" customFormat="1" ht="18.75">
+      <c r="D11" s="94"/>
+      <c r="M11" s="96"/>
       <c r="N11" s="225"/>
       <c r="O11" s="225"/>
       <c r="P11" s="225"/>
       <c r="Q11" s="225"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="98"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
       <c r="AG11" s="225"/>
       <c r="AH11" s="225"/>
       <c r="AI11" s="225"/>
       <c r="AJ11" s="225"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="98"/>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="96"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="95"/>
     </row>
-    <row r="12" spans="1:41" s="94" customFormat="1" ht="18.75" customHeight="1">
-      <c r="D12" s="95"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="230"/>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="98"/>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="96"/>
+    <row r="12" spans="1:41" s="93" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D12" s="94"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="232"/>
+      <c r="O12" s="232"/>
+      <c r="P12" s="232"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="97"/>
+      <c r="AO12" s="95"/>
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
-      <c r="I13" s="101"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="P13" s="230"/>
-      <c r="Q13" s="230"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="104"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
+      <c r="I13" s="100"/>
+      <c r="N13" s="232"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="232"/>
+      <c r="Q13" s="232"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N14" s="230"/>
-      <c r="O14" s="230"/>
-      <c r="P14" s="230"/>
-      <c r="Q14" s="230"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="232"/>
+      <c r="Q14" s="232"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="102"/>
     </row>
     <row r="15" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N15" s="230"/>
-      <c r="O15" s="230"/>
-      <c r="P15" s="230"/>
-      <c r="Q15" s="230"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="104"/>
-      <c r="AI15" s="104"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="232"/>
+      <c r="P15" s="232"/>
+      <c r="Q15" s="232"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="102"/>
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N16" s="230"/>
-      <c r="O16" s="230"/>
-      <c r="P16" s="230"/>
-      <c r="Q16" s="230"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="102"/>
     </row>
     <row r="17" spans="14:41" ht="22.5" customHeight="1">
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="231"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="105"/>
-      <c r="AB17" s="105"/>
-      <c r="AC17" s="105"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="231"/>
-      <c r="AH17" s="231"/>
-      <c r="AI17" s="231"/>
-      <c r="AJ17" s="231"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="105"/>
-      <c r="AN17" s="105"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="233"/>
+      <c r="AH17" s="233"/>
+      <c r="AI17" s="233"/>
+      <c r="AJ17" s="233"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
     </row>
     <row r="18" spans="14:41">
-      <c r="AO18" s="108"/>
+      <c r="AO18" s="107"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:AO9"/>
@@ -5853,2978 +5866,2978 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="109"/>
-    <col min="2" max="2" width="26.140625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="111" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="111" customWidth="1"/>
-    <col min="5" max="8" width="15.85546875" style="111" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="111" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="111" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="111" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="111" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="111" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="111" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" style="111" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="111" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="111"/>
+    <col min="1" max="1" width="9.140625" style="108"/>
+    <col min="2" max="2" width="26.140625" style="110" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="110" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="110" customWidth="1"/>
+    <col min="5" max="8" width="15.85546875" style="110" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="110" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="110" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="110" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="110" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="110" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="110" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="110" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="110" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="59.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="116" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="234" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="111" t="s">
         <v>165</v>
       </c>
+      <c r="E3" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="112" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="T3" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="U3" s="115" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" s="113" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" s="117" customFormat="1" ht="51" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="K3" s="114" t="s">
-        <v>175</v>
-      </c>
-      <c r="L3" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="M3" s="114" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="O3" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="S3" s="115" t="s">
+    <row r="4" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="T3" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="U3" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="V3" s="114" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="118" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="119">
+      <c r="C4" s="118">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="137">
+      <c r="D4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$J$3:$J$1048576)</f>
         <v>4800000</v>
       </c>
-      <c r="E4" s="137">
+      <c r="E4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$K$3:$K$1048576)</f>
         <v>350000</v>
       </c>
-      <c r="F4" s="137">
+      <c r="F4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="137">
+      <c r="G4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="138">
+      <c r="J4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="138">
+      <c r="K4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="138">
+      <c r="L4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="138">
+      <c r="M4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="138">
+      <c r="N4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="138">
+      <c r="O4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="138">
+      <c r="P4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="138">
+      <c r="Q4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="138">
+      <c r="R4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="138">
+      <c r="S4" s="137">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DS$3:$DS$1048576)</f>
         <v>231750</v>
       </c>
-      <c r="T4" s="138">
-        <v>0</v>
-      </c>
-      <c r="U4" s="120">
+      <c r="T4" s="137">
+        <v>0</v>
+      </c>
+      <c r="U4" s="119">
         <f>ROUND(I4-SUM(J4:L4,P4,R4,S4,T4),0)</f>
         <v>-231750</v>
       </c>
-      <c r="V4" s="120"/>
+      <c r="V4" s="119"/>
     </row>
-    <row r="5" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="137">
+        <v>0</v>
+      </c>
+      <c r="U5" s="119">
+        <f t="shared" ref="U5:U35" si="0">ROUND(I5-SUM(J5:L5,P5,R5,S5,T5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="119"/>
+    </row>
+    <row r="6" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="C6" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="137">
+        <v>0</v>
+      </c>
+      <c r="U6" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="119"/>
+    </row>
+    <row r="7" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="138">
-        <v>0</v>
-      </c>
-      <c r="U5" s="120">
-        <f t="shared" ref="U5:U35" si="0">ROUND(I5-SUM(J5:L5,P5,R5,S5,T5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="120"/>
+      <c r="B7" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="137">
+        <v>0</v>
+      </c>
+      <c r="U7" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="119"/>
     </row>
-    <row r="6" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="109" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="118" t="s">
+    <row r="8" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="138">
-        <v>0</v>
-      </c>
-      <c r="U6" s="120">
+      <c r="B8" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="137">
+        <v>0</v>
+      </c>
+      <c r="U8" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="120"/>
+      <c r="V8" s="119"/>
     </row>
-    <row r="7" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="118" t="s">
+    <row r="9" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="138">
-        <v>0</v>
-      </c>
-      <c r="U7" s="120">
+      <c r="B9" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="137">
+        <v>0</v>
+      </c>
+      <c r="U9" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="120"/>
+      <c r="V9" s="119"/>
     </row>
-    <row r="8" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="118" t="s">
+    <row r="10" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="108">
+        <v>201016</v>
+      </c>
+      <c r="B10" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="138">
-        <v>0</v>
-      </c>
-      <c r="U8" s="120">
+      <c r="C10" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="137">
+        <v>0</v>
+      </c>
+      <c r="U10" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="120"/>
+      <c r="V10" s="119"/>
     </row>
-    <row r="9" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="109" t="s">
+    <row r="11" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="138">
-        <v>0</v>
-      </c>
-      <c r="U9" s="120">
+      <c r="C11" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="137">
+        <v>0</v>
+      </c>
+      <c r="U11" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="120"/>
+      <c r="V11" s="119"/>
     </row>
-    <row r="10" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="109">
-        <v>201016</v>
-      </c>
-      <c r="B10" s="118" t="s">
+    <row r="12" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="138">
-        <v>0</v>
-      </c>
-      <c r="U10" s="120">
+      <c r="B12" s="117" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="137">
+        <v>0</v>
+      </c>
+      <c r="U12" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="120"/>
+      <c r="V12" s="119"/>
     </row>
-    <row r="11" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="118" t="s">
+    <row r="13" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="138">
-        <v>0</v>
-      </c>
-      <c r="U11" s="120">
+      <c r="B13" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="137">
+        <v>0</v>
+      </c>
+      <c r="U13" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="120"/>
+      <c r="V13" s="119"/>
     </row>
-    <row r="12" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="118" t="s">
+    <row r="14" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="138">
-        <v>0</v>
-      </c>
-      <c r="U12" s="120">
+      <c r="B14" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="137">
+        <v>0</v>
+      </c>
+      <c r="U14" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="120"/>
+      <c r="V14" s="119"/>
     </row>
-    <row r="13" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="118" t="s">
+    <row r="15" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="138">
-        <v>0</v>
-      </c>
-      <c r="U13" s="120">
+      <c r="B15" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="137">
+        <v>0</v>
+      </c>
+      <c r="U15" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="120"/>
+      <c r="V15" s="119"/>
     </row>
-    <row r="14" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="118" t="s">
+    <row r="16" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="138">
-        <v>0</v>
-      </c>
-      <c r="U14" s="120">
+      <c r="B16" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="137">
+        <v>0</v>
+      </c>
+      <c r="U16" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V14" s="120"/>
+      <c r="V16" s="119"/>
     </row>
-    <row r="15" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="118" t="s">
+    <row r="17" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="138">
-        <v>0</v>
-      </c>
-      <c r="U15" s="120">
+      <c r="B17" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="137">
+        <v>0</v>
+      </c>
+      <c r="U17" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="120"/>
+      <c r="V17" s="119"/>
     </row>
-    <row r="16" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="118" t="s">
+    <row r="18" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="138">
-        <v>0</v>
-      </c>
-      <c r="U16" s="120">
+      <c r="B18" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="137">
+        <v>0</v>
+      </c>
+      <c r="U18" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="120"/>
+      <c r="V18" s="119"/>
     </row>
-    <row r="17" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="109" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="118" t="s">
+    <row r="19" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="138">
-        <v>0</v>
-      </c>
-      <c r="U17" s="120">
+      <c r="B19" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="137">
+        <v>0</v>
+      </c>
+      <c r="U19" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="120"/>
+      <c r="V19" s="119"/>
     </row>
-    <row r="18" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="109" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="118" t="s">
+    <row r="20" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="138">
-        <v>0</v>
-      </c>
-      <c r="U18" s="120">
+      <c r="B20" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="137">
+        <v>0</v>
+      </c>
+      <c r="U20" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V18" s="120"/>
+      <c r="V20" s="119"/>
     </row>
-    <row r="19" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="118" t="s">
+    <row r="21" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="108">
+        <v>202007</v>
+      </c>
+      <c r="B21" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="138">
-        <v>0</v>
-      </c>
-      <c r="U19" s="120">
+      <c r="C21" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="137">
+        <v>0</v>
+      </c>
+      <c r="U21" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="120"/>
+      <c r="V21" s="119"/>
     </row>
-    <row r="20" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="109" t="s">
+    <row r="22" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="108">
+        <v>202008</v>
+      </c>
+      <c r="B22" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="C22" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="137">
+        <v>0</v>
+      </c>
+      <c r="U22" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="119"/>
+    </row>
+    <row r="23" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="138">
-        <v>0</v>
-      </c>
-      <c r="U20" s="120">
+      <c r="B23" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="137">
+        <v>0</v>
+      </c>
+      <c r="U23" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="120"/>
+      <c r="V23" s="119"/>
     </row>
-    <row r="21" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="109">
-        <v>202007</v>
-      </c>
-      <c r="B21" s="118" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="138">
-        <v>0</v>
-      </c>
-      <c r="U21" s="120">
+    <row r="24" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="137">
+        <v>0</v>
+      </c>
+      <c r="U24" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="120"/>
+      <c r="V24" s="119"/>
     </row>
-    <row r="22" spans="1:22" s="122" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="109">
-        <v>202008</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="138">
-        <v>0</v>
-      </c>
-      <c r="U22" s="120">
+    <row r="25" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="137">
+        <v>0</v>
+      </c>
+      <c r="U25" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="120"/>
+      <c r="V25" s="119"/>
     </row>
-    <row r="23" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="138">
-        <v>0</v>
-      </c>
-      <c r="U23" s="120">
+    <row r="26" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="137">
+        <v>0</v>
+      </c>
+      <c r="U26" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="120"/>
+      <c r="V26" s="119"/>
     </row>
-    <row r="24" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="138">
-        <v>0</v>
-      </c>
-      <c r="U24" s="120">
+    <row r="27" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="137">
+        <v>0</v>
+      </c>
+      <c r="U27" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="120"/>
+      <c r="V27" s="119"/>
     </row>
-    <row r="25" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="109" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="138">
-        <v>0</v>
-      </c>
-      <c r="U25" s="120">
+    <row r="28" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="137">
+        <v>0</v>
+      </c>
+      <c r="U28" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V25" s="120"/>
+      <c r="V28" s="119"/>
     </row>
-    <row r="26" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="118" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="138">
-        <v>0</v>
-      </c>
-      <c r="U26" s="120">
+    <row r="29" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="137">
+        <v>0</v>
+      </c>
+      <c r="U29" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V26" s="120"/>
+      <c r="V29" s="119"/>
     </row>
-    <row r="27" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="123" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="118" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="138">
-        <v>0</v>
-      </c>
-      <c r="U27" s="120">
+    <row r="30" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="137">
+        <v>0</v>
+      </c>
+      <c r="U30" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V27" s="120"/>
+      <c r="V30" s="119"/>
     </row>
-    <row r="28" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="138">
-        <v>0</v>
-      </c>
-      <c r="U28" s="120">
+    <row r="31" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="137">
+        <v>0</v>
+      </c>
+      <c r="U31" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V28" s="120"/>
+      <c r="V31" s="119"/>
     </row>
-    <row r="29" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="B29" s="118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="138">
-        <v>0</v>
-      </c>
-      <c r="U29" s="120">
+    <row r="32" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="108">
+        <v>252001</v>
+      </c>
+      <c r="B32" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="137">
+        <v>0</v>
+      </c>
+      <c r="U32" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V29" s="120"/>
+      <c r="V32" s="123"/>
     </row>
-    <row r="30" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="109" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="118" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="138">
-        <v>0</v>
-      </c>
-      <c r="U30" s="120">
+    <row r="33" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="108">
+        <v>251001</v>
+      </c>
+      <c r="B33" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="137">
+        <v>0</v>
+      </c>
+      <c r="U33" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V30" s="120"/>
+      <c r="V33" s="123"/>
     </row>
-    <row r="31" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="109" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="118" t="s">
+    <row r="34" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="108">
+        <v>262001</v>
+      </c>
+      <c r="B34" s="117" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="138">
-        <v>0</v>
-      </c>
-      <c r="U31" s="120">
+      <c r="C34" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="137">
+        <v>0</v>
+      </c>
+      <c r="U34" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31" s="120"/>
+      <c r="V34" s="123"/>
     </row>
-    <row r="32" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="109">
-        <v>252001</v>
-      </c>
-      <c r="B32" s="118" t="s">
+    <row r="35" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="108">
+        <v>261001</v>
+      </c>
+      <c r="B35" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="138">
-        <v>0</v>
-      </c>
-      <c r="U32" s="120">
+      <c r="C35" s="118">
+        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="136">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="137">
+        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="137">
+        <v>0</v>
+      </c>
+      <c r="U35" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V32" s="124"/>
+      <c r="V35" s="123"/>
     </row>
-    <row r="33" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="109">
-        <v>251001</v>
-      </c>
-      <c r="B33" s="118" t="s">
+    <row r="36" spans="1:22" s="116" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="124" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="138">
-        <v>0</v>
-      </c>
-      <c r="U33" s="120">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="124"/>
-    </row>
-    <row r="34" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="109">
-        <v>262001</v>
-      </c>
-      <c r="B34" s="118" t="s">
+      <c r="B36" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="138">
-        <v>0</v>
-      </c>
-      <c r="U34" s="120">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="124"/>
-    </row>
-    <row r="35" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="109">
-        <v>261001</v>
-      </c>
-      <c r="B35" s="118" t="s">
-        <v>241</v>
-      </c>
-      <c r="C35" s="119">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="137">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="138">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="138">
-        <v>0</v>
-      </c>
-      <c r="U35" s="120">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="124"/>
-    </row>
-    <row r="36" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="125" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" s="126" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="127">
+      <c r="C36" s="126">
         <f>SUM(C4:C35)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="127">
+      <c r="D36" s="126">
         <f t="shared" ref="D36:T36" si="1">SUM(D4:D35)</f>
         <v>4800000</v>
       </c>
-      <c r="E36" s="127">
+      <c r="E36" s="126">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
-      <c r="F36" s="127">
+      <c r="F36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="127">
+      <c r="G36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="127">
+      <c r="H36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="127">
+      <c r="I36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="127">
+      <c r="J36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="127">
+      <c r="K36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="127">
+      <c r="L36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="127">
+      <c r="M36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="127">
+      <c r="N36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="127">
+      <c r="O36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P36" s="127">
+      <c r="P36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="127">
+      <c r="Q36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="127">
+      <c r="R36" s="126">
         <f>SUM(R4:R35)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="127">
+      <c r="S36" s="126">
         <f t="shared" si="1"/>
         <v>231750</v>
       </c>
-      <c r="T36" s="127">
+      <c r="T36" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36" s="127">
+      <c r="U36" s="126">
         <f>SUM(U4:U35)</f>
         <v>-231750</v>
       </c>
-      <c r="V36" s="127"/>
+      <c r="V36" s="126"/>
     </row>
-    <row r="37" spans="1:22" s="117" customFormat="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="132"/>
+    <row r="37" spans="1:22" s="116" customFormat="1">
+      <c r="A37" s="127"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="129"/>
+      <c r="U37" s="131"/>
     </row>
-    <row r="38" spans="1:22" s="117" customFormat="1">
-      <c r="A38" s="109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="131"/>
-      <c r="U38" s="131"/>
+    <row r="38" spans="1:22" s="116" customFormat="1">
+      <c r="A38" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="133"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="132"/>
+      <c r="Q39" s="132"/>
+      <c r="R39" s="132"/>
+      <c r="S39" s="132"/>
+      <c r="T39" s="132"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="J40" s="134"/>
-      <c r="K40" s="135"/>
-      <c r="U40" s="136"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="134"/>
+      <c r="U40" s="135"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="134"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="133"/>
+      <c r="O41" s="133"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="J42" s="134"/>
-      <c r="U42" s="136"/>
+      <c r="J42" s="133"/>
+      <c r="U42" s="135"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
-      <c r="P43" s="134"/>
-      <c r="Q43" s="134"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="133"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="M44" s="130"/>
+      <c r="M44" s="129"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="J45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
+      <c r="J45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="J46" s="133"/>
-      <c r="M46" s="133"/>
+      <c r="J46" s="132"/>
+      <c r="M46" s="132"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="J47" s="133"/>
+      <c r="J47" s="132"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U3">

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
@@ -1750,6 +1750,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3530,10 +3531,10 @@
   <dimension ref="A1:EI3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE6" sqref="CE6"/>
+      <selection pane="bottomRight" activeCell="CM4" sqref="CM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -4434,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="BU3" s="46">
-        <f>(DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(85%*BS3)*DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
+        <f>(DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(BS3)*DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
       <c r="BV3" s="46">
@@ -4497,7 +4498,7 @@
         <v>231750</v>
       </c>
       <c r="CM3" s="51">
-        <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;149000,(J3+K3+L3+M3+N3+O3)*1%,149000),0)</f>
+        <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;180000,(J3+K3+L3+M3+N3+O3)*1%,180000),0)</f>
         <v>0</v>
       </c>
       <c r="CN3" s="51">

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR - ĐÀO. new\2.LƯƠNG\1.LUONG\0. Hệ thống\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1579,16 +1579,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="000"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2240,18 +2240,18 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2268,16 +2268,16 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2313,31 +2313,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2349,7 +2349,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,46 +2373,46 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2421,7 +2421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2430,37 +2430,34 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2471,10 +2468,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1"/>
@@ -2493,7 +2490,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1"/>
@@ -2508,11 +2505,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -2521,20 +2518,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2568,29 +2565,230 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="36" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="36" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="17" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="17" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2606,208 +2804,58 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2816,65 +2864,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="172" fontId="25" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3528,13 +3531,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:EI3"/>
+  <dimension ref="A1:EI17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CM4" sqref="CM4"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -3637,49 +3640,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="3" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A1" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="163" t="s">
+      <c r="A1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="143" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="206" t="s">
+      <c r="G1" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="163" t="s">
+      <c r="H1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="208" t="s">
+      <c r="I1" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="210" t="s">
+      <c r="J1" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="210" t="s">
+      <c r="K1" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="203" t="s">
+      <c r="L1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="191" t="s">
+      <c r="M1" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="193" t="s">
+      <c r="N1" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="195" t="s">
+      <c r="O1" s="157" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1">
@@ -3688,307 +3691,307 @@
       <c r="Q1" s="2">
         <v>44985</v>
       </c>
-      <c r="R1" s="197" t="s">
+      <c r="R1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="199" t="s">
+      <c r="S1" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="199" t="s">
+      <c r="T1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="180" t="s">
+      <c r="U1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="180" t="s">
+      <c r="V1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="201" t="s">
+      <c r="W1" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="201" t="s">
+      <c r="X1" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="201" t="s">
+      <c r="Y1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="180" t="s">
+      <c r="Z1" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="180" t="s">
+      <c r="AA1" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="180" t="s">
+      <c r="AB1" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="179" t="s">
+      <c r="AC1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="179"/>
-      <c r="AG1" s="179"/>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="179" t="s">
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="179"/>
-      <c r="AK1" s="179"/>
-      <c r="AL1" s="179"/>
-      <c r="AM1" s="179"/>
-      <c r="AN1" s="179"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="180" t="s">
+      <c r="AP1" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="185" t="s">
+      <c r="AQ1" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="185" t="s">
+      <c r="AR1" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="180" t="s">
+      <c r="AS1" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="185" t="s">
+      <c r="AT1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="185" t="s">
+      <c r="AU1" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="180" t="s">
+      <c r="AV1" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="179" t="s">
+      <c r="AW1" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="179"/>
-      <c r="BA1" s="179"/>
-      <c r="BB1" s="179"/>
-      <c r="BC1" s="179" t="s">
+      <c r="AX1" s="165"/>
+      <c r="AY1" s="165"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="165"/>
+      <c r="BB1" s="165"/>
+      <c r="BC1" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="179"/>
-      <c r="BE1" s="179"/>
-      <c r="BF1" s="179"/>
-      <c r="BG1" s="179"/>
-      <c r="BH1" s="179"/>
-      <c r="BI1" s="180" t="s">
+      <c r="BD1" s="165"/>
+      <c r="BE1" s="165"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="165"/>
+      <c r="BH1" s="165"/>
+      <c r="BI1" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" s="180" t="s">
+      <c r="BJ1" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="BK1" s="182" t="s">
+      <c r="BK1" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="184"/>
-      <c r="BP1" s="185" t="s">
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="172"/>
+      <c r="BP1" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="187" t="s">
+      <c r="BQ1" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="189" t="s">
+      <c r="BR1" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="BS1" s="190"/>
-      <c r="BT1" s="173" t="s">
+      <c r="BS1" s="176"/>
+      <c r="BT1" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="BU1" s="173" t="s">
+      <c r="BU1" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="BV1" s="173" t="s">
+      <c r="BV1" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="BW1" s="173" t="s">
+      <c r="BW1" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="BX1" s="173" t="s">
+      <c r="BX1" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="BY1" s="173" t="s">
+      <c r="BY1" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="BZ1" s="175" t="s">
+      <c r="BZ1" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="CA1" s="175" t="s">
+      <c r="CA1" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="CB1" s="175" t="s">
+      <c r="CB1" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="CC1" s="177" t="s">
+      <c r="CC1" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="CD1" s="161" t="s">
+      <c r="CD1" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="CE1" s="161" t="s">
+      <c r="CE1" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="CF1" s="161" t="s">
+      <c r="CF1" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="CG1" s="161" t="s">
+      <c r="CG1" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="CH1" s="146" t="s">
+      <c r="CH1" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="CI1" s="171" t="s">
+      <c r="CI1" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="CJ1" s="161" t="s">
+      <c r="CJ1" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="CK1" s="163" t="s">
+      <c r="CK1" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="CL1" s="146" t="s">
+      <c r="CL1" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="CM1" s="146" t="s">
+      <c r="CM1" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="CN1" s="165" t="s">
+      <c r="CN1" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="146" t="s">
+      <c r="CO1" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="CP1" s="165" t="s">
+      <c r="CP1" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="CQ1" s="146" t="s">
+      <c r="CQ1" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="CR1" s="167" t="s">
+      <c r="CR1" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="169" t="s">
+      <c r="CS1" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="146" t="s">
+      <c r="CT1" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="CU1" s="146" t="s">
+      <c r="CU1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="CV1" s="146" t="s">
+      <c r="CV1" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="CW1" s="148" t="s">
+      <c r="CW1" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="CX1" s="150" t="s">
+      <c r="CX1" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="CY1" s="152" t="s">
+      <c r="CY1" s="198" t="s">
         <v>112</v>
       </c>
-      <c r="CZ1" s="140" t="s">
+      <c r="CZ1" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="DA1" s="140"/>
-      <c r="DB1" s="140"/>
-      <c r="DC1" s="140"/>
-      <c r="DD1" s="154" t="s">
+      <c r="DA1" s="193"/>
+      <c r="DB1" s="193"/>
+      <c r="DC1" s="193"/>
+      <c r="DD1" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="156" t="s">
+      <c r="DE1" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="DF1" s="158" t="s">
+      <c r="DF1" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="DG1" s="160">
+      <c r="DG1" s="206">
         <v>44958</v>
       </c>
-      <c r="DH1" s="160"/>
-      <c r="DI1" s="140" t="s">
+      <c r="DH1" s="206"/>
+      <c r="DI1" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="DJ1" s="140"/>
-      <c r="DK1" s="140"/>
-      <c r="DL1" s="140"/>
-      <c r="DM1" s="140"/>
-      <c r="DN1" s="140"/>
-      <c r="DO1" s="140"/>
-      <c r="DP1" s="140" t="s">
+      <c r="DJ1" s="193"/>
+      <c r="DK1" s="193"/>
+      <c r="DL1" s="193"/>
+      <c r="DM1" s="193"/>
+      <c r="DN1" s="193"/>
+      <c r="DO1" s="193"/>
+      <c r="DP1" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="DQ1" s="140"/>
-      <c r="DR1" s="140" t="s">
+      <c r="DQ1" s="193"/>
+      <c r="DR1" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="DS1" s="140"/>
-      <c r="DT1" s="140" t="s">
+      <c r="DS1" s="193"/>
+      <c r="DT1" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="DU1" s="142" t="s">
+      <c r="DU1" s="208" t="s">
         <v>242</v>
       </c>
-      <c r="DV1" s="143"/>
-      <c r="DW1" s="144" t="s">
+      <c r="DV1" s="209"/>
+      <c r="DW1" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="DX1" s="140" t="s">
+      <c r="DX1" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="DY1" s="140"/>
-      <c r="DZ1" s="140"/>
-      <c r="EA1" s="140" t="s">
+      <c r="DY1" s="193"/>
+      <c r="DZ1" s="193"/>
+      <c r="EA1" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="EB1" s="140"/>
-      <c r="EC1" s="140"/>
-      <c r="ED1" s="141" t="s">
+      <c r="EB1" s="193"/>
+      <c r="EC1" s="193"/>
+      <c r="ED1" s="207" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="3" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="196"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="158"/>
       <c r="P2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="198"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="5">
         <v>1.5</v>
       </c>
@@ -4025,14 +4028,14 @@
       <c r="AN2" s="5">
         <v>3.9</v>
       </c>
-      <c r="AO2" s="181"/>
-      <c r="AP2" s="181"/>
-      <c r="AQ2" s="186"/>
-      <c r="AR2" s="186"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="181"/>
+      <c r="AO2" s="152"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="152"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="167"/>
+      <c r="AV2" s="152"/>
       <c r="AW2" s="5">
         <v>1.5</v>
       </c>
@@ -4069,8 +4072,8 @@
       <c r="BH2" s="5">
         <v>3.9</v>
       </c>
-      <c r="BI2" s="181"/>
-      <c r="BJ2" s="181"/>
+      <c r="BI2" s="152"/>
+      <c r="BJ2" s="152"/>
       <c r="BK2" s="6" t="s">
         <v>85</v>
       </c>
@@ -4086,46 +4089,46 @@
       <c r="BO2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="BP2" s="186"/>
-      <c r="BQ2" s="188"/>
-      <c r="BR2" s="67" t="s">
+      <c r="BP2" s="167"/>
+      <c r="BQ2" s="174"/>
+      <c r="BR2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="BS2" s="67" t="s">
+      <c r="BS2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="BT2" s="174"/>
-      <c r="BU2" s="174"/>
-      <c r="BV2" s="174"/>
-      <c r="BW2" s="174"/>
-      <c r="BX2" s="174"/>
-      <c r="BY2" s="174"/>
-      <c r="BZ2" s="176"/>
-      <c r="CA2" s="176"/>
-      <c r="CB2" s="176"/>
-      <c r="CC2" s="178"/>
-      <c r="CD2" s="162"/>
-      <c r="CE2" s="162"/>
-      <c r="CF2" s="162"/>
-      <c r="CG2" s="162"/>
-      <c r="CH2" s="147"/>
-      <c r="CI2" s="172"/>
-      <c r="CJ2" s="162"/>
-      <c r="CK2" s="164"/>
-      <c r="CL2" s="147"/>
-      <c r="CM2" s="147"/>
-      <c r="CN2" s="166"/>
-      <c r="CO2" s="147"/>
-      <c r="CP2" s="166"/>
-      <c r="CQ2" s="147"/>
-      <c r="CR2" s="168"/>
-      <c r="CS2" s="170"/>
-      <c r="CT2" s="147"/>
-      <c r="CU2" s="147"/>
-      <c r="CV2" s="147"/>
-      <c r="CW2" s="149"/>
-      <c r="CX2" s="151"/>
-      <c r="CY2" s="153"/>
+      <c r="BT2" s="169"/>
+      <c r="BU2" s="169"/>
+      <c r="BV2" s="169"/>
+      <c r="BW2" s="169"/>
+      <c r="BX2" s="169"/>
+      <c r="BY2" s="169"/>
+      <c r="BZ2" s="180"/>
+      <c r="CA2" s="180"/>
+      <c r="CB2" s="180"/>
+      <c r="CC2" s="182"/>
+      <c r="CD2" s="184"/>
+      <c r="CE2" s="184"/>
+      <c r="CF2" s="184"/>
+      <c r="CG2" s="184"/>
+      <c r="CH2" s="186"/>
+      <c r="CI2" s="178"/>
+      <c r="CJ2" s="184"/>
+      <c r="CK2" s="144"/>
+      <c r="CL2" s="186"/>
+      <c r="CM2" s="186"/>
+      <c r="CN2" s="188"/>
+      <c r="CO2" s="186"/>
+      <c r="CP2" s="188"/>
+      <c r="CQ2" s="186"/>
+      <c r="CR2" s="190"/>
+      <c r="CS2" s="192"/>
+      <c r="CT2" s="186"/>
+      <c r="CU2" s="186"/>
+      <c r="CV2" s="186"/>
+      <c r="CW2" s="195"/>
+      <c r="CX2" s="197"/>
+      <c r="CY2" s="199"/>
       <c r="CZ2" s="30" t="s">
         <v>90</v>
       </c>
@@ -4138,9 +4141,9 @@
       <c r="DC2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="DD2" s="155"/>
-      <c r="DE2" s="157"/>
-      <c r="DF2" s="159"/>
+      <c r="DD2" s="201"/>
+      <c r="DE2" s="203"/>
+      <c r="DF2" s="205"/>
       <c r="DG2" s="31" t="s">
         <v>94</v>
       </c>
@@ -4180,15 +4183,15 @@
       <c r="DS2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="DT2" s="141"/>
-      <c r="DU2" s="139" t="s">
+      <c r="DT2" s="207"/>
+      <c r="DU2" s="138" t="s">
         <v>243</v>
       </c>
       <c r="DV2" s="33">
         <f>4160000/26</f>
         <v>160000</v>
       </c>
-      <c r="DW2" s="145"/>
+      <c r="DW2" s="211"/>
       <c r="DX2" s="34" t="s">
         <v>107</v>
       </c>
@@ -4207,7 +4210,7 @@
       <c r="EC2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="ED2" s="141"/>
+      <c r="ED2" s="207"/>
     </row>
     <row r="3" spans="1:139" s="10" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="35"/>
@@ -4240,25 +4243,27 @@
         <v>350000</v>
       </c>
       <c r="L3" s="42">
-        <v>0</v>
+        <f>+IF(OR(H3="Group Leader/ Trưởng bộ phận",H5="Engineer Group Leader/ Trưởng bộ phận kỹ thuật",H5="Production Group Leader/ Trưởng bộ phận sản xuất"),2000000,IF(OR($H5="Part Leader/ Trưởng nhóm",$H5="Engineer Part Leader/ Trưởng nhóm kỹ thuật",$H5="Production Part Leader/ Trưởng nhóm sản xuất"),1000000,IF(OR($H5="Assistant leader/ Phó nhóm",$H5="Engineer Assistant leader/ Phó nhóm kỹ thuật",$H5="Production Assistant leader/ Phó nhóm sản xuất"),700000,IF(OR($H5="Engineer Supervisor/ Giám sát kỹ thuật",$H5="Supervisor/ Giám sát line"),500000,IF(OR($H5="Engineer shift leader/ Tổ trưởng kỹ thuật",$H5="Shift Leader/ Tổ trưởng sản xuất"),300000,0)))))</f>
+        <v>2000000</v>
       </c>
       <c r="M3" s="41">
         <v>0</v>
       </c>
-      <c r="N3" s="65">
-        <f t="shared" ref="N3" si="0">+IF(DG3&gt;=120,1250000,IF(AND(DG3&lt;=119,DG3&gt;=108),1150000,IF(AND(DG3&lt;=107,DG3&gt;=96),1050000,IF(AND(DG3&lt;=95,DG3&gt;=84),950000,IF(AND(DG3&lt;=83,DG3&gt;=72),850000,IF(AND(DG3&lt;=71,DG3&gt;=60),750000,IF(AND(DG3&lt;=59,DG3&gt;=48),650000,IF(AND(DG3&lt;=47,DG3&gt;=36),550000,IF(AND(DG3&lt;=35,DG3&gt;=24),450000,IF(AND(DG3&lt;=23,DG3&gt;=18),350000,IF(AND(DG3&lt;=17,DG3&gt;=12),250000,IF(AND(DG3&lt;=11,DG3&gt;=2),150000,0))))))))))))</f>
+      <c r="N3" s="236">
+        <f>+IF(DG3&gt;=96,1000000,IF(AND(DG3&lt;=95,DG3&gt;=84),950000,IF(AND(DG3&lt;=83,DG3&gt;=72),850000,IF(AND(DG3&lt;=71,DG3&gt;=60),750000,IF(AND(DG3&lt;=59,DG3&gt;=48),650000,IF(AND(DG3&lt;=47,DG3&gt;=36),550000,IF(AND(DG3&lt;=35,DG3&gt;=24),450000,IF(AND(DG3&lt;=23,DG3&gt;=18),350000,IF(AND(DG3&lt;=17,DG3&gt;=12),250000,IF(AND(DG3&lt;=11,DG3&gt;=2),150000,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O3" s="42">
+        <f>+IF($G3="Utility",J3*5%,IF(C3="x",J3*7%,0))</f>
         <v>0</v>
       </c>
       <c r="P3" s="43">
-        <f t="shared" ref="P3" si="1">+SUM($J3:$O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
-        <v>214583.33333333334</v>
+        <f t="shared" ref="P3" si="0">+SUM($J3:$O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
+        <v>297916.66666666669</v>
       </c>
       <c r="Q3" s="43">
-        <f t="shared" ref="Q3" si="2">+IF(NETWORKDAYS.INTL($P$1,$Q$1,11)&lt;=26,P3/8,(SUM(J3:O3)/26)/8)</f>
-        <v>26822.916666666668</v>
+        <f t="shared" ref="Q3" si="1">+IF(NETWORKDAYS.INTL($P$1,$Q$1,11)&lt;=26,P3/8,(SUM(J3:O3)/26)/8)</f>
+        <v>37239.583333333336</v>
       </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44">
@@ -4268,11 +4273,11 @@
         <v>0</v>
       </c>
       <c r="U3" s="45">
-        <f t="shared" ref="U3" si="3">85%*$P3*$S3</f>
+        <f t="shared" ref="U3" si="2">85%*$P3*$S3</f>
         <v>0</v>
       </c>
       <c r="V3" s="45">
-        <f t="shared" ref="V3" si="4">85%*$P3*130%*$T3</f>
+        <f t="shared" ref="V3" si="3">85%*$P3*130%*$T3</f>
         <v>0</v>
       </c>
       <c r="W3" s="44"/>
@@ -4283,15 +4288,15 @@
         <v>0</v>
       </c>
       <c r="Z3" s="45">
-        <f t="shared" ref="Z3" si="5">+$P3*($W3+$Y3)</f>
+        <f t="shared" ref="Z3" si="4">+$P3*($W3+$Y3)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="45">
-        <f t="shared" ref="AA3" si="6">+$P3*130%*X3</f>
+        <f t="shared" ref="AA3" si="5">+$P3*130%*X3</f>
         <v>0</v>
       </c>
       <c r="AB3" s="45">
-        <f t="shared" ref="AB3" si="7">+U3+V3+Z3+AA3</f>
+        <f t="shared" ref="AB3" si="6">+U3+V3+Z3+AA3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="44">
@@ -4331,11 +4336,11 @@
         <v>0</v>
       </c>
       <c r="AO3" s="45">
-        <f t="shared" ref="AO3" si="8">SUM(AC3:AH3,AI3:AN3)</f>
+        <f t="shared" ref="AO3" si="7">SUM(AC3:AH3,AI3:AN3)</f>
         <v>0</v>
       </c>
       <c r="AP3" s="45">
-        <f t="shared" ref="AP3" si="9">+IF(H3="operator",Q3*((AC3+AI3)*150%+(AD3+AJ3)*200%+(AE3+AK3)*210%+(AF3+AL3)*270%+(AG3+AM3)*300%+(AH3+AN3)*390%),Q3*85%*(AC3*150%+AD3*200%+AE3*210%+AF3*270%+AG3*300%+AH3*390%)+Q3*(AI3*150%+AJ3*200%+AK3*210%+AL3*270%+AM3*300%+AN3*390%))</f>
+        <f t="shared" ref="AP3" si="8">+IF(H3="operator",Q3*((AC3+AI3)*150%+(AD3+AJ3)*200%+(AE3+AK3)*210%+(AF3+AL3)*270%+(AG3+AM3)*300%+(AH3+AN3)*390%),Q3*85%*(AC3*150%+AD3*200%+AE3*210%+AF3*270%+AG3*300%+AH3*390%)+Q3*(AI3*150%+AJ3*200%+AK3*210%+AL3*270%+AM3*300%+AN3*390%))</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="44">
@@ -4345,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="45">
-        <f t="shared" ref="AS3" si="10">260%*P3*(85%*AQ3/2+AR3/2)</f>
+        <f t="shared" ref="AS3" si="9">260%*P3*(85%*AQ3/2+AR3/2)</f>
         <v>0</v>
       </c>
       <c r="AT3" s="44">
@@ -4355,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="45">
-        <f t="shared" ref="AV3" si="11">+IF(E3="M1-1",Q3*(AT3+AU3)*200%*(45/60),Q3*85%*AT3*200%*(45/60)+Q3*AU3*200%*(45/60))</f>
+        <f t="shared" ref="AV3" si="10">+IF(E3="M1-1",Q3*(AT3+AU3)*200%*(45/60),Q3*85%*AT3*200%*(45/60)+Q3*AU3*200%*(45/60))</f>
         <v>0</v>
       </c>
       <c r="AW3" s="44">
@@ -4395,11 +4400,11 @@
         <v>0</v>
       </c>
       <c r="BI3" s="45">
-        <f t="shared" ref="BI3" si="12">SUM(AW3:BB3,BC3:BH3)</f>
+        <f t="shared" ref="BI3" si="11">SUM(AW3:BB3,BC3:BH3)</f>
         <v>0</v>
       </c>
       <c r="BJ3" s="45">
-        <f t="shared" ref="BJ3" si="13">+Q3*85%*(AW3*$AW$2+AX3*$AX$2+AY3*$AY$2+AZ3*$AZ$2+BA3*$BA$2+BB3*$BB$2)+Q3*(BC3*$BC$2+BD3*$BD$2+BE3*$BE$2+BF3*$BF$2+BG3*$BG$2+BH3*$BH$2)</f>
+        <f t="shared" ref="BJ3" si="12">+Q3*85%*(AW3*$AW$2+AX3*$AX$2+AY3*$AY$2+AZ3*$AZ$2+BA3*$BA$2+BB3*$BB$2)+Q3*(BC3*$BC$2+BD3*$BD$2+BE3*$BE$2+BF3*$BF$2+BG3*$BG$2+BH3*$BH$2)</f>
         <v>0</v>
       </c>
       <c r="BK3" s="44">
@@ -4415,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="46">
-        <f t="shared" ref="BO3" si="14">+P3*(BK3*85%+BL3)+Q3*(85%*BM3*(2*70%+2*140%)+BN3*(2*70%+2*140%))</f>
+        <f t="shared" ref="BO3" si="13">+P3*(BK3*85%+BL3)+Q3*(85%*BM3*(2*70%+2*140%)+BN3*(2*70%+2*140%))</f>
         <v>0</v>
       </c>
       <c r="BP3" s="44">
@@ -4442,11 +4447,11 @@
         <f>DC3/NETWORKDAYS.INTL($P$1,$Q$1,11)*R3</f>
         <v>0</v>
       </c>
-      <c r="BW3" s="138">
+      <c r="BW3" s="137">
         <f>+BS3*SUM(K3:O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BX3" s="138">
+      <c r="BX3" s="137">
         <f>30%*P3*(BR3+BS3)</f>
         <v>0</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" s="46">
-        <f t="shared" ref="BZ3" si="15">30000*$DT3</f>
+        <f t="shared" ref="BZ3" si="14">30000*$DT3</f>
         <v>0</v>
       </c>
       <c r="CA3" s="47"/>
@@ -4479,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="CH3" s="45">
-        <f t="shared" ref="CH3" si="16">IF(H3="operator",(CF3+CG3)*$Q3,CF3*$Q3*85%+CG3*$Q3)</f>
+        <f t="shared" ref="CH3" si="15">IF(H3="operator",(CF3+CG3)*$Q3,CF3*$Q3*85%+CG3*$Q3)</f>
         <v>0</v>
       </c>
       <c r="CI3" s="48">
@@ -4494,8 +4499,8 @@
         <v>0</v>
       </c>
       <c r="CL3" s="51">
-        <f t="shared" ref="CL3" si="17">IF(CK3="x",10.5%*(J3+K3+L3+M3+N3+O3+CA3+CB3),IF(DR3="x",DS3,0))</f>
-        <v>231750</v>
+        <f t="shared" ref="CL3" si="16">IF(CK3="x",10.5%*(J3+K3+L3+M3+N3+O3+CA3+CB3),IF(DR3="x",DS3,0))</f>
+        <v>321750</v>
       </c>
       <c r="CM3" s="51">
         <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;180000,(J3+K3+L3+M3+N3+O3)*1%,180000),0)</f>
@@ -4512,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="CQ3" s="45">
-        <f t="shared" ref="CQ3" si="18">(CJ3+CP3-CO3-O3)</f>
+        <f t="shared" ref="CQ3" si="17">(CJ3+CP3-CO3-O3)</f>
         <v>0</v>
       </c>
       <c r="CR3" s="52">
@@ -4522,23 +4527,23 @@
         <v>0</v>
       </c>
       <c r="CT3" s="45">
-        <f t="shared" ref="CT3" si="19">CS3*4400000</f>
+        <f t="shared" ref="CT3" si="18">CS3*4400000</f>
         <v>0</v>
       </c>
       <c r="CU3" s="51">
-        <f t="shared" ref="CU3" si="20">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
+        <f t="shared" ref="CU3" si="19">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
         <v>0</v>
       </c>
       <c r="CV3" s="51">
-        <f t="shared" ref="CV3" si="21">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
+        <f t="shared" ref="CV3" si="20">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
         <v>0</v>
       </c>
       <c r="CW3" s="54">
-        <f t="shared" ref="CW3" si="22">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
-        <v>-231750</v>
+        <f t="shared" ref="CW3" si="21">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
+        <v>-321750</v>
       </c>
       <c r="CX3" s="55">
-        <f t="shared" ref="CX3" si="23">I3</f>
+        <f t="shared" ref="CX3" si="22">I3</f>
         <v>42065</v>
       </c>
       <c r="CY3" s="56"/>
@@ -4547,7 +4552,7 @@
       </c>
       <c r="DA3" s="57"/>
       <c r="DB3" s="57">
-        <f t="shared" ref="DB3" si="24">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
+        <f t="shared" ref="DB3" si="23">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
         <v>0</v>
       </c>
       <c r="DC3" s="58">
@@ -4557,57 +4562,57 @@
         <v>0</v>
       </c>
       <c r="DE3" s="59"/>
-      <c r="DF3" s="66"/>
+      <c r="DF3" s="65"/>
       <c r="DG3" s="60">
-        <f t="shared" ref="DG3" si="25">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
+        <f t="shared" ref="DG3" si="24">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
         <v>0</v>
       </c>
       <c r="DH3" s="60">
-        <f t="shared" ref="DH3" si="26">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
+        <f t="shared" ref="DH3" si="25">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
         <v>0</v>
       </c>
       <c r="DI3" s="61">
-        <f t="shared" ref="DI3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
+        <f t="shared" ref="DI3" si="26">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
         <v>0</v>
       </c>
       <c r="DJ3" s="61">
-        <f t="shared" ref="DJ3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
+        <f t="shared" ref="DJ3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
         <v>0</v>
       </c>
       <c r="DK3" s="61">
-        <f t="shared" ref="DK3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
+        <f t="shared" ref="DK3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
         <v>0</v>
       </c>
       <c r="DL3" s="61">
-        <f t="shared" ref="DL3" si="30">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
+        <f t="shared" ref="DL3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
         <v>0</v>
       </c>
       <c r="DM3" s="61">
-        <f t="shared" ref="DM3" si="31">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
+        <f t="shared" ref="DM3" si="30">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
         <v>0</v>
       </c>
       <c r="DN3" s="61">
-        <f t="shared" ref="DN3" si="32">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
+        <f t="shared" ref="DN3" si="31">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
         <v>0</v>
       </c>
       <c r="DO3" s="61">
-        <f t="shared" ref="DO3" si="33">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
+        <f t="shared" ref="DO3" si="32">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
         <v>0</v>
       </c>
       <c r="DP3" s="57">
-        <f t="shared" ref="DP3" si="34">+CM3</f>
+        <f t="shared" ref="DP3" si="33">+CM3</f>
         <v>0</v>
       </c>
       <c r="DQ3" s="57">
-        <f t="shared" ref="DQ3" si="35">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
+        <f t="shared" ref="DQ3" si="34">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
         <v>0</v>
       </c>
       <c r="DR3" s="58" t="s">
         <v>114</v>
       </c>
       <c r="DS3" s="62">
-        <f t="shared" ref="DS3" si="36">+IF($DR3="x",($J3+$K3+$L3+M3+$N3+$O3)*4.5%,0)</f>
-        <v>231750</v>
+        <f t="shared" ref="DS3" si="35">+IF($DR3="x",($J3+$K3+$L3+M3+$N3+$O3)*4.5%,0)</f>
+        <v>321750</v>
       </c>
       <c r="DT3" s="63">
         <v>0</v>
@@ -4626,22 +4631,22 @@
         <v>0</v>
       </c>
       <c r="DY3" s="64">
-        <f t="shared" ref="DY3" si="37">+IF(DX3&gt;0,DX3,0)</f>
+        <f t="shared" ref="DY3" si="36">+IF(DX3&gt;0,DX3,0)</f>
         <v>0</v>
       </c>
       <c r="DZ3" s="64">
-        <f t="shared" ref="DZ3" si="38">+IF(DX3&lt;0,-DX3,0)</f>
+        <f t="shared" ref="DZ3" si="37">+IF(DX3&lt;0,-DX3,0)</f>
         <v>0</v>
       </c>
       <c r="EA3" s="64">
         <v>0</v>
       </c>
       <c r="EB3" s="57">
-        <f t="shared" ref="EB3" si="39">+IF(EA3&gt;0,EA3,0)</f>
+        <f t="shared" ref="EB3" si="38">+IF(EA3&gt;0,EA3,0)</f>
         <v>0</v>
       </c>
       <c r="EC3" s="57">
-        <f t="shared" ref="EC3" si="40">-IF(EA3&lt;0,EA3,0)</f>
+        <f t="shared" ref="EC3" si="39">-IF(EA3&lt;0,EA3,0)</f>
         <v>0</v>
       </c>
       <c r="ED3" s="64">
@@ -4653,9 +4658,126 @@
       <c r="EH3" s="29"/>
       <c r="EI3" s="29"/>
     </row>
+    <row r="5" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:139" ht="34.5" customHeight="1">
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="10:10" ht="34.5" customHeight="1">
+      <c r="J17" s="15"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:EI3"/>
   <mergeCells count="90">
+    <mergeCell ref="EA1:EC1"/>
+    <mergeCell ref="ED1:ED2"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DU1:DV1"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DX1:DZ1"/>
+    <mergeCell ref="DI1:DO1"/>
+    <mergeCell ref="DP1:DQ1"/>
+    <mergeCell ref="DR1:DS1"/>
+    <mergeCell ref="CV1:CV2"/>
+    <mergeCell ref="CW1:CW2"/>
+    <mergeCell ref="CX1:CX2"/>
+    <mergeCell ref="CY1:CY2"/>
+    <mergeCell ref="CZ1:DC1"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="DG1:DH1"/>
+    <mergeCell ref="CU1:CU2"/>
+    <mergeCell ref="CJ1:CJ2"/>
+    <mergeCell ref="CK1:CK2"/>
+    <mergeCell ref="CL1:CL2"/>
+    <mergeCell ref="CM1:CM2"/>
+    <mergeCell ref="CN1:CN2"/>
+    <mergeCell ref="CO1:CO2"/>
+    <mergeCell ref="CP1:CP2"/>
+    <mergeCell ref="CQ1:CQ2"/>
+    <mergeCell ref="CR1:CR2"/>
+    <mergeCell ref="CS1:CS2"/>
+    <mergeCell ref="CT1:CT2"/>
+    <mergeCell ref="CI1:CI2"/>
+    <mergeCell ref="BX1:BX2"/>
+    <mergeCell ref="BY1:BY2"/>
+    <mergeCell ref="BZ1:BZ2"/>
+    <mergeCell ref="CA1:CA2"/>
+    <mergeCell ref="CB1:CB2"/>
+    <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="CD1:CD2"/>
+    <mergeCell ref="CE1:CE2"/>
+    <mergeCell ref="CF1:CF2"/>
+    <mergeCell ref="CG1:CG2"/>
+    <mergeCell ref="CH1:CH2"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BP2"/>
+    <mergeCell ref="BQ1:BQ2"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BT2"/>
+    <mergeCell ref="BU1:BU2"/>
+    <mergeCell ref="BV1:BV2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4668,84 +4790,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="BJ1:BJ2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BP2"/>
-    <mergeCell ref="BQ1:BQ2"/>
-    <mergeCell ref="BR1:BS1"/>
-    <mergeCell ref="BT1:BT2"/>
-    <mergeCell ref="BU1:BU2"/>
-    <mergeCell ref="BV1:BV2"/>
-    <mergeCell ref="CI1:CI2"/>
-    <mergeCell ref="BX1:BX2"/>
-    <mergeCell ref="BY1:BY2"/>
-    <mergeCell ref="BZ1:BZ2"/>
-    <mergeCell ref="CA1:CA2"/>
-    <mergeCell ref="CB1:CB2"/>
-    <mergeCell ref="CC1:CC2"/>
-    <mergeCell ref="CD1:CD2"/>
-    <mergeCell ref="CE1:CE2"/>
-    <mergeCell ref="CF1:CF2"/>
-    <mergeCell ref="CG1:CG2"/>
-    <mergeCell ref="CH1:CH2"/>
-    <mergeCell ref="CU1:CU2"/>
-    <mergeCell ref="CJ1:CJ2"/>
-    <mergeCell ref="CK1:CK2"/>
-    <mergeCell ref="CL1:CL2"/>
-    <mergeCell ref="CM1:CM2"/>
-    <mergeCell ref="CN1:CN2"/>
-    <mergeCell ref="CO1:CO2"/>
-    <mergeCell ref="CP1:CP2"/>
-    <mergeCell ref="CQ1:CQ2"/>
-    <mergeCell ref="CR1:CR2"/>
-    <mergeCell ref="CS1:CS2"/>
-    <mergeCell ref="CT1:CT2"/>
-    <mergeCell ref="DI1:DO1"/>
-    <mergeCell ref="DP1:DQ1"/>
-    <mergeCell ref="DR1:DS1"/>
-    <mergeCell ref="CV1:CV2"/>
-    <mergeCell ref="CW1:CW2"/>
-    <mergeCell ref="CX1:CX2"/>
-    <mergeCell ref="CY1:CY2"/>
-    <mergeCell ref="CZ1:DC1"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
-    <mergeCell ref="DG1:DH1"/>
-    <mergeCell ref="EA1:EC1"/>
-    <mergeCell ref="ED1:ED2"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DU1:DV1"/>
-    <mergeCell ref="DW1:DW2"/>
-    <mergeCell ref="DX1:DZ1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="17" priority="513"/>
@@ -4799,1017 +4843,1028 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="73" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="6" style="73" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="99" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="73" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="73" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="73" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="73" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="73" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="73" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="101" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="105" customWidth="1"/>
-    <col min="15" max="15" width="15" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="106" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" style="106" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="106" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="73" customWidth="1"/>
-    <col min="21" max="21" width="11" style="73" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="73" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="73" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="73" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="73" customWidth="1"/>
-    <col min="26" max="26" width="9" style="73" customWidth="1"/>
-    <col min="27" max="27" width="11" style="73" customWidth="1"/>
-    <col min="28" max="28" width="13" style="73" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="73" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="73" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="73" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="73" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" style="73" customWidth="1"/>
-    <col min="34" max="34" width="13.5703125" style="73" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11" style="73" customWidth="1"/>
-    <col min="37" max="37" width="13" style="73" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="73" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" style="73" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="73" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" style="73" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="6" style="72" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="72" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="72" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="72" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="100" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="104" customWidth="1"/>
+    <col min="15" max="15" width="15" style="105" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="105" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="105" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="105" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="72" customWidth="1"/>
+    <col min="21" max="21" width="11" style="72" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="72" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="72" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="72" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="72" customWidth="1"/>
+    <col min="26" max="26" width="9" style="72" customWidth="1"/>
+    <col min="27" max="27" width="11" style="72" customWidth="1"/>
+    <col min="28" max="28" width="13" style="72" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="72" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" style="72" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="72" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="72" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="72" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11" style="72" customWidth="1"/>
+    <col min="37" max="37" width="13" style="72" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="72" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="72" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" style="72" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="214" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="230" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
     </row>
     <row r="2" spans="1:41" ht="23.25" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="215" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="231" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="215"/>
-      <c r="AM2" s="215"/>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="215"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="231"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="231"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231"/>
+      <c r="X2" s="231"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="231"/>
+      <c r="AB2" s="231"/>
+      <c r="AC2" s="231"/>
+      <c r="AD2" s="231"/>
+      <c r="AE2" s="231"/>
+      <c r="AF2" s="231"/>
+      <c r="AG2" s="231"/>
+      <c r="AH2" s="231"/>
+      <c r="AI2" s="231"/>
+      <c r="AJ2" s="231"/>
+      <c r="AK2" s="231"/>
+      <c r="AL2" s="231"/>
+      <c r="AM2" s="231"/>
+      <c r="AN2" s="231"/>
+      <c r="AO2" s="231"/>
     </row>
     <row r="3" spans="1:41" ht="30" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="215" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="231" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="215"/>
-      <c r="AF3" s="215"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="215"/>
-      <c r="AJ3" s="215"/>
-      <c r="AK3" s="215"/>
-      <c r="AL3" s="215"/>
-      <c r="AM3" s="215"/>
-      <c r="AN3" s="215"/>
-      <c r="AO3" s="215"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="231"/>
+      <c r="W3" s="231"/>
+      <c r="X3" s="231"/>
+      <c r="Y3" s="231"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="231"/>
+      <c r="AB3" s="231"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="231"/>
+      <c r="AE3" s="231"/>
+      <c r="AF3" s="231"/>
+      <c r="AG3" s="231"/>
+      <c r="AH3" s="231"/>
+      <c r="AI3" s="231"/>
+      <c r="AJ3" s="231"/>
+      <c r="AK3" s="231"/>
+      <c r="AL3" s="231"/>
+      <c r="AM3" s="231"/>
+      <c r="AN3" s="231"/>
+      <c r="AO3" s="231"/>
     </row>
     <row r="4" spans="1:41" ht="21.75" customHeight="1">
-      <c r="A4" s="216" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="216" t="s">
+      <c r="A4" s="232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="232" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="216" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="218" t="s">
+      <c r="G4" s="216" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="220" t="s">
+      <c r="H4" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="218" t="s">
+      <c r="I4" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="218" t="s">
+      <c r="J4" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="218" t="s">
+      <c r="K4" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="218" t="s">
+      <c r="L4" s="216" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="212" t="s">
+      <c r="M4" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="212" t="s">
+      <c r="N4" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="228" t="s">
+      <c r="O4" s="226" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="230" t="s">
+      <c r="P4" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="228" t="s">
+      <c r="Q4" s="226" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="230" t="s">
+      <c r="R4" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="230" t="s">
+      <c r="S4" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="T4" s="218" t="s">
+      <c r="T4" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-      <c r="AC4" s="218" t="s">
+      <c r="U4" s="216"/>
+      <c r="V4" s="216"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="216"/>
+      <c r="Y4" s="216"/>
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="216"/>
+      <c r="AC4" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="AD4" s="226" t="s">
+      <c r="AD4" s="222" t="s">
         <v>244</v>
       </c>
-      <c r="AE4" s="220" t="s">
+      <c r="AE4" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="AF4" s="220" t="s">
+      <c r="AF4" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="AG4" s="218" t="s">
+      <c r="AG4" s="216" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" s="220" t="s">
+      <c r="AH4" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="AI4" s="218" t="s">
+      <c r="AI4" s="216" t="s">
         <v>138</v>
       </c>
-      <c r="AJ4" s="218"/>
-      <c r="AK4" s="218"/>
-      <c r="AL4" s="218"/>
-      <c r="AM4" s="218"/>
-      <c r="AN4" s="218"/>
-      <c r="AO4" s="222" t="s">
+      <c r="AJ4" s="216"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="216"/>
+      <c r="AM4" s="216"/>
+      <c r="AN4" s="216"/>
+      <c r="AO4" s="217" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="45" customHeight="1">
-      <c r="A5" s="217"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="229"/>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="74" t="s">
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="229"/>
+      <c r="Q5" s="227"/>
+      <c r="R5" s="229"/>
+      <c r="S5" s="229"/>
+      <c r="T5" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="74" t="s">
+      <c r="U5" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="74" t="s">
+      <c r="V5" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="W5" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="X5" s="74" t="s">
+      <c r="X5" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="Y5" s="74" t="s">
+      <c r="Y5" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="Z5" s="74" t="s">
+      <c r="Z5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="AA5" s="74" t="s">
+      <c r="AA5" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="AB5" s="74" t="s">
+      <c r="AB5" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="227"/>
-      <c r="AE5" s="221"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="221"/>
-      <c r="AI5" s="74" t="s">
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="223"/>
+      <c r="AE5" s="215"/>
+      <c r="AF5" s="215"/>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="215"/>
+      <c r="AI5" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="AJ5" s="74" t="s">
+      <c r="AJ5" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AK5" s="74" t="s">
+      <c r="AK5" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="AL5" s="74" t="s">
+      <c r="AL5" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="AM5" s="74" t="s">
+      <c r="AM5" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="AN5" s="74" t="s">
+      <c r="AN5" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="AO5" s="223"/>
+      <c r="AO5" s="218"/>
     </row>
-    <row r="6" spans="1:41" s="79" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="75">
+    <row r="6" spans="1:41" s="78" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="74">
         <f>+IF(B6="","",SUBTOTAL(3,$B$6:B6))</f>
         <v>1</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="75" t="str">
+      <c r="C6" s="74" t="str">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,4,0)</f>
         <v>M7-1</v>
       </c>
-      <c r="D6" s="75" t="str">
+      <c r="D6" s="74" t="str">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,5,0)</f>
         <v>Vũ Thị Ngọc</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,9,0)</f>
         <v>4800000</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,10,0)</f>
         <v>350000</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="77">
+        <v>2000000</v>
+      </c>
+      <c r="H6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,12,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,13,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,14,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,15,0)</f>
-        <v>214583.33333333334</v>
-      </c>
-      <c r="L6" s="77">
+        <v>297916.66666666669</v>
+      </c>
+      <c r="L6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,16,0)</f>
-        <v>26822.916666666668</v>
-      </c>
-      <c r="M6" s="77">
+        <v>37239.583333333336</v>
+      </c>
+      <c r="M6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,17,0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,40,0)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,41,0)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="77">
+      <c r="P6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,44,0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,47,0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="77">
+      <c r="R6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,61,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="77">
-        <v>0</v>
-      </c>
-      <c r="T6" s="77">
+      <c r="S6" s="76">
+        <v>0</v>
+      </c>
+      <c r="T6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,71,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="77">
+      <c r="U6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,72,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="77">
-        <v>0</v>
-      </c>
-      <c r="W6" s="77">
+      <c r="V6" s="76">
+        <v>0</v>
+      </c>
+      <c r="W6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,73,0)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="77">
+      <c r="X6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,78,0)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="77">
+      <c r="Y6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,79,0)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="77">
+      <c r="Z6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,76,0)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="77">
+      <c r="AA6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,74,0)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="77">
+      <c r="AB6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,75,0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="77">
+      <c r="AC6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,27,0)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="77">
+      <c r="AD6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,125,0)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="77">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="77">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="77">
+      <c r="AE6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,80,0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="77">
+      <c r="AH6" s="76">
         <f>ROUND(SUM(O6:AG6)-AN6-AM6,0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="77">
+      <c r="AI6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,89,0)</f>
-        <v>231750</v>
-      </c>
-      <c r="AJ6" s="77">
+        <v>321750</v>
+      </c>
+      <c r="AJ6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,90,0)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="77">
+      <c r="AK6" s="76">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,99,0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="77">
+      <c r="AM6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,86,0)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="77">
+      <c r="AN6" s="76">
         <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,85,0)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="78">
+      <c r="AO6" s="77">
         <f>ROUND(AH6-SUM(AI6:AL6),0)</f>
-        <v>-231750</v>
+        <v>-321750</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="82" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="224" t="s">
+    <row r="7" spans="1:41" s="81" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="79"/>
+      <c r="B7" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="81">
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="80">
         <f t="shared" ref="E7:AO7" si="0">+SUBTOTAL(9,E6:E6)</f>
         <v>4800000</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="80">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="81">
+        <v>2000000</v>
+      </c>
+      <c r="H7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="81">
+      <c r="I7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="80">
         <f t="shared" si="0"/>
-        <v>214583.33333333334</v>
-      </c>
-      <c r="L7" s="81">
+        <v>297916.66666666669</v>
+      </c>
+      <c r="L7" s="80">
         <f t="shared" si="0"/>
-        <v>26822.916666666668</v>
-      </c>
-      <c r="M7" s="81">
+        <v>37239.583333333336</v>
+      </c>
+      <c r="M7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="81">
+      <c r="N7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="81">
+      <c r="R7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="81">
+      <c r="S7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="81">
+      <c r="T7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="81">
+      <c r="U7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="81">
+      <c r="V7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="81">
+      <c r="W7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="81">
+      <c r="X7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="81">
+      <c r="Y7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="81">
+      <c r="Z7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="81">
+      <c r="AA7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="81">
+      <c r="AB7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="81">
+      <c r="AC7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="81">
+      <c r="AD7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="81">
+      <c r="AE7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="81">
+      <c r="AF7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="81">
+      <c r="AG7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="81">
+      <c r="AH7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="81">
+      <c r="AI7" s="80">
         <f t="shared" si="0"/>
-        <v>231750</v>
-      </c>
-      <c r="AJ7" s="81">
+        <v>321750</v>
+      </c>
+      <c r="AJ7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="81">
+      <c r="AK7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="81">
+      <c r="AL7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="81">
+      <c r="AM7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="81">
+      <c r="AN7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="81">
+      <c r="AO7" s="80">
         <f t="shared" si="0"/>
-        <v>-231750</v>
+        <v>-321750</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="88" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
+    <row r="8" spans="1:41" s="87" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
     </row>
-    <row r="9" spans="1:41" s="92" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
+    <row r="9" spans="1:41" s="91" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
     </row>
-    <row r="10" spans="1:41" s="93" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
+    <row r="10" spans="1:41" s="92" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
     </row>
-    <row r="11" spans="1:41" s="93" customFormat="1" ht="18.75">
-      <c r="D11" s="94"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="225"/>
-      <c r="AH11" s="225"/>
-      <c r="AI11" s="225"/>
-      <c r="AJ11" s="225"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="95"/>
+    <row r="11" spans="1:41" s="92" customFormat="1" ht="18.75">
+      <c r="D11" s="93"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="220"/>
+      <c r="AH11" s="220"/>
+      <c r="AI11" s="220"/>
+      <c r="AJ11" s="220"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="94"/>
     </row>
-    <row r="12" spans="1:41" s="93" customFormat="1" ht="18.75" customHeight="1">
-      <c r="D12" s="94"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="95"/>
+    <row r="12" spans="1:41" s="92" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D12" s="93"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="94"/>
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
-      <c r="I13" s="100"/>
-      <c r="N13" s="232"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="232"/>
-      <c r="Q13" s="232"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="102"/>
-      <c r="AM13" s="102"/>
-      <c r="AN13" s="102"/>
+      <c r="I13" s="99"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="101"/>
+      <c r="AM13" s="101"/>
+      <c r="AN13" s="101"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="232"/>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="102"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="212"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="101"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="101"/>
+      <c r="AN14" s="101"/>
     </row>
     <row r="15" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N15" s="232"/>
-      <c r="O15" s="232"/>
-      <c r="P15" s="232"/>
-      <c r="Q15" s="232"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="102"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="212"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="101"/>
+      <c r="AL15" s="101"/>
+      <c r="AM15" s="101"/>
+      <c r="AN15" s="101"/>
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="102"/>
+      <c r="N16" s="212"/>
+      <c r="O16" s="212"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="212"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="101"/>
     </row>
     <row r="17" spans="14:41" ht="22.5" customHeight="1">
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="233"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="233"/>
-      <c r="AH17" s="233"/>
-      <c r="AI17" s="233"/>
-      <c r="AJ17" s="233"/>
-      <c r="AK17" s="104"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="213"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="213"/>
+      <c r="AH17" s="213"/>
+      <c r="AI17" s="213"/>
+      <c r="AJ17" s="213"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
     </row>
     <row r="18" spans="14:41">
-      <c r="AO18" s="107"/>
+      <c r="AO18" s="106"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:AO9"/>
   <mergeCells count="37">
-    <mergeCell ref="N12:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:AO2"/>
+    <mergeCell ref="B3:AO3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="N11:Q11"/>
@@ -5826,22 +5881,11 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B2:AO2"/>
-    <mergeCell ref="B3:AO3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N12:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39500000000000002" bottom="0" header="0" footer="0"/>
@@ -5867,2978 +5911,2978 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="108"/>
-    <col min="2" max="2" width="26.140625" style="110" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="110" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="110" customWidth="1"/>
-    <col min="5" max="8" width="15.85546875" style="110" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="110" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="110" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="110" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="110" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="110" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="110" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" style="110" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="110" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="110"/>
+    <col min="1" max="1" width="9.140625" style="107"/>
+    <col min="2" max="2" width="26.140625" style="109" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="109" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="109" customWidth="1"/>
+    <col min="5" max="8" width="15.85546875" style="109" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="109" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="109" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="109" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="109" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="109" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="109" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="109" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="59.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="116" customFormat="1" ht="51" customHeight="1">
+    <row r="3" spans="1:22" s="115" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="234" t="s">
         <v>163</v>
       </c>
       <c r="B3" s="235"/>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="113" t="s">
+      <c r="O3" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="P3" s="113" t="s">
+      <c r="P3" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="Q3" s="113" t="s">
+      <c r="Q3" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="R3" s="113" t="s">
+      <c r="R3" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="114" t="s">
+      <c r="S3" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="T3" s="114" t="s">
+      <c r="T3" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="U3" s="115" t="s">
+      <c r="U3" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="V3" s="113" t="s">
+      <c r="V3" s="112" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="108" t="s">
+    <row r="4" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="136">
+      <c r="D4" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$J$3:$J$1048576)</f>
         <v>4800000</v>
       </c>
-      <c r="E4" s="136">
+      <c r="E4" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$K$3:$K$1048576)</f>
         <v>350000</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="136">
+        <v>2000000</v>
+      </c>
+      <c r="G4" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="136">
+      <c r="H4" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="137">
+      <c r="I4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="137">
+      <c r="J4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="137">
+      <c r="K4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="137">
+      <c r="L4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="137">
+      <c r="M4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="137">
+      <c r="N4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="137">
+      <c r="O4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="137">
+      <c r="P4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="137">
+      <c r="Q4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="137">
+      <c r="R4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="137">
+      <c r="S4" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DS$3:$DS$1048576)</f>
-        <v>231750</v>
-      </c>
-      <c r="T4" s="137">
-        <v>0</v>
-      </c>
-      <c r="U4" s="119">
+        <v>321750</v>
+      </c>
+      <c r="T4" s="136">
+        <v>0</v>
+      </c>
+      <c r="U4" s="118">
         <f>ROUND(I4-SUM(J4:L4,P4,R4,S4,T4),0)</f>
-        <v>-231750</v>
-      </c>
-      <c r="V4" s="119"/>
+        <v>-321750</v>
+      </c>
+      <c r="V4" s="118"/>
     </row>
-    <row r="5" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="137">
+      <c r="I5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="137">
+      <c r="J5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="137">
+      <c r="K5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="137">
+      <c r="L5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="137">
+      <c r="M5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="137">
+      <c r="N5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="137">
+      <c r="O5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="137">
+      <c r="P5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="137">
+      <c r="Q5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="137">
+      <c r="R5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="137">
+      <c r="S5" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="137">
-        <v>0</v>
-      </c>
-      <c r="U5" s="119">
+      <c r="T5" s="136">
+        <v>0</v>
+      </c>
+      <c r="U5" s="118">
         <f t="shared" ref="U5:U35" si="0">ROUND(I5-SUM(J5:L5,P5,R5,S5,T5),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="119"/>
+      <c r="V5" s="118"/>
     </row>
-    <row r="6" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="108" t="s">
+    <row r="6" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="137">
+      <c r="I6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="137">
+      <c r="J6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="137">
+      <c r="K6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="137">
+      <c r="L6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="137">
+      <c r="M6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="137">
+      <c r="N6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="137">
+      <c r="O6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="137">
+      <c r="P6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="137">
+      <c r="Q6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="137">
+      <c r="R6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="137">
+      <c r="S6" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="137">
-        <v>0</v>
-      </c>
-      <c r="U6" s="119">
+      <c r="T6" s="136">
+        <v>0</v>
+      </c>
+      <c r="U6" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="119"/>
+      <c r="V6" s="118"/>
     </row>
-    <row r="7" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="136">
+      <c r="E7" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="136">
+      <c r="F7" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="137">
+      <c r="I7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="137">
+      <c r="J7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="137">
+      <c r="K7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="137">
+      <c r="L7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="137">
+      <c r="M7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="137">
+      <c r="N7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="137">
+      <c r="O7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="137">
+      <c r="P7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="137">
+      <c r="Q7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="137">
+      <c r="R7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="137">
+      <c r="S7" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="137">
-        <v>0</v>
-      </c>
-      <c r="U7" s="119">
+      <c r="T7" s="136">
+        <v>0</v>
+      </c>
+      <c r="U7" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="119"/>
+      <c r="V7" s="118"/>
     </row>
-    <row r="8" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="136">
+      <c r="E8" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="137">
+      <c r="I8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="137">
+      <c r="J8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="137">
+      <c r="K8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="137">
+      <c r="L8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="137">
+      <c r="M8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="137">
+      <c r="N8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="137">
+      <c r="O8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="137">
+      <c r="P8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="137">
+      <c r="Q8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="137">
+      <c r="R8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="137">
+      <c r="S8" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="137">
-        <v>0</v>
-      </c>
-      <c r="U8" s="119">
+      <c r="T8" s="136">
+        <v>0</v>
+      </c>
+      <c r="U8" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="119"/>
+      <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="108" t="s">
+    <row r="9" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="136">
+      <c r="E9" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="136">
+      <c r="F9" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="136">
+      <c r="H9" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="137">
+      <c r="I9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="137">
+      <c r="J9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="137">
+      <c r="K9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="137">
+      <c r="L9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="137">
+      <c r="M9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="137">
+      <c r="N9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="137">
+      <c r="O9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="137">
+      <c r="P9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="137">
+      <c r="Q9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="137">
+      <c r="R9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="137">
+      <c r="S9" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="137">
-        <v>0</v>
-      </c>
-      <c r="U9" s="119">
+      <c r="T9" s="136">
+        <v>0</v>
+      </c>
+      <c r="U9" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="119"/>
+      <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="108">
+    <row r="10" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="107">
         <v>201016</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="136">
+      <c r="D10" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E10" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="136">
+      <c r="F10" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="136">
+      <c r="G10" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="136">
+      <c r="H10" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="137">
+      <c r="J10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="137">
+      <c r="K10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="137">
+      <c r="L10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="137">
+      <c r="M10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="137">
+      <c r="N10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="137">
+      <c r="O10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="137">
+      <c r="P10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="137">
+      <c r="Q10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="137">
+      <c r="R10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="137">
+      <c r="S10" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="137">
-        <v>0</v>
-      </c>
-      <c r="U10" s="119">
+      <c r="T10" s="136">
+        <v>0</v>
+      </c>
+      <c r="U10" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="119"/>
+      <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="136">
+      <c r="E11" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="136">
+      <c r="F11" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G11" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="136">
+      <c r="H11" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="137">
+      <c r="I11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="137">
+      <c r="J11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="137">
+      <c r="K11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="137">
+      <c r="L11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="137">
+      <c r="M11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="137">
+      <c r="N11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="137">
+      <c r="O11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="137">
+      <c r="P11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="137">
+      <c r="Q11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="137">
+      <c r="R11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="137">
+      <c r="S11" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="137">
-        <v>0</v>
-      </c>
-      <c r="U11" s="119">
+      <c r="T11" s="136">
+        <v>0</v>
+      </c>
+      <c r="U11" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="119"/>
+      <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="136">
+      <c r="E12" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="136">
+      <c r="F12" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="136">
+      <c r="G12" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="136">
+      <c r="H12" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="137">
+      <c r="I12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="137">
+      <c r="J12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="137">
+      <c r="K12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="137">
+      <c r="L12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="137">
+      <c r="M12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="137">
+      <c r="N12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="137">
+      <c r="O12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="137">
+      <c r="P12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="137">
+      <c r="Q12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="137">
+      <c r="R12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="137">
+      <c r="S12" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="137">
-        <v>0</v>
-      </c>
-      <c r="U12" s="119">
+      <c r="T12" s="136">
+        <v>0</v>
+      </c>
+      <c r="U12" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="119"/>
+      <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="108" t="s">
+    <row r="13" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="136">
+      <c r="D13" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="136">
+      <c r="E13" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="136">
+      <c r="F13" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="136">
+      <c r="H13" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="137">
+      <c r="I13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="137">
+      <c r="J13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="137">
+      <c r="K13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="137">
+      <c r="L13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="137">
+      <c r="M13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="137">
+      <c r="N13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="137">
+      <c r="O13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="137">
+      <c r="P13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="137">
+      <c r="Q13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="137">
+      <c r="R13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="137">
+      <c r="S13" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="137">
-        <v>0</v>
-      </c>
-      <c r="U13" s="119">
+      <c r="T13" s="136">
+        <v>0</v>
+      </c>
+      <c r="U13" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="119"/>
+      <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="108" t="s">
+    <row r="14" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="107" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="136">
+      <c r="H14" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="137">
+      <c r="I14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="137">
+      <c r="J14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="137">
+      <c r="K14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="137">
+      <c r="L14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="137">
+      <c r="M14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="137">
+      <c r="N14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="137">
+      <c r="O14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="137">
+      <c r="P14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="137">
+      <c r="Q14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="137">
+      <c r="R14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="137">
+      <c r="S14" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="137">
-        <v>0</v>
-      </c>
-      <c r="U14" s="119">
+      <c r="T14" s="136">
+        <v>0</v>
+      </c>
+      <c r="U14" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V14" s="119"/>
+      <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="108" t="s">
+    <row r="15" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="136">
+      <c r="E15" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="136">
+      <c r="F15" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="136">
+      <c r="H15" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="137">
+      <c r="I15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="137">
+      <c r="J15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="137">
+      <c r="K15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="137">
+      <c r="L15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="137">
+      <c r="M15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="137">
+      <c r="N15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="137">
+      <c r="O15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="137">
+      <c r="P15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="137">
+      <c r="Q15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="137">
+      <c r="R15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="137">
+      <c r="S15" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="137">
-        <v>0</v>
-      </c>
-      <c r="U15" s="119">
+      <c r="T15" s="136">
+        <v>0</v>
+      </c>
+      <c r="U15" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="119"/>
+      <c r="V15" s="118"/>
     </row>
-    <row r="16" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="108" t="s">
+    <row r="16" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="136">
+      <c r="E16" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="136">
+      <c r="F16" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="136">
+      <c r="G16" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="136">
+      <c r="H16" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="137">
+      <c r="I16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="137">
+      <c r="J16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="137">
+      <c r="K16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="137">
+      <c r="L16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="137">
+      <c r="M16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="137">
+      <c r="N16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="137">
+      <c r="O16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="137">
+      <c r="P16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="137">
+      <c r="Q16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="137">
+      <c r="R16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="137">
+      <c r="S16" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="137">
-        <v>0</v>
-      </c>
-      <c r="U16" s="119">
+      <c r="T16" s="136">
+        <v>0</v>
+      </c>
+      <c r="U16" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="119"/>
+      <c r="V16" s="118"/>
     </row>
-    <row r="17" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="108" t="s">
+    <row r="17" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="136">
+      <c r="E17" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="136">
+      <c r="F17" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="136">
+      <c r="G17" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="136">
+      <c r="H17" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="137">
+      <c r="I17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="137">
+      <c r="J17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="137">
+      <c r="K17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="137">
+      <c r="L17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="137">
+      <c r="M17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="137">
+      <c r="N17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="137">
+      <c r="O17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="137">
+      <c r="P17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="137">
+      <c r="Q17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="137">
+      <c r="R17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="137">
+      <c r="S17" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="137">
-        <v>0</v>
-      </c>
-      <c r="U17" s="119">
+      <c r="T17" s="136">
+        <v>0</v>
+      </c>
+      <c r="U17" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="119"/>
+      <c r="V17" s="118"/>
     </row>
-    <row r="18" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="136">
+      <c r="D18" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="136">
+      <c r="E18" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="136">
+      <c r="F18" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="136">
+      <c r="G18" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="136">
+      <c r="H18" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="137">
+      <c r="I18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="137">
+      <c r="J18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="137">
+      <c r="K18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="137">
+      <c r="L18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="137">
+      <c r="M18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="137">
+      <c r="N18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="137">
+      <c r="O18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="137">
+      <c r="P18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="137">
+      <c r="Q18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="137">
+      <c r="R18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="137">
+      <c r="S18" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="137">
-        <v>0</v>
-      </c>
-      <c r="U18" s="119">
+      <c r="T18" s="136">
+        <v>0</v>
+      </c>
+      <c r="U18" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V18" s="119"/>
+      <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="108" t="s">
+    <row r="19" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="136">
+      <c r="D19" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="136">
+      <c r="E19" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="136">
+      <c r="F19" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="136">
+      <c r="H19" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="137">
+      <c r="I19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="137">
+      <c r="J19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="137">
+      <c r="K19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="137">
+      <c r="L19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="137">
+      <c r="M19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="137">
+      <c r="N19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="137">
+      <c r="O19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="137">
+      <c r="P19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="137">
+      <c r="Q19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="137">
+      <c r="R19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="137">
+      <c r="S19" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="137">
-        <v>0</v>
-      </c>
-      <c r="U19" s="119">
+      <c r="T19" s="136">
+        <v>0</v>
+      </c>
+      <c r="U19" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="119"/>
+      <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="136">
+      <c r="D20" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="136">
+      <c r="E20" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="136">
+      <c r="F20" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="136">
+      <c r="H20" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="137">
+      <c r="I20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="137">
+      <c r="J20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="137">
+      <c r="K20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="137">
+      <c r="L20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="137">
+      <c r="M20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="137">
+      <c r="N20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="137">
+      <c r="O20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="137">
+      <c r="P20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="137">
+      <c r="Q20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="137">
+      <c r="R20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="137">
+      <c r="S20" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="137">
-        <v>0</v>
-      </c>
-      <c r="U20" s="119">
+      <c r="T20" s="136">
+        <v>0</v>
+      </c>
+      <c r="U20" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="119"/>
+      <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="108">
+    <row r="21" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="107">
         <v>202007</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="136">
+      <c r="D21" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="136">
+      <c r="E21" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="136">
+      <c r="G21" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="136">
+      <c r="H21" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="137">
+      <c r="I21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="137">
+      <c r="J21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="137">
+      <c r="K21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="137">
+      <c r="L21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="137">
+      <c r="M21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="137">
+      <c r="N21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="137">
+      <c r="O21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="137">
+      <c r="P21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="137">
+      <c r="Q21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="137">
+      <c r="R21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="137">
+      <c r="S21" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="137">
-        <v>0</v>
-      </c>
-      <c r="U21" s="119">
+      <c r="T21" s="136">
+        <v>0</v>
+      </c>
+      <c r="U21" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="119"/>
+      <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" s="121" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="108">
+    <row r="22" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="107">
         <v>202008</v>
       </c>
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="136">
+      <c r="D22" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="136">
+      <c r="E22" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="136">
+      <c r="F22" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="136">
+      <c r="G22" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="136">
+      <c r="H22" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="137">
+      <c r="I22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="137">
+      <c r="J22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="137">
+      <c r="K22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="137">
+      <c r="L22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="137">
+      <c r="M22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="137">
+      <c r="N22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="137">
+      <c r="O22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="137">
+      <c r="P22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="137">
+      <c r="Q22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="137">
+      <c r="R22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="137">
+      <c r="S22" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="137">
-        <v>0</v>
-      </c>
-      <c r="U22" s="119">
+      <c r="T22" s="136">
+        <v>0</v>
+      </c>
+      <c r="U22" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="119"/>
+      <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="108" t="s">
+    <row r="23" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="136">
+      <c r="D23" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="136">
+      <c r="E23" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="136">
+      <c r="F23" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="136">
+      <c r="G23" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="136">
+      <c r="H23" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="137">
+      <c r="I23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="137">
+      <c r="J23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="137">
+      <c r="K23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="137">
+      <c r="L23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="137">
+      <c r="M23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="137">
+      <c r="N23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="137">
+      <c r="O23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="137">
+      <c r="P23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="137">
+      <c r="Q23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="137">
+      <c r="R23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="137">
+      <c r="S23" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="137">
-        <v>0</v>
-      </c>
-      <c r="U23" s="119">
+      <c r="T23" s="136">
+        <v>0</v>
+      </c>
+      <c r="U23" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="119"/>
+      <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="108" t="s">
+    <row r="24" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="136">
+      <c r="D24" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="136">
+      <c r="E24" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="136">
+      <c r="F24" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="136">
+      <c r="G24" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="136">
+      <c r="H24" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="137">
+      <c r="I24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="137">
+      <c r="J24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="137">
+      <c r="K24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="137">
+      <c r="L24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="137">
+      <c r="M24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="137">
+      <c r="N24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="137">
+      <c r="O24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="137">
+      <c r="P24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="137">
+      <c r="Q24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="137">
+      <c r="R24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="137">
+      <c r="S24" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="137">
-        <v>0</v>
-      </c>
-      <c r="U24" s="119">
+      <c r="T24" s="136">
+        <v>0</v>
+      </c>
+      <c r="U24" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="119"/>
+      <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="136">
+      <c r="D25" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="136">
+      <c r="E25" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="136">
+      <c r="F25" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="136">
+      <c r="G25" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="136">
+      <c r="H25" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="137">
+      <c r="I25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="137">
+      <c r="J25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="137">
+      <c r="K25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="137">
+      <c r="L25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="137">
+      <c r="M25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="137">
+      <c r="N25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="137">
+      <c r="O25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="137">
+      <c r="P25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="137">
+      <c r="Q25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="137">
+      <c r="R25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="137">
+      <c r="S25" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="137">
-        <v>0</v>
-      </c>
-      <c r="U25" s="119">
+      <c r="T25" s="136">
+        <v>0</v>
+      </c>
+      <c r="U25" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V25" s="119"/>
+      <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="108" t="s">
+    <row r="26" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="136">
+      <c r="D26" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="136">
+      <c r="E26" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="136">
+      <c r="F26" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="136">
+      <c r="G26" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="136">
+      <c r="H26" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="137">
+      <c r="I26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="137">
+      <c r="J26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="137">
+      <c r="K26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="137">
+      <c r="L26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="137">
+      <c r="M26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="137">
+      <c r="N26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="137">
+      <c r="O26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="137">
+      <c r="P26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="137">
+      <c r="Q26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="137">
+      <c r="R26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="137">
+      <c r="S26" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="137">
-        <v>0</v>
-      </c>
-      <c r="U26" s="119">
+      <c r="T26" s="136">
+        <v>0</v>
+      </c>
+      <c r="U26" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V26" s="119"/>
+      <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="122" t="s">
+    <row r="27" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="121" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="136">
+      <c r="D27" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="136">
+      <c r="E27" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="136">
+      <c r="F27" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="136">
+      <c r="G27" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="136">
+      <c r="H27" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="137">
+      <c r="I27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="137">
+      <c r="J27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="137">
+      <c r="K27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="137">
+      <c r="L27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="137">
+      <c r="M27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="137">
+      <c r="N27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="137">
+      <c r="O27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="137">
+      <c r="P27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="137">
+      <c r="Q27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="137">
+      <c r="R27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="137">
+      <c r="S27" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="137">
-        <v>0</v>
-      </c>
-      <c r="U27" s="119">
+      <c r="T27" s="136">
+        <v>0</v>
+      </c>
+      <c r="U27" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V27" s="119"/>
+      <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="108" t="s">
+    <row r="28" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="136">
+      <c r="D28" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="136">
+      <c r="E28" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="136">
+      <c r="F28" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="136">
+      <c r="G28" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="136">
+      <c r="H28" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="137">
+      <c r="I28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="137">
+      <c r="J28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="137">
+      <c r="K28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="137">
+      <c r="L28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="137">
+      <c r="M28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="137">
+      <c r="N28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="137">
+      <c r="O28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="137">
+      <c r="P28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="137">
+      <c r="Q28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="137">
+      <c r="R28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="137">
+      <c r="S28" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="137">
-        <v>0</v>
-      </c>
-      <c r="U28" s="119">
+      <c r="T28" s="136">
+        <v>0</v>
+      </c>
+      <c r="U28" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V28" s="119"/>
+      <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="108" t="s">
+    <row r="29" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="136">
+      <c r="E29" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="136">
+      <c r="F29" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="136">
+      <c r="G29" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="136">
+      <c r="H29" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="137">
+      <c r="I29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="137">
+      <c r="J29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="137">
+      <c r="K29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="137">
+      <c r="L29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="137">
+      <c r="M29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="137">
+      <c r="N29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="137">
+      <c r="O29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="137">
+      <c r="P29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="137">
+      <c r="Q29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="137">
+      <c r="R29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="137">
+      <c r="S29" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="137">
-        <v>0</v>
-      </c>
-      <c r="U29" s="119">
+      <c r="T29" s="136">
+        <v>0</v>
+      </c>
+      <c r="U29" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V29" s="119"/>
+      <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="108" t="s">
+    <row r="30" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="136">
+      <c r="D30" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="136">
+      <c r="E30" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="136">
+      <c r="F30" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="136">
+      <c r="G30" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="136">
+      <c r="H30" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="137">
+      <c r="I30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="137">
+      <c r="J30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="137">
+      <c r="K30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="137">
+      <c r="L30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="137">
+      <c r="M30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="137">
+      <c r="N30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="137">
+      <c r="O30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="137">
+      <c r="P30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="137">
+      <c r="Q30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="137">
+      <c r="R30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="137">
+      <c r="S30" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="137">
-        <v>0</v>
-      </c>
-      <c r="U30" s="119">
+      <c r="T30" s="136">
+        <v>0</v>
+      </c>
+      <c r="U30" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V30" s="119"/>
+      <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="108" t="s">
+    <row r="31" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="136">
+      <c r="D31" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="136">
+      <c r="E31" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="136">
+      <c r="F31" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="136">
+      <c r="G31" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="136">
+      <c r="H31" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="137">
+      <c r="I31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="137">
+      <c r="J31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="137">
+      <c r="K31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="137">
+      <c r="L31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="137">
+      <c r="M31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="137">
+      <c r="N31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="137">
+      <c r="O31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="137">
+      <c r="P31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="137">
+      <c r="Q31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="137">
+      <c r="R31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="137">
+      <c r="S31" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="137">
-        <v>0</v>
-      </c>
-      <c r="U31" s="119">
+      <c r="T31" s="136">
+        <v>0</v>
+      </c>
+      <c r="U31" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31" s="119"/>
+      <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="108">
+    <row r="32" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="107">
         <v>252001</v>
       </c>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="136">
+      <c r="D32" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="136">
+      <c r="E32" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="136">
+      <c r="F32" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="136">
+      <c r="G32" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="136">
+      <c r="H32" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="137">
+      <c r="I32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="137">
+      <c r="J32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="137">
+      <c r="K32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="137">
+      <c r="L32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="137">
+      <c r="M32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="137">
+      <c r="N32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="137">
+      <c r="O32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="137">
+      <c r="P32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="137">
+      <c r="Q32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="137">
+      <c r="R32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="137">
+      <c r="S32" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="137">
-        <v>0</v>
-      </c>
-      <c r="U32" s="119">
+      <c r="T32" s="136">
+        <v>0</v>
+      </c>
+      <c r="U32" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V32" s="123"/>
+      <c r="V32" s="122"/>
     </row>
-    <row r="33" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="108">
+    <row r="33" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="107">
         <v>251001</v>
       </c>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="136">
+      <c r="D33" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="136">
+      <c r="E33" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="136">
+      <c r="F33" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="136">
+      <c r="G33" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="136">
+      <c r="H33" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="137">
+      <c r="I33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="137">
+      <c r="J33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="137">
+      <c r="K33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="137">
+      <c r="L33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="137">
+      <c r="M33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="137">
+      <c r="N33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="137">
+      <c r="O33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="137">
+      <c r="P33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="137">
+      <c r="Q33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="137">
+      <c r="R33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="137">
+      <c r="S33" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="137">
-        <v>0</v>
-      </c>
-      <c r="U33" s="119">
+      <c r="T33" s="136">
+        <v>0</v>
+      </c>
+      <c r="U33" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="123"/>
+      <c r="V33" s="122"/>
     </row>
-    <row r="34" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="108">
+    <row r="34" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="107">
         <v>262001</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="136">
+      <c r="D34" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="136">
+      <c r="E34" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="136">
+      <c r="F34" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="136">
+      <c r="G34" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="136">
+      <c r="H34" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="137">
+      <c r="I34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="137">
+      <c r="J34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="137">
+      <c r="K34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="137">
+      <c r="L34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="137">
+      <c r="M34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="137">
+      <c r="N34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="137">
+      <c r="O34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="137">
+      <c r="P34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="137">
+      <c r="Q34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="137">
+      <c r="R34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="137">
+      <c r="S34" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="137">
-        <v>0</v>
-      </c>
-      <c r="U34" s="119">
+      <c r="T34" s="136">
+        <v>0</v>
+      </c>
+      <c r="U34" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V34" s="123"/>
+      <c r="V34" s="122"/>
     </row>
-    <row r="35" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="108">
+    <row r="35" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="107">
         <v>261001</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="117">
         <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="136">
+      <c r="D35" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="136">
+      <c r="E35" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="136">
+      <c r="F35" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="136">
+      <c r="G35" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="136">
+      <c r="H35" s="135">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="137">
+      <c r="I35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="137">
+      <c r="J35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="137">
+      <c r="K35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="137">
+      <c r="L35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="137">
+      <c r="M35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="137">
+      <c r="N35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="137">
+      <c r="O35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="137">
+      <c r="P35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="137">
+      <c r="Q35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="137">
+      <c r="R35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S35" s="137">
+      <c r="S35" s="136">
         <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="137">
-        <v>0</v>
-      </c>
-      <c r="U35" s="119">
+      <c r="T35" s="136">
+        <v>0</v>
+      </c>
+      <c r="U35" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V35" s="123"/>
+      <c r="V35" s="122"/>
     </row>
-    <row r="36" spans="1:22" s="116" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="124" t="s">
+    <row r="36" spans="1:22" s="115" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="C36" s="126">
+      <c r="C36" s="125">
         <f>SUM(C4:C35)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="126">
+      <c r="D36" s="125">
         <f t="shared" ref="D36:T36" si="1">SUM(D4:D35)</f>
         <v>4800000</v>
       </c>
-      <c r="E36" s="126">
+      <c r="E36" s="125">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
-      <c r="F36" s="126">
+      <c r="F36" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="126">
+        <v>2000000</v>
+      </c>
+      <c r="G36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="126">
+      <c r="H36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="126">
+      <c r="I36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="126">
+      <c r="J36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="126">
+      <c r="K36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="126">
+      <c r="L36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="126">
+      <c r="M36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="126">
+      <c r="N36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="126">
+      <c r="O36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P36" s="126">
+      <c r="P36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="126">
+      <c r="Q36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="126">
+      <c r="R36" s="125">
         <f>SUM(R4:R35)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="126">
+      <c r="S36" s="125">
         <f t="shared" si="1"/>
-        <v>231750</v>
-      </c>
-      <c r="T36" s="126">
+        <v>321750</v>
+      </c>
+      <c r="T36" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36" s="126">
+      <c r="U36" s="125">
         <f>SUM(U4:U35)</f>
-        <v>-231750</v>
-      </c>
-      <c r="V36" s="126"/>
+        <v>-321750</v>
+      </c>
+      <c r="V36" s="125"/>
     </row>
-    <row r="37" spans="1:22" s="116" customFormat="1">
-      <c r="A37" s="127"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="129"/>
-      <c r="T37" s="129"/>
-      <c r="U37" s="131"/>
+    <row r="37" spans="1:22" s="115" customFormat="1">
+      <c r="A37" s="126"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="130"/>
     </row>
-    <row r="38" spans="1:22" s="116" customFormat="1">
-      <c r="A38" s="108" t="s">
+    <row r="38" spans="1:22" s="115" customFormat="1">
+      <c r="A38" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="130"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="132"/>
-      <c r="T39" s="132"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="131"/>
+      <c r="S39" s="131"/>
+      <c r="T39" s="131"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="J40" s="133"/>
-      <c r="K40" s="134"/>
-      <c r="U40" s="135"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="133"/>
+      <c r="U40" s="134"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
-      <c r="O41" s="133"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="J42" s="133"/>
-      <c r="U42" s="135"/>
+      <c r="J42" s="132"/>
+      <c r="U42" s="134"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="133"/>
-      <c r="Q43" s="133"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="132"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="M44" s="129"/>
+      <c r="M44" s="128"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="J45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
+      <c r="J45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="J46" s="132"/>
-      <c r="M46" s="132"/>
+      <c r="J46" s="131"/>
+      <c r="M46" s="131"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="J47" s="132"/>
+      <c r="J47" s="131"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U3">

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR - ĐÀO. new\2.LƯƠNG\1.LUONG\0. Hệ thống\09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
-    <sheet name="T02" sheetId="1" r:id="rId1"/>
+    <sheet name="Salary detail" sheetId="1" r:id="rId1"/>
     <sheet name="TH" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot 01 (.)" sheetId="4" r:id="rId3"/>
     <sheet name="signal" sheetId="5" r:id="rId4"/>
@@ -21,7 +21,7 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Pivot 01 (.)'!$A$3:$U$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T02'!$A$2:$EI$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Salary detail'!$A$2:$EI$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TH!$A$5:$AO$9</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
     <definedName name="AA" localSheetId="2" hidden="1">{"'AS,SEC'!$A$4:$J$25"}</definedName>
@@ -46,7 +46,7 @@
     <definedName name="HTML_PathFile" hidden="1">"D:\이사회\2천년5월\MyHTML.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"20대"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TH!$A$1:$AO$20</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'T02'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Salary detail'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">TH!$4:$5</definedName>
     <definedName name="s" localSheetId="2" hidden="1">{"'AS,SEC'!$A$4:$J$25"}</definedName>
     <definedName name="s" hidden="1">{"'AS,SEC'!$A$4:$J$25"}</definedName>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="248">
   <si>
     <t>STT</t>
   </si>
@@ -903,10 +903,6 @@
     <t>Khoản cộng thêm khác
 Other income
 기타 추가 금액</t>
-  </si>
-  <si>
-    <t>TV nghỉ không lương
-수습시 무급 휴가</t>
   </si>
   <si>
     <t>Nghỉ không lương
@@ -1572,6 +1568,18 @@
   <si>
     <t>Lương TTV
 최저임금</t>
+  </si>
+  <si>
+    <t>Hỗ trợ sinh lý</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Bầu + TS</t>
+  </si>
+  <si>
+    <t>Thời gian chưa nghỉ</t>
   </si>
 </sst>
 </file>
@@ -1579,16 +1587,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="000"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="000"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1917,7 +1925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2237,21 +2245,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2268,18 +2316,15 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2313,33 +2358,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2349,7 +2391,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,46 +2415,46 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="12" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2421,7 +2463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2430,34 +2472,34 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2468,10 +2510,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1"/>
@@ -2490,7 +2532,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1"/>
@@ -2505,11 +2547,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -2518,20 +2560,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2565,30 +2607,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="36" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="36" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="17" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="17" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2621,28 +2672,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2651,52 +2702,52 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,16 +2756,16 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,22 +2807,19 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2804,10 +2852,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,7 +2876,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2840,22 +2888,22 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2864,10 +2912,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
@@ -2876,8 +2924,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3537,87 +3597,87 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
     <col min="2" max="3" width="11.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="16" customWidth="1"/>
-    <col min="12" max="15" width="11" style="16" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="20" customWidth="1"/>
-    <col min="20" max="20" width="10" style="21" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="21" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="21" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="22" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="22" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" style="22" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="21" customWidth="1"/>
-    <col min="27" max="28" width="13.42578125" style="21" customWidth="1"/>
-    <col min="29" max="30" width="7.85546875" style="21" customWidth="1"/>
-    <col min="31" max="32" width="6.140625" style="21" customWidth="1"/>
-    <col min="33" max="33" width="10.42578125" style="21" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="21" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="15" customWidth="1"/>
+    <col min="12" max="15" width="11" style="15" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="10" style="20" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="20" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="20" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="21" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="21" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="21" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="20" customWidth="1"/>
+    <col min="27" max="28" width="13.42578125" style="20" customWidth="1"/>
+    <col min="29" max="30" width="7.85546875" style="20" customWidth="1"/>
+    <col min="31" max="32" width="6.140625" style="20" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" style="20" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="20" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="22" customWidth="1"/>
     <col min="36" max="36" width="8.85546875" style="8" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" style="8" customWidth="1"/>
     <col min="38" max="39" width="7.7109375" style="8" customWidth="1"/>
     <col min="40" max="40" width="7.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="9.28515625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="12.85546875" style="24" customWidth="1"/>
-    <col min="43" max="44" width="11.7109375" style="24" customWidth="1"/>
-    <col min="45" max="45" width="12.85546875" style="24" customWidth="1"/>
-    <col min="46" max="47" width="7.85546875" style="24" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" style="24" customWidth="1"/>
-    <col min="49" max="50" width="7.85546875" style="21" customWidth="1"/>
-    <col min="51" max="54" width="6.140625" style="21" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" style="23" customWidth="1"/>
+    <col min="42" max="42" width="12.85546875" style="23" customWidth="1"/>
+    <col min="43" max="44" width="11.7109375" style="23" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" style="23" customWidth="1"/>
+    <col min="46" max="47" width="7.85546875" style="23" customWidth="1"/>
+    <col min="48" max="48" width="12.85546875" style="23" customWidth="1"/>
+    <col min="49" max="50" width="7.85546875" style="20" customWidth="1"/>
+    <col min="51" max="54" width="6.140625" style="20" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" style="22" customWidth="1"/>
     <col min="56" max="56" width="8.85546875" style="8" customWidth="1"/>
     <col min="57" max="57" width="7.85546875" style="8" customWidth="1"/>
     <col min="58" max="59" width="7.7109375" style="8" customWidth="1"/>
     <col min="60" max="60" width="7.85546875" style="8" customWidth="1"/>
     <col min="61" max="61" width="9.28515625" style="8" customWidth="1"/>
-    <col min="62" max="62" width="12.85546875" style="24" customWidth="1"/>
-    <col min="63" max="66" width="8.7109375" style="25" customWidth="1"/>
-    <col min="67" max="67" width="12" style="25" customWidth="1"/>
-    <col min="68" max="68" width="7.85546875" style="24" customWidth="1"/>
-    <col min="69" max="71" width="10.42578125" style="16" customWidth="1"/>
-    <col min="72" max="72" width="11.140625" style="16" customWidth="1"/>
-    <col min="73" max="81" width="12.140625" style="16" customWidth="1"/>
+    <col min="62" max="62" width="12.85546875" style="23" customWidth="1"/>
+    <col min="63" max="66" width="8.7109375" style="24" customWidth="1"/>
+    <col min="67" max="67" width="12" style="24" customWidth="1"/>
+    <col min="68" max="68" width="7.85546875" style="23" customWidth="1"/>
+    <col min="69" max="71" width="10.42578125" style="15" customWidth="1"/>
+    <col min="72" max="72" width="11.140625" style="15" customWidth="1"/>
+    <col min="73" max="81" width="12.140625" style="15" customWidth="1"/>
     <col min="82" max="82" width="8.5703125" style="8" customWidth="1"/>
     <col min="83" max="83" width="8.85546875" style="8" customWidth="1"/>
     <col min="84" max="84" width="11.28515625" style="8" customWidth="1"/>
     <col min="85" max="85" width="8.7109375" style="8" customWidth="1"/>
     <col min="86" max="86" width="11.5703125" style="8" customWidth="1"/>
     <col min="87" max="87" width="13.5703125" style="8" customWidth="1"/>
-    <col min="88" max="88" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.5703125" style="11" customWidth="1"/>
+    <col min="88" max="88" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.5703125" style="10" customWidth="1"/>
     <col min="90" max="90" width="13.5703125" style="8" customWidth="1"/>
     <col min="91" max="91" width="14.28515625" style="8" customWidth="1"/>
     <col min="92" max="100" width="13.5703125" style="8" customWidth="1"/>
     <col min="101" max="101" width="18.28515625" style="8" customWidth="1"/>
-    <col min="102" max="102" width="14.140625" style="27" customWidth="1"/>
-    <col min="103" max="103" width="13.7109375" style="13" customWidth="1"/>
+    <col min="102" max="102" width="14.140625" style="26" customWidth="1"/>
+    <col min="103" max="103" width="13.7109375" style="12" customWidth="1"/>
     <col min="104" max="104" width="13.42578125" style="8" customWidth="1"/>
     <col min="105" max="105" width="10.42578125" style="8" customWidth="1"/>
     <col min="106" max="106" width="15.28515625" style="8" customWidth="1"/>
     <col min="107" max="107" width="13.42578125" style="8" customWidth="1"/>
-    <col min="108" max="108" width="13.42578125" style="24" customWidth="1"/>
+    <col min="108" max="108" width="13.42578125" style="23" customWidth="1"/>
     <col min="109" max="109" width="15.7109375" style="8" customWidth="1"/>
-    <col min="110" max="110" width="23.28515625" style="11" customWidth="1"/>
+    <col min="110" max="110" width="23.28515625" style="10" customWidth="1"/>
     <col min="111" max="111" width="15.85546875" style="8" customWidth="1"/>
     <col min="112" max="112" width="12.85546875" style="8" customWidth="1"/>
-    <col min="113" max="113" width="14.85546875" style="26" customWidth="1"/>
+    <col min="113" max="113" width="14.85546875" style="25" customWidth="1"/>
     <col min="114" max="119" width="14.85546875" style="8" customWidth="1"/>
     <col min="120" max="121" width="13.5703125" style="8" customWidth="1"/>
     <col min="122" max="122" width="9.140625" style="8" customWidth="1"/>
@@ -3640,49 +3700,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="3" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="143" t="s">
+      <c r="A1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="143" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="143" t="s">
+      <c r="C1" s="144" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="G1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="149" t="s">
+      <c r="J1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="139" t="s">
+      <c r="L1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="153" t="s">
+      <c r="M1" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="155" t="s">
+      <c r="N1" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="157" t="s">
+      <c r="O1" s="158" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1">
@@ -3691,307 +3751,313 @@
       <c r="Q1" s="2">
         <v>44985</v>
       </c>
-      <c r="R1" s="159" t="s">
+      <c r="R1" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="161" t="s">
+      <c r="S1" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="161" t="s">
+      <c r="T1" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="151" t="s">
+      <c r="U1" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="151" t="s">
+      <c r="V1" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="163" t="s">
+      <c r="W1" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="163" t="s">
+      <c r="X1" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="163" t="s">
+      <c r="Y1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="151" t="s">
+      <c r="Z1" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="151" t="s">
+      <c r="AA1" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="151" t="s">
+      <c r="AB1" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="165" t="s">
+      <c r="AC1" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165" t="s">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="151" t="s">
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="151" t="s">
+      <c r="AP1" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="166" t="s">
+      <c r="AQ1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="166" t="s">
+      <c r="AR1" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="151" t="s">
+      <c r="AS1" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="166" t="s">
+      <c r="AT1" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="166" t="s">
+      <c r="AU1" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="151" t="s">
+      <c r="AV1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="165" t="s">
+      <c r="AW1" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="165"/>
-      <c r="AY1" s="165"/>
-      <c r="AZ1" s="165"/>
-      <c r="BA1" s="165"/>
-      <c r="BB1" s="165"/>
-      <c r="BC1" s="165" t="s">
+      <c r="AX1" s="166"/>
+      <c r="AY1" s="166"/>
+      <c r="AZ1" s="166"/>
+      <c r="BA1" s="166"/>
+      <c r="BB1" s="166"/>
+      <c r="BC1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="165"/>
-      <c r="BE1" s="165"/>
-      <c r="BF1" s="165"/>
-      <c r="BG1" s="165"/>
-      <c r="BH1" s="165"/>
-      <c r="BI1" s="151" t="s">
+      <c r="BD1" s="166"/>
+      <c r="BE1" s="166"/>
+      <c r="BF1" s="166"/>
+      <c r="BG1" s="166"/>
+      <c r="BH1" s="166"/>
+      <c r="BI1" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" s="151" t="s">
+      <c r="BJ1" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="BK1" s="170" t="s">
+      <c r="BK1" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="BL1" s="171"/>
-      <c r="BM1" s="171"/>
-      <c r="BN1" s="171"/>
-      <c r="BO1" s="172"/>
-      <c r="BP1" s="166" t="s">
+      <c r="BL1" s="172"/>
+      <c r="BM1" s="172"/>
+      <c r="BN1" s="172"/>
+      <c r="BO1" s="173"/>
+      <c r="BP1" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="173" t="s">
+      <c r="BQ1" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="175" t="s">
+      <c r="BR1" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="BS1" s="176"/>
-      <c r="BT1" s="168" t="s">
+      <c r="BS1" s="177"/>
+      <c r="BT1" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="BU1" s="168" t="s">
+      <c r="BU1" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="BV1" s="168" t="s">
+      <c r="BV1" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="BW1" s="168" t="s">
+      <c r="BW1" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="BX1" s="168" t="s">
+      <c r="BX1" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="BY1" s="168" t="s">
+      <c r="BY1" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="BZ1" s="179" t="s">
+      <c r="BZ1" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="CA1" s="179" t="s">
+      <c r="CA1" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="CB1" s="179" t="s">
+      <c r="CB1" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="CC1" s="181" t="s">
+      <c r="CC1" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="CD1" s="183" t="s">
+      <c r="CD1" s="180" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE1" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="CE1" s="183" t="s">
+      <c r="CF1" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="CF1" s="183" t="s">
+      <c r="CG1" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="CG1" s="183" t="s">
+      <c r="CH1" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="CH1" s="185" t="s">
+      <c r="CI1" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="CI1" s="177" t="s">
+      <c r="CJ1" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="CJ1" s="183" t="s">
+      <c r="CK1" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="CK1" s="143" t="s">
+      <c r="CL1" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="CL1" s="185" t="s">
+      <c r="CM1" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="CM1" s="185" t="s">
+      <c r="CN1" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="CN1" s="187" t="s">
+      <c r="CO1" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="185" t="s">
+      <c r="CP1" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ1" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="CP1" s="187" t="s">
+      <c r="CR1" s="190" t="s">
+        <v>65</v>
+      </c>
+      <c r="CS1" s="192" t="s">
+        <v>66</v>
+      </c>
+      <c r="CT1" s="186" t="s">
+        <v>67</v>
+      </c>
+      <c r="CU1" s="186" t="s">
+        <v>68</v>
+      </c>
+      <c r="CV1" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="CW1" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="CX1" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="CY1" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="CQ1" s="185" t="s">
-        <v>65</v>
-      </c>
-      <c r="CR1" s="189" t="s">
-        <v>66</v>
-      </c>
-      <c r="CS1" s="191" t="s">
-        <v>67</v>
-      </c>
-      <c r="CT1" s="185" t="s">
-        <v>68</v>
-      </c>
-      <c r="CU1" s="185" t="s">
-        <v>69</v>
-      </c>
-      <c r="CV1" s="185" t="s">
-        <v>70</v>
-      </c>
-      <c r="CW1" s="194" t="s">
-        <v>71</v>
-      </c>
-      <c r="CX1" s="196" t="s">
+      <c r="CZ1" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="CY1" s="198" t="s">
-        <v>112</v>
-      </c>
-      <c r="CZ1" s="193" t="s">
-        <v>73</v>
-      </c>
-      <c r="DA1" s="193"/>
-      <c r="DB1" s="193"/>
-      <c r="DC1" s="193"/>
+      <c r="DA1" s="194"/>
+      <c r="DB1" s="194"/>
+      <c r="DC1" s="194"/>
       <c r="DD1" s="200" t="s">
         <v>48</v>
       </c>
       <c r="DE1" s="202" t="s">
+        <v>73</v>
+      </c>
+      <c r="DF1" s="204" t="s">
         <v>74</v>
-      </c>
-      <c r="DF1" s="204" t="s">
-        <v>75</v>
       </c>
       <c r="DG1" s="206">
         <v>44958</v>
       </c>
       <c r="DH1" s="206"/>
-      <c r="DI1" s="193" t="s">
+      <c r="DI1" s="194" t="s">
+        <v>75</v>
+      </c>
+      <c r="DJ1" s="194"/>
+      <c r="DK1" s="194"/>
+      <c r="DL1" s="194"/>
+      <c r="DM1" s="194"/>
+      <c r="DN1" s="194"/>
+      <c r="DO1" s="194"/>
+      <c r="DP1" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="DJ1" s="193"/>
-      <c r="DK1" s="193"/>
-      <c r="DL1" s="193"/>
-      <c r="DM1" s="193"/>
-      <c r="DN1" s="193"/>
-      <c r="DO1" s="193"/>
-      <c r="DP1" s="193" t="s">
+      <c r="DQ1" s="194"/>
+      <c r="DR1" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="DQ1" s="193"/>
-      <c r="DR1" s="193" t="s">
+      <c r="DS1" s="194"/>
+      <c r="DT1" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="DS1" s="193"/>
-      <c r="DT1" s="193" t="s">
-        <v>79</v>
-      </c>
       <c r="DU1" s="208" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="DV1" s="209"/>
       <c r="DW1" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="DX1" s="193" t="s">
+        <v>112</v>
+      </c>
+      <c r="DX1" s="194" t="s">
+        <v>79</v>
+      </c>
+      <c r="DY1" s="194"/>
+      <c r="DZ1" s="194"/>
+      <c r="EA1" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="DY1" s="193"/>
-      <c r="DZ1" s="193"/>
-      <c r="EA1" s="193" t="s">
+      <c r="EB1" s="194"/>
+      <c r="EC1" s="194"/>
+      <c r="ED1" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="EB1" s="193"/>
-      <c r="EC1" s="193"/>
-      <c r="ED1" s="207" t="s">
-        <v>82</v>
-      </c>
+      <c r="EE1" s="139" t="s">
+        <v>244</v>
+      </c>
+      <c r="EF1" s="139"/>
+      <c r="EG1" s="139"/>
+      <c r="EH1" s="139"/>
     </row>
     <row r="2" spans="1:139" s="3" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="158"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="159"/>
       <c r="P2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="160"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
       <c r="AC2" s="5">
         <v>1.5</v>
       </c>
@@ -4028,14 +4094,14 @@
       <c r="AN2" s="5">
         <v>3.9</v>
       </c>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="167"/>
-      <c r="AR2" s="167"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="167"/>
-      <c r="AU2" s="167"/>
-      <c r="AV2" s="152"/>
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="153"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="153"/>
+      <c r="AT2" s="168"/>
+      <c r="AU2" s="168"/>
+      <c r="AV2" s="153"/>
       <c r="AW2" s="5">
         <v>1.5</v>
       </c>
@@ -4072,634 +4138,659 @@
       <c r="BH2" s="5">
         <v>3.9</v>
       </c>
-      <c r="BI2" s="152"/>
-      <c r="BJ2" s="152"/>
+      <c r="BI2" s="153"/>
+      <c r="BJ2" s="153"/>
       <c r="BK2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BO2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BP2" s="168"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT2" s="170"/>
+      <c r="BU2" s="170"/>
+      <c r="BV2" s="170"/>
+      <c r="BW2" s="170"/>
+      <c r="BX2" s="170"/>
+      <c r="BY2" s="170"/>
+      <c r="BZ2" s="181"/>
+      <c r="CA2" s="181"/>
+      <c r="CB2" s="181"/>
+      <c r="CC2" s="183"/>
+      <c r="CD2" s="181"/>
+      <c r="CE2" s="185"/>
+      <c r="CF2" s="185"/>
+      <c r="CG2" s="185"/>
+      <c r="CH2" s="187"/>
+      <c r="CI2" s="179"/>
+      <c r="CJ2" s="185"/>
+      <c r="CK2" s="145"/>
+      <c r="CL2" s="187"/>
+      <c r="CM2" s="187"/>
+      <c r="CN2" s="189"/>
+      <c r="CO2" s="187"/>
+      <c r="CP2" s="189"/>
+      <c r="CQ2" s="187"/>
+      <c r="CR2" s="191"/>
+      <c r="CS2" s="193"/>
+      <c r="CT2" s="187"/>
+      <c r="CU2" s="187"/>
+      <c r="CV2" s="187"/>
+      <c r="CW2" s="196"/>
+      <c r="CX2" s="198"/>
+      <c r="CY2" s="139"/>
+      <c r="CZ2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="BP2" s="167"/>
-      <c r="BQ2" s="174"/>
-      <c r="BR2" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="BS2" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT2" s="169"/>
-      <c r="BU2" s="169"/>
-      <c r="BV2" s="169"/>
-      <c r="BW2" s="169"/>
-      <c r="BX2" s="169"/>
-      <c r="BY2" s="169"/>
-      <c r="BZ2" s="180"/>
-      <c r="CA2" s="180"/>
-      <c r="CB2" s="180"/>
-      <c r="CC2" s="182"/>
-      <c r="CD2" s="184"/>
-      <c r="CE2" s="184"/>
-      <c r="CF2" s="184"/>
-      <c r="CG2" s="184"/>
-      <c r="CH2" s="186"/>
-      <c r="CI2" s="178"/>
-      <c r="CJ2" s="184"/>
-      <c r="CK2" s="144"/>
-      <c r="CL2" s="186"/>
-      <c r="CM2" s="186"/>
-      <c r="CN2" s="188"/>
-      <c r="CO2" s="186"/>
-      <c r="CP2" s="188"/>
-      <c r="CQ2" s="186"/>
-      <c r="CR2" s="190"/>
-      <c r="CS2" s="192"/>
-      <c r="CT2" s="186"/>
-      <c r="CU2" s="186"/>
-      <c r="CV2" s="186"/>
-      <c r="CW2" s="195"/>
-      <c r="CX2" s="197"/>
-      <c r="CY2" s="199"/>
-      <c r="CZ2" s="30" t="s">
+      <c r="DA2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="DA2" s="30" t="s">
+      <c r="DB2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="DB2" s="30" t="s">
+      <c r="DC2" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="DC2" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="DD2" s="201"/>
       <c r="DE2" s="203"/>
       <c r="DF2" s="205"/>
-      <c r="DG2" s="31" t="s">
+      <c r="DG2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="DH2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="DH2" s="31" t="s">
+      <c r="DI2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="DI2" s="32" t="s">
+      <c r="DJ2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="DJ2" s="32" t="s">
+      <c r="DK2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="DK2" s="32" t="s">
+      <c r="DL2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="DL2" s="32" t="s">
+      <c r="DM2" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="DM2" s="32" t="s">
+      <c r="DN2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="DN2" s="32" t="s">
+      <c r="DO2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="DO2" s="32" t="s">
+      <c r="DP2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="DP2" s="32" t="s">
+      <c r="DQ2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="DQ2" s="32" t="s">
+      <c r="DR2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="DR2" s="30" t="s">
+      <c r="DS2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="DS2" s="32" t="s">
-        <v>106</v>
-      </c>
       <c r="DT2" s="207"/>
-      <c r="DU2" s="138" t="s">
-        <v>243</v>
-      </c>
-      <c r="DV2" s="33">
+      <c r="DU2" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="DV2" s="31">
         <f>4160000/26</f>
         <v>160000</v>
       </c>
       <c r="DW2" s="211"/>
-      <c r="DX2" s="34" t="s">
+      <c r="DX2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="DY2" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="DY2" s="34" t="s">
+      <c r="DZ2" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="DZ2" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="EA2" s="34" t="s">
+      <c r="EA2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="EB2" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="EB2" s="34" t="s">
+      <c r="EC2" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="EC2" s="34" t="s">
-        <v>109</v>
-      </c>
       <c r="ED2" s="207"/>
+      <c r="EE2" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="EF2" s="137" t="s">
+        <v>246</v>
+      </c>
+      <c r="EG2" s="137" t="s">
+        <v>247</v>
+      </c>
+      <c r="EH2" s="137" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:139" s="10" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+    <row r="3" spans="1:139" s="9" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="I3" s="38">
         <v>42065</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="39">
         <v>4800000</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="40">
         <v>350000</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="40">
         <f>+IF(OR(H3="Group Leader/ Trưởng bộ phận",H5="Engineer Group Leader/ Trưởng bộ phận kỹ thuật",H5="Production Group Leader/ Trưởng bộ phận sản xuất"),2000000,IF(OR($H5="Part Leader/ Trưởng nhóm",$H5="Engineer Part Leader/ Trưởng nhóm kỹ thuật",$H5="Production Part Leader/ Trưởng nhóm sản xuất"),1000000,IF(OR($H5="Assistant leader/ Phó nhóm",$H5="Engineer Assistant leader/ Phó nhóm kỹ thuật",$H5="Production Assistant leader/ Phó nhóm sản xuất"),700000,IF(OR($H5="Engineer Supervisor/ Giám sát kỹ thuật",$H5="Supervisor/ Giám sát line"),500000,IF(OR($H5="Engineer shift leader/ Tổ trưởng kỹ thuật",$H5="Shift Leader/ Tổ trưởng sản xuất"),300000,0)))))</f>
         <v>2000000</v>
       </c>
-      <c r="M3" s="41">
-        <v>0</v>
-      </c>
-      <c r="N3" s="236">
+      <c r="M3" s="39">
+        <v>0</v>
+      </c>
+      <c r="N3" s="138">
         <f>+IF(DG3&gt;=96,1000000,IF(AND(DG3&lt;=95,DG3&gt;=84),950000,IF(AND(DG3&lt;=83,DG3&gt;=72),850000,IF(AND(DG3&lt;=71,DG3&gt;=60),750000,IF(AND(DG3&lt;=59,DG3&gt;=48),650000,IF(AND(DG3&lt;=47,DG3&gt;=36),550000,IF(AND(DG3&lt;=35,DG3&gt;=24),450000,IF(AND(DG3&lt;=23,DG3&gt;=18),350000,IF(AND(DG3&lt;=17,DG3&gt;=12),250000,IF(AND(DG3&lt;=11,DG3&gt;=2),150000,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="40">
         <f>+IF($G3="Utility",J3*5%,IF(C3="x",J3*7%,0))</f>
         <v>0</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="41">
         <f t="shared" ref="P3" si="0">+SUM($J3:$O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>297916.66666666669</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="41">
         <f t="shared" ref="Q3" si="1">+IF(NETWORKDAYS.INTL($P$1,$Q$1,11)&lt;=26,P3/8,(SUM(J3:O3)/26)/8)</f>
         <v>37239.583333333336</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44">
-        <v>0</v>
-      </c>
-      <c r="T3" s="44">
-        <v>0</v>
-      </c>
-      <c r="U3" s="45">
+      <c r="R3" s="42"/>
+      <c r="S3" s="42">
+        <v>0</v>
+      </c>
+      <c r="T3" s="42">
+        <v>0</v>
+      </c>
+      <c r="U3" s="43">
         <f t="shared" ref="U3" si="2">85%*$P3*$S3</f>
         <v>0</v>
       </c>
-      <c r="V3" s="45">
+      <c r="V3" s="43">
         <f t="shared" ref="V3" si="3">85%*$P3*130%*$T3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="45">
+      <c r="W3" s="42"/>
+      <c r="X3" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="43">
         <f t="shared" ref="Z3" si="4">+$P3*($W3+$Y3)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="43">
         <f t="shared" ref="AA3" si="5">+$P3*130%*X3</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="45">
+      <c r="AB3" s="43">
         <f t="shared" ref="AB3" si="6">+U3+V3+Z3+AA3</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="45">
+      <c r="AC3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="43">
         <f t="shared" ref="AO3" si="7">SUM(AC3:AH3,AI3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="AP3" s="43">
         <f t="shared" ref="AP3" si="8">+IF(H3="operator",Q3*((AC3+AI3)*150%+(AD3+AJ3)*200%+(AE3+AK3)*210%+(AF3+AL3)*270%+(AG3+AM3)*300%+(AH3+AN3)*390%),Q3*85%*(AC3*150%+AD3*200%+AE3*210%+AF3*270%+AG3*300%+AH3*390%)+Q3*(AI3*150%+AJ3*200%+AK3*210%+AL3*270%+AM3*300%+AN3*390%))</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="45">
+      <c r="AQ3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="43">
         <f t="shared" ref="AS3" si="9">260%*P3*(85%*AQ3/2+AR3/2)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="45">
+      <c r="AT3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="43">
         <f t="shared" ref="AV3" si="10">+IF(E3="M1-1",Q3*(AT3+AU3)*200%*(45/60),Q3*85%*AT3*200%*(45/60)+Q3*AU3*200%*(45/60))</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="45">
+      <c r="AW3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="42">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="43">
         <f t="shared" ref="BI3" si="11">SUM(AW3:BB3,BC3:BH3)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" s="45">
+      <c r="BJ3" s="43">
         <f t="shared" ref="BJ3" si="12">+Q3*85%*(AW3*$AW$2+AX3*$AX$2+AY3*$AY$2+AZ3*$AZ$2+BA3*$BA$2+BB3*$BB$2)+Q3*(BC3*$BC$2+BD3*$BD$2+BE3*$BE$2+BF3*$BF$2+BG3*$BG$2+BH3*$BH$2)</f>
         <v>0</v>
       </c>
-      <c r="BK3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="46">
+      <c r="BK3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="44">
         <f t="shared" ref="BO3" si="13">+P3*(BK3*85%+BL3)+Q3*(85%*BM3*(2*70%+2*140%)+BN3*(2*70%+2*140%))</f>
         <v>0</v>
       </c>
-      <c r="BP3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="44">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="46">
+      <c r="BP3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="42">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="44">
         <f>+IF(BQ3&lt;=0,IF(E3="M1-1",350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*(R3+BP3),350000*85%/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)+350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*((W3+X3+Y3+BP3))),0)+(BS3)*350000/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BU3" s="46">
+      <c r="BU3" s="44">
         <f>(DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(BS3)*DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="46">
+      <c r="BV3" s="44">
         <f>DC3/NETWORKDAYS.INTL($P$1,$Q$1,11)*R3</f>
         <v>0</v>
       </c>
-      <c r="BW3" s="137">
+      <c r="BW3" s="135">
         <f>+BS3*SUM(K3:O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BX3" s="137">
+      <c r="BX3" s="135">
         <f>30%*P3*(BR3+BS3)</f>
         <v>0</v>
       </c>
-      <c r="BY3" s="46">
+      <c r="BY3" s="44">
         <f>(DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(85%*BS3)*DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BZ3" s="46">
+      <c r="BZ3" s="44">
         <f t="shared" ref="BZ3" si="14">30000*$DT3</f>
         <v>0</v>
       </c>
-      <c r="CA3" s="47"/>
-      <c r="CB3" s="46">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="48">
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="44">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="46">
         <f>+DY3+EB3+ED3</f>
         <v>0</v>
       </c>
       <c r="CD3" s="44">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="44">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="44">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="44">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="45">
+        <f>+EH3</f>
+        <v>0</v>
+      </c>
+      <c r="CE3" s="42">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="42">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="42">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="43">
         <f t="shared" ref="CH3" si="15">IF(H3="operator",(CF3+CG3)*$Q3,CF3*$Q3*85%+CG3*$Q3)</f>
         <v>0</v>
       </c>
-      <c r="CI3" s="48">
+      <c r="CI3" s="46">
         <f>+DZ3+EC3</f>
         <v>0</v>
       </c>
-      <c r="CJ3" s="49">
-        <f>ROUND(AB3+AP3+AS3+AV3+BJ3+BO3+SUM(BT3:CC3)+DV3-SUM(CH3:CI3),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CK3" s="50">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="51">
-        <f t="shared" ref="CL3" si="16">IF(CK3="x",10.5%*(J3+K3+L3+M3+N3+O3+CA3+CB3),IF(DR3="x",DS3,0))</f>
+      <c r="CJ3" s="47">
+        <f>ROUND(AB3+AP3+AS3+AV3+BJ3+BO3+SUM(BT3:CD3)+DV3-SUM(CH3:CI3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK3" s="48">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="49">
+        <f>IF(CK3="x",10.5%*(J3+K3+L3+M3+N3+O3+CA3+CB3+DD3),IF(DR3="x",DS3,0))</f>
         <v>321750</v>
       </c>
-      <c r="CM3" s="51">
+      <c r="CM3" s="49">
         <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;180000,(J3+K3+L3+M3+N3+O3)*1%,180000),0)</f>
         <v>0</v>
       </c>
-      <c r="CN3" s="51">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="45">
+      <c r="CN3" s="49">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="43">
         <f>IF(H3="operator",Q3*((AC3+AI3)*50%+(AD3+AJ3)*100%+(AE3+AK3)*110%+(AF3+AL3)*170%+(AG3+AM3)*200%+(AH3+AN3)*290%),Q3*85%*(AC3*50%+AD3*100%+AE3*110%+AF3*170%+AG3*200%+AH3*290%)+Q3*(AI3*50%+AJ3*100%+AK3*110%+AL3*170%+AM3*200%+AN3*290%))+P3*30%*(85%*T3+X3)</f>
         <v>0</v>
       </c>
-      <c r="CP3" s="52">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="45">
-        <f t="shared" ref="CQ3" si="17">(CJ3+CP3-CO3-O3)</f>
-        <v>0</v>
-      </c>
-      <c r="CR3" s="52">
+      <c r="CP3" s="50">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="43">
+        <f t="shared" ref="CQ3" si="16">(CJ3+CP3-CO3-O3)</f>
+        <v>0</v>
+      </c>
+      <c r="CR3" s="50">
         <v>11000000</v>
       </c>
-      <c r="CS3" s="53">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="45">
-        <f t="shared" ref="CT3" si="18">CS3*4400000</f>
-        <v>0</v>
-      </c>
-      <c r="CU3" s="51">
-        <f t="shared" ref="CU3" si="19">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
-        <v>0</v>
-      </c>
-      <c r="CV3" s="51">
-        <f t="shared" ref="CV3" si="20">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="CW3" s="54">
-        <f t="shared" ref="CW3" si="21">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
+      <c r="CS3" s="51">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="43">
+        <f t="shared" ref="CT3" si="17">CS3*4400000</f>
+        <v>0</v>
+      </c>
+      <c r="CU3" s="49">
+        <f t="shared" ref="CU3" si="18">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
+        <v>0</v>
+      </c>
+      <c r="CV3" s="49">
+        <f t="shared" ref="CV3" si="19">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="CW3" s="52">
+        <f t="shared" ref="CW3" si="20">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
         <v>-321750</v>
       </c>
-      <c r="CX3" s="55">
-        <f t="shared" ref="CX3" si="22">I3</f>
+      <c r="CX3" s="53">
+        <f t="shared" ref="CX3" si="21">I3</f>
         <v>42065</v>
       </c>
-      <c r="CY3" s="56"/>
-      <c r="CZ3" s="57">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="57"/>
-      <c r="DB3" s="57">
-        <f t="shared" ref="DB3" si="23">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
-        <v>0</v>
-      </c>
-      <c r="DC3" s="58">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="57">
-        <v>0</v>
-      </c>
-      <c r="DE3" s="59"/>
-      <c r="DF3" s="65"/>
-      <c r="DG3" s="60">
-        <f t="shared" ref="DG3" si="24">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DH3" s="60">
-        <f t="shared" ref="DH3" si="25">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DI3" s="61">
-        <f t="shared" ref="DI3" si="26">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="61">
-        <f t="shared" ref="DJ3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DK3" s="61">
-        <f t="shared" ref="DK3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL3" s="61">
-        <f t="shared" ref="DL3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DM3" s="61">
-        <f t="shared" ref="DM3" si="30">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DN3" s="61">
-        <f t="shared" ref="DN3" si="31">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DO3" s="61">
-        <f t="shared" ref="DO3" si="32">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DP3" s="57">
-        <f t="shared" ref="DP3" si="33">+CM3</f>
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="57">
-        <f t="shared" ref="DQ3" si="34">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DR3" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="DS3" s="62">
-        <f t="shared" ref="DS3" si="35">+IF($DR3="x",($J3+$K3+$L3+M3+$N3+$O3)*4.5%,0)</f>
+      <c r="CY3" s="54"/>
+      <c r="CZ3" s="55">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="55"/>
+      <c r="DB3" s="55">
+        <f t="shared" ref="DB3" si="22">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
+        <v>0</v>
+      </c>
+      <c r="DC3" s="56">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="55">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="57"/>
+      <c r="DF3" s="63"/>
+      <c r="DG3" s="58">
+        <f t="shared" ref="DG3" si="23">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH3" s="58">
+        <f t="shared" ref="DH3" si="24">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DI3" s="59">
+        <f t="shared" ref="DI3" si="25">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="59">
+        <f t="shared" ref="DJ3" si="26">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DK3" s="59">
+        <f t="shared" ref="DK3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL3" s="59">
+        <f t="shared" ref="DL3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DM3" s="59">
+        <f t="shared" ref="DM3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DN3" s="59">
+        <f t="shared" ref="DN3" si="30">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DO3" s="59">
+        <f t="shared" ref="DO3" si="31">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DP3" s="55">
+        <f t="shared" ref="DP3" si="32">+CM3</f>
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="55">
+        <f t="shared" ref="DQ3" si="33">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DR3" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="DS3" s="60">
+        <f>+IF($DR3="x",(J3+K3+L3+M3+N3+O3+CA3+CB3+DD3)*4.5%,0)</f>
         <v>321750</v>
       </c>
-      <c r="DT3" s="63">
-        <v>0</v>
-      </c>
-      <c r="DU3" s="61">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="61">
+      <c r="DT3" s="61">
+        <v>0</v>
+      </c>
+      <c r="DU3" s="59">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="59">
         <f>+DU3*$DV$2</f>
         <v>0</v>
       </c>
-      <c r="DW3" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX3" s="64">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="64">
-        <f t="shared" ref="DY3" si="36">+IF(DX3&gt;0,DX3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="64">
-        <f t="shared" ref="DZ3" si="37">+IF(DX3&lt;0,-DX3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="EA3" s="64">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="57">
-        <f t="shared" ref="EB3" si="38">+IF(EA3&gt;0,EA3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="EC3" s="57">
-        <f t="shared" ref="EC3" si="39">-IF(EA3&lt;0,EA3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="ED3" s="64">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="28"/>
-      <c r="EF3" s="9"/>
-      <c r="EG3" s="9"/>
-      <c r="EH3" s="29"/>
-      <c r="EI3" s="29"/>
+      <c r="DW3" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="DX3" s="62">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="62">
+        <f t="shared" ref="DY3" si="34">+IF(DX3&gt;0,DX3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="62">
+        <f t="shared" ref="DZ3" si="35">+IF(DX3&lt;0,-DX3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EA3" s="62">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="55">
+        <f t="shared" ref="EB3" si="36">+IF(EA3&gt;0,EA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC3" s="55">
+        <f t="shared" ref="EC3" si="37">-IF(EA3&lt;0,EA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="ED3" s="62">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="62"/>
+      <c r="EF3" s="62"/>
+      <c r="EG3" s="62"/>
+      <c r="EH3" s="62">
+        <f>+IF(AND(EE3="Female",EF3=""),Q3*150%*EG3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EI3" s="27"/>
+    </row>
+    <row r="4" spans="1:139" ht="34.5" customHeight="1">
+      <c r="EE4" s="239"/>
+      <c r="EF4" s="240"/>
+      <c r="EG4" s="11"/>
     </row>
     <row r="5" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="EE5" s="236"/>
+      <c r="EF5" s="237"/>
+      <c r="EG5" s="237"/>
+      <c r="EH5" s="238"/>
     </row>
     <row r="6" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J6" s="15"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J7" s="15"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J8" s="15"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J10" s="15"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J11" s="15"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J12" s="15"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J13" s="15"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J14" s="15"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J15" s="15"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:139" ht="34.5" customHeight="1">
-      <c r="J16" s="15"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="10:10" ht="34.5" customHeight="1">
-      <c r="J17" s="15"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:EI3"/>
-  <mergeCells count="90">
+  <mergeCells count="93">
     <mergeCell ref="EA1:EC1"/>
     <mergeCell ref="ED1:ED2"/>
     <mergeCell ref="DT1:DT2"/>
@@ -4754,6 +4845,7 @@
     <mergeCell ref="BT1:BT2"/>
     <mergeCell ref="BU1:BU2"/>
     <mergeCell ref="BV1:BV2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AV1:AV2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
@@ -4766,18 +4858,19 @@
     <mergeCell ref="AS1:AS2"/>
     <mergeCell ref="AT1:AT2"/>
     <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="EE1:EH1"/>
+    <mergeCell ref="EE4:EF4"/>
+    <mergeCell ref="EE5:EH5"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4790,6 +4883,7 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="Z1:Z2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="17" priority="513"/>
@@ -4843,52 +4937,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="6" style="72" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="72" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="72" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="72" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="100" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="104" customWidth="1"/>
-    <col min="15" max="15" width="15" style="105" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="105" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" style="105" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="105" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="72" customWidth="1"/>
-    <col min="21" max="21" width="11" style="72" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="72" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="72" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="72" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="72" customWidth="1"/>
-    <col min="26" max="26" width="9" style="72" customWidth="1"/>
-    <col min="27" max="27" width="11" style="72" customWidth="1"/>
-    <col min="28" max="28" width="13" style="72" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="72" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="72" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="72" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="72" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" style="72" customWidth="1"/>
-    <col min="34" max="34" width="13.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11" style="72" customWidth="1"/>
-    <col min="37" max="37" width="13" style="72" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="72" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="72" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" style="72" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="1" width="5" style="70" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6" style="70" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="96" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="70" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="70" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="70" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="70" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="70" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="98" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="102" customWidth="1"/>
+    <col min="15" max="15" width="15" style="103" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="103" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="103" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="103" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="70" customWidth="1"/>
+    <col min="21" max="21" width="11" style="70" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="70" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="70" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="70" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="70" customWidth="1"/>
+    <col min="26" max="26" width="9" style="70" customWidth="1"/>
+    <col min="27" max="27" width="11" style="70" customWidth="1"/>
+    <col min="28" max="28" width="13" style="70" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="70" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" style="70" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="70" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="70" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="70" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11" style="70" customWidth="1"/>
+    <col min="37" max="37" width="13" style="70" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="70" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="70" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" style="70" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="230" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="230"/>
       <c r="E1" s="230"/>
@@ -4897,42 +4991,42 @@
       <c r="H1" s="230"/>
       <c r="I1" s="230"/>
       <c r="J1" s="230"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" ht="23.25" customHeight="1">
-      <c r="A2" s="67"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="231" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="231"/>
       <c r="D2" s="231"/>
@@ -4975,9 +5069,9 @@
       <c r="AO2" s="231"/>
     </row>
     <row r="3" spans="1:41" ht="30" customHeight="1">
-      <c r="A3" s="67"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="231" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="231"/>
       <c r="D3" s="231"/>
@@ -5024,22 +5118,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="232" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="232" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="232" t="s">
+      <c r="D4" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="E4" s="216" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="216" t="s">
-        <v>121</v>
       </c>
       <c r="F4" s="216" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="216" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H4" s="214" t="s">
         <v>11</v>
@@ -5051,34 +5145,34 @@
         <v>13</v>
       </c>
       <c r="K4" s="216" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="M4" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="224" t="s">
+      <c r="N4" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="224" t="s">
+      <c r="O4" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="226" t="s">
+      <c r="P4" s="228" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="228" t="s">
+      <c r="Q4" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="226" t="s">
+      <c r="R4" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="228" t="s">
+      <c r="S4" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="228" t="s">
+      <c r="T4" s="216" t="s">
         <v>131</v>
-      </c>
-      <c r="T4" s="216" t="s">
-        <v>132</v>
       </c>
       <c r="U4" s="216"/>
       <c r="V4" s="216"/>
@@ -5089,25 +5183,25 @@
       <c r="AA4" s="216"/>
       <c r="AB4" s="216"/>
       <c r="AC4" s="216" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD4" s="222" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE4" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="AD4" s="222" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE4" s="214" t="s">
+      <c r="AF4" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="AF4" s="214" t="s">
+      <c r="AG4" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="AG4" s="216" t="s">
+      <c r="AH4" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" s="214" t="s">
+      <c r="AI4" s="216" t="s">
         <v>137</v>
-      </c>
-      <c r="AI4" s="216" t="s">
-        <v>138</v>
       </c>
       <c r="AJ4" s="216"/>
       <c r="AK4" s="216"/>
@@ -5115,7 +5209,7 @@
       <c r="AM4" s="216"/>
       <c r="AN4" s="216"/>
       <c r="AO4" s="217" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="45" customHeight="1">
@@ -5138,32 +5232,32 @@
       <c r="Q5" s="227"/>
       <c r="R5" s="229"/>
       <c r="S5" s="229"/>
-      <c r="T5" s="73" t="s">
+      <c r="T5" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="73" t="s">
+      <c r="V5" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="73" t="s">
+      <c r="W5" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="W5" s="73" t="s">
+      <c r="X5" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="Y5" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="Y5" s="73" t="s">
+      <c r="Z5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="Z5" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AB5" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="AB5" s="73" t="s">
-        <v>147</v>
       </c>
       <c r="AC5" s="221"/>
       <c r="AD5" s="223"/>
@@ -5171,680 +5265,680 @@
       <c r="AF5" s="215"/>
       <c r="AG5" s="221"/>
       <c r="AH5" s="215"/>
-      <c r="AI5" s="73" t="s">
+      <c r="AI5" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ5" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="AJ5" s="73" t="s">
+      <c r="AK5" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="AK5" s="73" t="s">
+      <c r="AL5" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="AL5" s="73" t="s">
+      <c r="AM5" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="AM5" s="73" t="s">
+      <c r="AN5" s="71" t="s">
         <v>152</v>
-      </c>
-      <c r="AN5" s="73" t="s">
-        <v>153</v>
       </c>
       <c r="AO5" s="218"/>
     </row>
-    <row r="6" spans="1:41" s="78" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="74">
+    <row r="6" spans="1:41" s="76" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="72">
         <f>+IF(B6="","",SUBTOTAL(3,$B$6:B6))</f>
         <v>1</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="74" t="str">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,4,0)</f>
+      <c r="B6" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="72" t="str">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,4,0)</f>
         <v>M7-1</v>
       </c>
-      <c r="D6" s="74" t="str">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,5,0)</f>
+      <c r="D6" s="72" t="str">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,5,0)</f>
         <v>Vũ Thị Ngọc</v>
       </c>
-      <c r="E6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,9,0)</f>
+      <c r="E6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,9,0)</f>
         <v>4800000</v>
       </c>
-      <c r="F6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,10,0)</f>
+      <c r="F6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,10,0)</f>
         <v>350000</v>
       </c>
-      <c r="G6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,11,0)</f>
+      <c r="G6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,11,0)</f>
         <v>2000000</v>
       </c>
-      <c r="H6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,15,0)</f>
+      <c r="H6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,15,0)</f>
         <v>297916.66666666669</v>
       </c>
-      <c r="L6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,16,0)</f>
+      <c r="L6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,16,0)</f>
         <v>37239.583333333336</v>
       </c>
-      <c r="M6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,40,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,44,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,61,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="76">
-        <v>0</v>
-      </c>
-      <c r="T6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,71,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,72,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="76">
-        <v>0</v>
-      </c>
-      <c r="W6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,73,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,78,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,76,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,74,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,75,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,125,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="76">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="76">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,80,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="76">
+      <c r="M6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,41,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="74">
+        <v>0</v>
+      </c>
+      <c r="T6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="74">
+        <v>0</v>
+      </c>
+      <c r="W6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="74">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="74">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="74">
         <f>ROUND(SUM(O6:AG6)-AN6-AM6,0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,89,0)</f>
+      <c r="AI6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,89,0)</f>
         <v>321750</v>
       </c>
-      <c r="AJ6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,86,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="76">
-        <f>+VLOOKUP($B6,'T02'!$B$3:$EI$1048576,85,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="77">
+      <c r="AJ6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,90,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="74">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="74">
+        <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,85,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="75">
         <f>ROUND(AH6-SUM(AI6:AL6),0)</f>
         <v>-321750</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="81" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:41" s="79" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="77"/>
       <c r="B7" s="219" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="219"/>
       <c r="D7" s="219"/>
-      <c r="E7" s="80">
+      <c r="E7" s="78">
         <f t="shared" ref="E7:AO7" si="0">+SUBTOTAL(9,E6:E6)</f>
         <v>4800000</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="78">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="78">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="80">
+      <c r="K7" s="78">
         <f t="shared" si="0"/>
         <v>297916.66666666669</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="78">
         <f t="shared" si="0"/>
         <v>37239.583333333336</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="80">
+      <c r="O7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="80">
+      <c r="P7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="80">
+      <c r="Q7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="80">
+      <c r="R7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="80">
+      <c r="S7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="80">
+      <c r="T7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="80">
+      <c r="U7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="80">
+      <c r="V7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="80">
+      <c r="W7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="80">
+      <c r="X7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="80">
+      <c r="Y7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="80">
+      <c r="Z7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="80">
+      <c r="AA7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="80">
+      <c r="AB7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="80">
+      <c r="AC7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="80">
+      <c r="AD7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="80">
+      <c r="AE7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="80">
+      <c r="AF7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="80">
+      <c r="AG7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="80">
+      <c r="AH7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="80">
+      <c r="AI7" s="78">
         <f t="shared" si="0"/>
         <v>321750</v>
       </c>
-      <c r="AJ7" s="80">
+      <c r="AJ7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="80">
+      <c r="AK7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="80">
+      <c r="AL7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="80">
+      <c r="AM7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="80">
+      <c r="AN7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="80">
+      <c r="AO7" s="78">
         <f t="shared" si="0"/>
         <v>-321750</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="87" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
+    <row r="8" spans="1:41" s="85" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
     </row>
-    <row r="9" spans="1:41" s="91" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
+    <row r="9" spans="1:41" s="89" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="88"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="88"/>
     </row>
-    <row r="10" spans="1:41" s="92" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="94"/>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="94"/>
+    <row r="10" spans="1:41" s="90" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
     </row>
-    <row r="11" spans="1:41" s="92" customFormat="1" ht="18.75">
-      <c r="D11" s="93"/>
-      <c r="M11" s="95"/>
+    <row r="11" spans="1:41" s="90" customFormat="1" ht="18.75">
+      <c r="D11" s="91"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="220"/>
       <c r="O11" s="220"/>
       <c r="P11" s="220"/>
       <c r="Q11" s="220"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
       <c r="AG11" s="220"/>
       <c r="AH11" s="220"/>
       <c r="AI11" s="220"/>
       <c r="AJ11" s="220"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="92"/>
     </row>
-    <row r="12" spans="1:41" s="92" customFormat="1" ht="18.75" customHeight="1">
-      <c r="D12" s="93"/>
-      <c r="M12" s="95"/>
+    <row r="12" spans="1:41" s="90" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D12" s="91"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="212"/>
       <c r="O12" s="212"/>
       <c r="P12" s="212"/>
       <c r="Q12" s="212"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="92"/>
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
-      <c r="I13" s="99"/>
+      <c r="I13" s="97"/>
       <c r="N13" s="212"/>
       <c r="O13" s="212"/>
       <c r="P13" s="212"/>
       <c r="Q13" s="212"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="101"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
       <c r="N14" s="212"/>
       <c r="O14" s="212"/>
       <c r="P14" s="212"/>
       <c r="Q14" s="212"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="101"/>
-      <c r="AN14" s="101"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
     </row>
     <row r="15" spans="1:41" ht="18.75" customHeight="1">
       <c r="N15" s="212"/>
       <c r="O15" s="212"/>
       <c r="P15" s="212"/>
       <c r="Q15" s="212"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="101"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="101"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="100"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
       <c r="N16" s="212"/>
       <c r="O16" s="212"/>
       <c r="P16" s="212"/>
       <c r="Q16" s="212"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="101"/>
-      <c r="AL16" s="101"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="101"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
     </row>
     <row r="17" spans="14:41" ht="22.5" customHeight="1">
       <c r="N17" s="213"/>
       <c r="O17" s="213"/>
       <c r="P17" s="213"/>
       <c r="Q17" s="213"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
       <c r="AG17" s="213"/>
       <c r="AH17" s="213"/>
       <c r="AI17" s="213"/>
       <c r="AJ17" s="213"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="101"/>
+      <c r="AM17" s="101"/>
+      <c r="AN17" s="101"/>
     </row>
     <row r="18" spans="14:41">
-      <c r="AO18" s="106"/>
+      <c r="AO18" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:AO9"/>
@@ -5911,2978 +6005,2978 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="107"/>
-    <col min="2" max="2" width="26.140625" style="109" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="109" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="109" customWidth="1"/>
-    <col min="5" max="8" width="15.85546875" style="109" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="109" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="109" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="109" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="109" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="109" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="109" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="109" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="109" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="109" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="109" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" style="109" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="109" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="109"/>
+    <col min="1" max="1" width="9.140625" style="105"/>
+    <col min="2" max="2" width="26.140625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="107" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="107" customWidth="1"/>
+    <col min="5" max="8" width="15.85546875" style="107" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="107" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="107" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="107" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="107" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="107" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="107" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="59.25" customHeight="1">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="113" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="234" t="s">
         <v>162</v>
       </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="P3" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="112" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3" s="110" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" s="115" customFormat="1" ht="51" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="110" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="111" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="112" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="P3" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="R3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="T3" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="U3" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="V3" s="112" t="s">
+    <row r="4" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="107" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4)</f>
+      <c r="C4" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$J$3:$J$1048576)</f>
+      <c r="D4" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$J$3:$J$1048576)</f>
         <v>4800000</v>
       </c>
-      <c r="E4" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$K$3:$K$1048576)</f>
+      <c r="E4" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$K$3:$K$1048576)</f>
         <v>350000</v>
       </c>
-      <c r="F4" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$L$3:$L$1048576)</f>
+      <c r="F4" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$L$3:$L$1048576)</f>
         <v>2000000</v>
       </c>
-      <c r="G4" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'T02'!$DS$3:$DS$1048576)</f>
+      <c r="G4" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>321750</v>
       </c>
-      <c r="T4" s="136">
-        <v>0</v>
-      </c>
-      <c r="U4" s="118">
+      <c r="T4" s="134">
+        <v>0</v>
+      </c>
+      <c r="U4" s="116">
         <f>ROUND(I4-SUM(J4:L4,P4,R4,S4,T4),0)</f>
         <v>-321750</v>
       </c>
-      <c r="V4" s="118"/>
+      <c r="V4" s="116"/>
     </row>
-    <row r="5" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="C5" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="134">
+        <v>0</v>
+      </c>
+      <c r="U5" s="116">
+        <f t="shared" ref="U5:U35" si="0">ROUND(I5-SUM(J5:L5,P5,R5,S5,T5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="116"/>
+    </row>
+    <row r="6" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="136">
-        <v>0</v>
-      </c>
-      <c r="U5" s="118">
-        <f t="shared" ref="U5:U35" si="0">ROUND(I5-SUM(J5:L5,P5,R5,S5,T5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="118"/>
+      <c r="B6" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="134">
+        <v>0</v>
+      </c>
+      <c r="U6" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="116"/>
     </row>
-    <row r="6" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="116" t="s">
+    <row r="7" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="136">
-        <v>0</v>
-      </c>
-      <c r="U6" s="118">
+      <c r="B7" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="134">
+        <v>0</v>
+      </c>
+      <c r="U7" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="118"/>
+      <c r="V7" s="116"/>
     </row>
-    <row r="7" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="116" t="s">
+    <row r="8" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="136">
-        <v>0</v>
-      </c>
-      <c r="U7" s="118">
+      <c r="B8" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="134">
+        <v>0</v>
+      </c>
+      <c r="U8" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="118"/>
+      <c r="V8" s="116"/>
     </row>
-    <row r="8" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="116" t="s">
+    <row r="9" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="136">
-        <v>0</v>
-      </c>
-      <c r="U8" s="118">
+      <c r="B9" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="134">
+        <v>0</v>
+      </c>
+      <c r="U9" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="118"/>
+      <c r="V9" s="116"/>
     </row>
-    <row r="9" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="116" t="s">
+    <row r="10" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="105">
+        <v>201016</v>
+      </c>
+      <c r="B10" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="136">
-        <v>0</v>
-      </c>
-      <c r="U9" s="118">
+      <c r="C10" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="134">
+        <v>0</v>
+      </c>
+      <c r="U10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="118"/>
+      <c r="V10" s="116"/>
     </row>
-    <row r="10" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="107">
-        <v>201016</v>
-      </c>
-      <c r="B10" s="116" t="s">
+    <row r="11" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="136">
-        <v>0</v>
-      </c>
-      <c r="U10" s="118">
+      <c r="B11" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="134">
+        <v>0</v>
+      </c>
+      <c r="U11" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="118"/>
+      <c r="V11" s="116"/>
     </row>
-    <row r="11" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="116" t="s">
+    <row r="12" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="136">
-        <v>0</v>
-      </c>
-      <c r="U11" s="118">
+      <c r="B12" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="134">
+        <v>0</v>
+      </c>
+      <c r="U12" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="118"/>
+      <c r="V12" s="116"/>
     </row>
-    <row r="12" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="116" t="s">
+    <row r="13" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="136">
-        <v>0</v>
-      </c>
-      <c r="U12" s="118">
+      <c r="B13" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="134">
+        <v>0</v>
+      </c>
+      <c r="U13" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="118"/>
+      <c r="V13" s="116"/>
     </row>
-    <row r="13" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="116" t="s">
+    <row r="14" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="136">
-        <v>0</v>
-      </c>
-      <c r="U13" s="118">
+      <c r="B14" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="134">
+        <v>0</v>
+      </c>
+      <c r="U14" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="118"/>
+      <c r="V14" s="116"/>
     </row>
-    <row r="14" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="116" t="s">
+    <row r="15" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="136">
-        <v>0</v>
-      </c>
-      <c r="U14" s="118">
+      <c r="B15" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="134">
+        <v>0</v>
+      </c>
+      <c r="U15" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V14" s="118"/>
+      <c r="V15" s="116"/>
     </row>
-    <row r="15" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="107" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="116" t="s">
+    <row r="16" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="136">
-        <v>0</v>
-      </c>
-      <c r="U15" s="118">
+      <c r="B16" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="134">
+        <v>0</v>
+      </c>
+      <c r="U16" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="118"/>
+      <c r="V16" s="116"/>
     </row>
-    <row r="16" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="116" t="s">
+    <row r="17" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="136">
-        <v>0</v>
-      </c>
-      <c r="U16" s="118">
+      <c r="B17" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="134">
+        <v>0</v>
+      </c>
+      <c r="U17" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="118"/>
+      <c r="V17" s="116"/>
     </row>
-    <row r="17" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="116" t="s">
+    <row r="18" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="136">
-        <v>0</v>
-      </c>
-      <c r="U17" s="118">
+      <c r="B18" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="134">
+        <v>0</v>
+      </c>
+      <c r="U18" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="118"/>
+      <c r="V18" s="116"/>
     </row>
-    <row r="18" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="116" t="s">
+    <row r="19" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="136">
-        <v>0</v>
-      </c>
-      <c r="U18" s="118">
+      <c r="B19" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="134">
+        <v>0</v>
+      </c>
+      <c r="U19" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V18" s="118"/>
+      <c r="V19" s="116"/>
     </row>
-    <row r="19" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="116" t="s">
+    <row r="20" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="136">
-        <v>0</v>
-      </c>
-      <c r="U19" s="118">
+      <c r="B20" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="134">
+        <v>0</v>
+      </c>
+      <c r="U20" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="118"/>
+      <c r="V20" s="116"/>
     </row>
-    <row r="20" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="116" t="s">
+    <row r="21" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="105">
+        <v>202007</v>
+      </c>
+      <c r="B21" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="136">
-        <v>0</v>
-      </c>
-      <c r="U20" s="118">
+      <c r="C21" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="134">
+        <v>0</v>
+      </c>
+      <c r="U21" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="118"/>
+      <c r="V21" s="116"/>
     </row>
-    <row r="21" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="107">
-        <v>202007</v>
-      </c>
-      <c r="B21" s="116" t="s">
+    <row r="22" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="105">
+        <v>202008</v>
+      </c>
+      <c r="B22" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="136">
-        <v>0</v>
-      </c>
-      <c r="U21" s="118">
+      <c r="C22" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="134">
+        <v>0</v>
+      </c>
+      <c r="U22" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="118"/>
+      <c r="V22" s="116"/>
     </row>
-    <row r="22" spans="1:22" s="120" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="107">
-        <v>202008</v>
-      </c>
-      <c r="B22" s="116" t="s">
+    <row r="23" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="136">
-        <v>0</v>
-      </c>
-      <c r="U22" s="118">
+      <c r="B23" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="134">
+        <v>0</v>
+      </c>
+      <c r="U23" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="118"/>
+      <c r="V23" s="116"/>
     </row>
-    <row r="23" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="116" t="s">
+    <row r="24" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="136">
-        <v>0</v>
-      </c>
-      <c r="U23" s="118">
+      <c r="B24" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="134">
+        <v>0</v>
+      </c>
+      <c r="U24" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="118"/>
+      <c r="V24" s="116"/>
     </row>
-    <row r="24" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="116" t="s">
+    <row r="25" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="136">
-        <v>0</v>
-      </c>
-      <c r="U24" s="118">
+      <c r="B25" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="134">
+        <v>0</v>
+      </c>
+      <c r="U25" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="118"/>
+      <c r="V25" s="116"/>
     </row>
-    <row r="25" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="116" t="s">
+    <row r="26" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="136">
-        <v>0</v>
-      </c>
-      <c r="U25" s="118">
+      <c r="B26" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="134">
+        <v>0</v>
+      </c>
+      <c r="U26" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V25" s="118"/>
+      <c r="V26" s="116"/>
     </row>
-    <row r="26" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="116" t="s">
+    <row r="27" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="136">
-        <v>0</v>
-      </c>
-      <c r="U26" s="118">
+      <c r="B27" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="134">
+        <v>0</v>
+      </c>
+      <c r="U27" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V26" s="118"/>
+      <c r="V27" s="116"/>
     </row>
-    <row r="27" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="121" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="116" t="s">
+    <row r="28" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="136">
-        <v>0</v>
-      </c>
-      <c r="U27" s="118">
+      <c r="B28" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="134">
+        <v>0</v>
+      </c>
+      <c r="U28" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V27" s="118"/>
+      <c r="V28" s="116"/>
     </row>
-    <row r="28" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="116" t="s">
+    <row r="29" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="136">
-        <v>0</v>
-      </c>
-      <c r="U28" s="118">
+      <c r="B29" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="134">
+        <v>0</v>
+      </c>
+      <c r="U29" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V28" s="118"/>
+      <c r="V29" s="116"/>
     </row>
-    <row r="29" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="116" t="s">
+    <row r="30" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="136">
-        <v>0</v>
-      </c>
-      <c r="U29" s="118">
+      <c r="B30" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="134">
+        <v>0</v>
+      </c>
+      <c r="U30" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V29" s="118"/>
+      <c r="V30" s="116"/>
     </row>
-    <row r="30" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="116" t="s">
+    <row r="31" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="136">
-        <v>0</v>
-      </c>
-      <c r="U30" s="118">
+      <c r="B31" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="134">
+        <v>0</v>
+      </c>
+      <c r="U31" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V30" s="118"/>
+      <c r="V31" s="116"/>
     </row>
-    <row r="31" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="107" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="116" t="s">
+    <row r="32" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="105">
+        <v>252001</v>
+      </c>
+      <c r="B32" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="136">
-        <v>0</v>
-      </c>
-      <c r="U31" s="118">
+      <c r="C32" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="134">
+        <v>0</v>
+      </c>
+      <c r="U32" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31" s="118"/>
+      <c r="V32" s="120"/>
     </row>
-    <row r="32" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="107">
-        <v>252001</v>
-      </c>
-      <c r="B32" s="116" t="s">
+    <row r="33" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="105">
+        <v>251001</v>
+      </c>
+      <c r="B33" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="136">
-        <v>0</v>
-      </c>
-      <c r="U32" s="118">
+      <c r="C33" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="134">
+        <v>0</v>
+      </c>
+      <c r="U33" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V32" s="122"/>
+      <c r="V33" s="120"/>
     </row>
-    <row r="33" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="107">
-        <v>251001</v>
-      </c>
-      <c r="B33" s="116" t="s">
+    <row r="34" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="105">
+        <v>262001</v>
+      </c>
+      <c r="B34" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="136">
-        <v>0</v>
-      </c>
-      <c r="U33" s="118">
+      <c r="C34" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="134">
+        <v>0</v>
+      </c>
+      <c r="U34" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="122"/>
+      <c r="V34" s="120"/>
     </row>
-    <row r="34" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="107">
-        <v>262001</v>
-      </c>
-      <c r="B34" s="116" t="s">
+    <row r="35" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="105">
+        <v>261001</v>
+      </c>
+      <c r="B35" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="136">
-        <v>0</v>
-      </c>
-      <c r="U34" s="118">
+      <c r="C35" s="115">
+        <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$J$3:$J$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$K$3:$K$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$L$3:$L$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$N$3:$N$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="133">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$O$3:$O$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$CJ$3:$CJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DI$3:$DI$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DJ$3:$DJ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DK$3:$DK$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DM$3:$DM$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DN$3:$DN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DO$3:$DO$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DP$3:$DP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DQ$3:$DQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$CV$3:$CV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="134">
+        <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DS$3:$DS$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="134">
+        <v>0</v>
+      </c>
+      <c r="U35" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V34" s="122"/>
+      <c r="V35" s="120"/>
     </row>
-    <row r="35" spans="1:22" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="107">
-        <v>261001</v>
-      </c>
-      <c r="B35" s="116" t="s">
+    <row r="36" spans="1:22" s="113" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="121" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="117">
-        <f>+COUNTIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$J$3:$J$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$K$3:$K$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$L$3:$L$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$N$3:$N$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="135">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$O$3:$O$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CJ$3:$CJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DI$3:$DI$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DJ$3:$DJ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DK$3:$DK$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DL$3:$DL$1048576)+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DM$3:$DM$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DN$3:$DN$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DO$3:$DO$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DP$3:$DP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DQ$3:$DQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$CV$3:$CV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="136">
-        <f>+SUMIF('T02'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'T02'!$DS$3:$DS$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="136">
-        <v>0</v>
-      </c>
-      <c r="U35" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="122"/>
-    </row>
-    <row r="36" spans="1:22" s="115" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="123" t="s">
+      <c r="B36" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="125">
+      <c r="C36" s="123">
         <f>SUM(C4:C35)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="125">
+      <c r="D36" s="123">
         <f t="shared" ref="D36:T36" si="1">SUM(D4:D35)</f>
         <v>4800000</v>
       </c>
-      <c r="E36" s="125">
+      <c r="E36" s="123">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
-      <c r="F36" s="125">
+      <c r="F36" s="123">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="G36" s="125">
+      <c r="G36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="125">
+      <c r="H36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="125">
+      <c r="I36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="125">
+      <c r="J36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="125">
+      <c r="K36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="125">
+      <c r="L36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="125">
+      <c r="M36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="125">
+      <c r="N36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="125">
+      <c r="O36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P36" s="125">
+      <c r="P36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="125">
+      <c r="Q36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="125">
+      <c r="R36" s="123">
         <f>SUM(R4:R35)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="125">
+      <c r="S36" s="123">
         <f t="shared" si="1"/>
         <v>321750</v>
       </c>
-      <c r="T36" s="125">
+      <c r="T36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36" s="125">
+      <c r="U36" s="123">
         <f>SUM(U4:U35)</f>
         <v>-321750</v>
       </c>
-      <c r="V36" s="125"/>
+      <c r="V36" s="123"/>
     </row>
-    <row r="37" spans="1:22" s="115" customFormat="1">
-      <c r="A37" s="126"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="130"/>
+    <row r="37" spans="1:22" s="113" customFormat="1">
+      <c r="A37" s="124"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="126"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="128"/>
     </row>
-    <row r="38" spans="1:22" s="115" customFormat="1">
-      <c r="A38" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="129"/>
-      <c r="U38" s="129"/>
+    <row r="38" spans="1:22" s="113" customFormat="1">
+      <c r="A38" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="125"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="131"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="J40" s="132"/>
-      <c r="K40" s="133"/>
-      <c r="U40" s="134"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="131"/>
+      <c r="U40" s="132"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="J42" s="132"/>
-      <c r="U42" s="134"/>
+      <c r="J42" s="130"/>
+      <c r="U42" s="132"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="M44" s="128"/>
+      <c r="M44" s="126"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="J45" s="131"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="131"/>
+      <c r="J45" s="129"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="J46" s="131"/>
-      <c r="M46" s="131"/>
+      <c r="J46" s="129"/>
+      <c r="M46" s="129"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="J47" s="131"/>
+      <c r="J47" s="129"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:U3">

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/Salary_Detail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F058A7-882E-46F4-8C12-EAB769D44A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary detail" sheetId="1" r:id="rId1"/>
@@ -61,22 +62,33 @@
     <definedName name="ㅏㅏㅏㅏ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ㅏㅏㅏㅏ" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wisol</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN1" authorId="0" shapeId="0">
+    <comment ref="CN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO1" authorId="0" shapeId="0">
+    <comment ref="CO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0" shapeId="0">
+    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="0" shapeId="0">
+    <comment ref="AY2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -535,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="0" shapeId="0">
+    <comment ref="BD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -559,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="0" shapeId="0">
+    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM2" authorId="0" shapeId="0">
+    <comment ref="DM2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -607,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DO2" authorId="0" shapeId="0">
+    <comment ref="DO2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -636,12 +648,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Wisol</author>
   </authors>
   <commentList>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -665,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1585,7 +1597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2299,7 +2311,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2316,56 +2328,53 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2373,13 +2382,10 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,22 +2403,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,7 +2430,7 @@
     <xf numFmtId="167" fontId="8" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2457,7 +2463,7 @@
     <xf numFmtId="167" fontId="8" fillId="13" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2466,22 +2472,22 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,21 +2499,20 @@
     <xf numFmtId="43" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2517,31 +2522,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2574,7 +2577,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2594,11 +2596,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2608,10 +2609,10 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="36" fillId="17" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2624,17 +2625,29 @@
     <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2648,22 +2661,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2696,10 +2709,10 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,10 +2757,10 @@
     <xf numFmtId="165" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,12 +2835,6 @@
     <xf numFmtId="167" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2840,16 +2847,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2858,28 +2865,28 @@
     <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,16 +2913,16 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
@@ -2924,32 +2931,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Comma 2 3" xfId="3"/>
-    <cellStyle name="Comma 5 3" xfId="7"/>
+    <cellStyle name="Comma 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 9" xfId="6"/>
-    <cellStyle name="Normal 41" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 9" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 41" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -3157,7 +3152,13 @@
     <xdr:ext cx="529505" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3220,7 +3221,13 @@
     <xdr:ext cx="529505" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3293,7 +3300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3587,17 +3600,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:EI17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="CX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="DB5" sqref="DB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -3628,29 +3641,29 @@
     <col min="31" max="32" width="6.140625" style="20" customWidth="1"/>
     <col min="33" max="33" width="10.42578125" style="20" customWidth="1"/>
     <col min="34" max="34" width="6.140625" style="20" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="22" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="8" customWidth="1"/>
     <col min="36" max="36" width="8.85546875" style="8" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" style="8" customWidth="1"/>
     <col min="38" max="39" width="7.7109375" style="8" customWidth="1"/>
     <col min="40" max="40" width="7.85546875" style="8" customWidth="1"/>
     <col min="41" max="41" width="9.28515625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="12.85546875" style="23" customWidth="1"/>
-    <col min="43" max="44" width="11.7109375" style="23" customWidth="1"/>
-    <col min="45" max="45" width="12.85546875" style="23" customWidth="1"/>
-    <col min="46" max="47" width="7.85546875" style="23" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" style="23" customWidth="1"/>
+    <col min="42" max="42" width="12.85546875" style="22" customWidth="1"/>
+    <col min="43" max="44" width="11.7109375" style="22" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" style="22" customWidth="1"/>
+    <col min="46" max="47" width="7.85546875" style="22" customWidth="1"/>
+    <col min="48" max="48" width="12.85546875" style="22" customWidth="1"/>
     <col min="49" max="50" width="7.85546875" style="20" customWidth="1"/>
     <col min="51" max="54" width="6.140625" style="20" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" style="22" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" style="8" customWidth="1"/>
     <col min="56" max="56" width="8.85546875" style="8" customWidth="1"/>
     <col min="57" max="57" width="7.85546875" style="8" customWidth="1"/>
     <col min="58" max="59" width="7.7109375" style="8" customWidth="1"/>
     <col min="60" max="60" width="7.85546875" style="8" customWidth="1"/>
     <col min="61" max="61" width="9.28515625" style="8" customWidth="1"/>
-    <col min="62" max="62" width="12.85546875" style="23" customWidth="1"/>
-    <col min="63" max="66" width="8.7109375" style="24" customWidth="1"/>
-    <col min="67" max="67" width="12" style="24" customWidth="1"/>
-    <col min="68" max="68" width="7.85546875" style="23" customWidth="1"/>
+    <col min="62" max="62" width="12.85546875" style="22" customWidth="1"/>
+    <col min="63" max="66" width="8.7109375" style="23" customWidth="1"/>
+    <col min="67" max="67" width="12" style="23" customWidth="1"/>
+    <col min="68" max="68" width="7.85546875" style="22" customWidth="1"/>
     <col min="69" max="71" width="10.42578125" style="15" customWidth="1"/>
     <col min="72" max="72" width="11.140625" style="15" customWidth="1"/>
     <col min="73" max="81" width="12.140625" style="15" customWidth="1"/>
@@ -3660,25 +3673,24 @@
     <col min="85" max="85" width="8.7109375" style="8" customWidth="1"/>
     <col min="86" max="86" width="11.5703125" style="8" customWidth="1"/>
     <col min="87" max="87" width="13.5703125" style="8" customWidth="1"/>
-    <col min="88" max="88" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="13.5703125" style="10" customWidth="1"/>
     <col min="90" max="90" width="13.5703125" style="8" customWidth="1"/>
     <col min="91" max="91" width="14.28515625" style="8" customWidth="1"/>
     <col min="92" max="100" width="13.5703125" style="8" customWidth="1"/>
     <col min="101" max="101" width="18.28515625" style="8" customWidth="1"/>
-    <col min="102" max="102" width="14.140625" style="26" customWidth="1"/>
+    <col min="102" max="102" width="14.140625" style="24" customWidth="1"/>
     <col min="103" max="103" width="13.7109375" style="12" customWidth="1"/>
     <col min="104" max="104" width="13.42578125" style="8" customWidth="1"/>
     <col min="105" max="105" width="10.42578125" style="8" customWidth="1"/>
     <col min="106" max="106" width="15.28515625" style="8" customWidth="1"/>
     <col min="107" max="107" width="13.42578125" style="8" customWidth="1"/>
-    <col min="108" max="108" width="13.42578125" style="23" customWidth="1"/>
+    <col min="108" max="108" width="13.42578125" style="22" customWidth="1"/>
     <col min="109" max="109" width="15.7109375" style="8" customWidth="1"/>
     <col min="110" max="110" width="23.28515625" style="10" customWidth="1"/>
     <col min="111" max="111" width="15.85546875" style="8" customWidth="1"/>
     <col min="112" max="112" width="12.85546875" style="8" customWidth="1"/>
-    <col min="113" max="113" width="14.85546875" style="25" customWidth="1"/>
-    <col min="114" max="119" width="14.85546875" style="8" customWidth="1"/>
+    <col min="113" max="119" width="14.85546875" style="8" customWidth="1"/>
     <col min="120" max="121" width="13.5703125" style="8" customWidth="1"/>
     <col min="122" max="122" width="9.140625" style="8" customWidth="1"/>
     <col min="123" max="123" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -3700,49 +3712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="3" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A1" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="144" t="s">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="141" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="148" t="s">
+      <c r="I1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="154" t="s">
+      <c r="M1" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="156" t="s">
+      <c r="N1" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="158" t="s">
+      <c r="O1" s="155" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1">
@@ -3751,313 +3763,313 @@
       <c r="Q1" s="2">
         <v>44985</v>
       </c>
-      <c r="R1" s="160" t="s">
+      <c r="R1" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="162" t="s">
+      <c r="S1" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="162" t="s">
+      <c r="T1" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="152" t="s">
+      <c r="U1" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="152" t="s">
+      <c r="V1" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="164" t="s">
+      <c r="W1" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="164" t="s">
+      <c r="X1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="164" t="s">
+      <c r="Y1" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="152" t="s">
+      <c r="Z1" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="152" t="s">
+      <c r="AA1" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="152" t="s">
+      <c r="AB1" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="166" t="s">
+      <c r="AC1" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166" t="s">
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="166"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="166"/>
-      <c r="AO1" s="152" t="s">
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="163"/>
+      <c r="AL1" s="163"/>
+      <c r="AM1" s="163"/>
+      <c r="AN1" s="163"/>
+      <c r="AO1" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="152" t="s">
+      <c r="AP1" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="167" t="s">
+      <c r="AQ1" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="167" t="s">
+      <c r="AR1" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="152" t="s">
+      <c r="AS1" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="167" t="s">
+      <c r="AT1" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="167" t="s">
+      <c r="AU1" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="152" t="s">
+      <c r="AV1" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="166" t="s">
+      <c r="AW1" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="166"/>
-      <c r="AY1" s="166"/>
-      <c r="AZ1" s="166"/>
-      <c r="BA1" s="166"/>
-      <c r="BB1" s="166"/>
-      <c r="BC1" s="166" t="s">
+      <c r="AX1" s="163"/>
+      <c r="AY1" s="163"/>
+      <c r="AZ1" s="163"/>
+      <c r="BA1" s="163"/>
+      <c r="BB1" s="163"/>
+      <c r="BC1" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="166"/>
-      <c r="BE1" s="166"/>
-      <c r="BF1" s="166"/>
-      <c r="BG1" s="166"/>
-      <c r="BH1" s="166"/>
-      <c r="BI1" s="152" t="s">
+      <c r="BD1" s="163"/>
+      <c r="BE1" s="163"/>
+      <c r="BF1" s="163"/>
+      <c r="BG1" s="163"/>
+      <c r="BH1" s="163"/>
+      <c r="BI1" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" s="152" t="s">
+      <c r="BJ1" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="BK1" s="171" t="s">
+      <c r="BK1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="BL1" s="172"/>
-      <c r="BM1" s="172"/>
-      <c r="BN1" s="172"/>
-      <c r="BO1" s="173"/>
-      <c r="BP1" s="167" t="s">
+      <c r="BL1" s="169"/>
+      <c r="BM1" s="169"/>
+      <c r="BN1" s="169"/>
+      <c r="BO1" s="170"/>
+      <c r="BP1" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="174" t="s">
+      <c r="BQ1" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="176" t="s">
+      <c r="BR1" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="BS1" s="177"/>
-      <c r="BT1" s="169" t="s">
+      <c r="BS1" s="174"/>
+      <c r="BT1" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="BU1" s="169" t="s">
+      <c r="BU1" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="BV1" s="169" t="s">
+      <c r="BV1" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="BW1" s="169" t="s">
+      <c r="BW1" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="BX1" s="169" t="s">
+      <c r="BX1" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="BY1" s="169" t="s">
+      <c r="BY1" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="BZ1" s="180" t="s">
+      <c r="BZ1" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="CA1" s="180" t="s">
+      <c r="CA1" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="CB1" s="180" t="s">
+      <c r="CB1" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="CC1" s="182" t="s">
+      <c r="CC1" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="CD1" s="180" t="s">
+      <c r="CD1" s="177" t="s">
         <v>244</v>
       </c>
-      <c r="CE1" s="184" t="s">
+      <c r="CE1" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="CF1" s="184" t="s">
+      <c r="CF1" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="CG1" s="184" t="s">
+      <c r="CG1" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="CH1" s="186" t="s">
+      <c r="CH1" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="CI1" s="178" t="s">
+      <c r="CI1" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="CJ1" s="184" t="s">
+      <c r="CJ1" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="CK1" s="144" t="s">
+      <c r="CK1" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="CL1" s="186" t="s">
+      <c r="CL1" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="CM1" s="186" t="s">
+      <c r="CM1" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="CN1" s="188" t="s">
+      <c r="CN1" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="CO1" s="186" t="s">
+      <c r="CO1" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="CP1" s="188" t="s">
+      <c r="CP1" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="CQ1" s="186" t="s">
+      <c r="CQ1" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="CR1" s="190" t="s">
+      <c r="CR1" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="CS1" s="192" t="s">
+      <c r="CS1" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="CT1" s="186" t="s">
+      <c r="CT1" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="CU1" s="186" t="s">
+      <c r="CU1" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="CV1" s="186" t="s">
+      <c r="CV1" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="CW1" s="195" t="s">
+      <c r="CW1" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="CX1" s="197" t="s">
+      <c r="CX1" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="CY1" s="199" t="s">
+      <c r="CY1" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="CZ1" s="194" t="s">
+      <c r="CZ1" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="DA1" s="194"/>
-      <c r="DB1" s="194"/>
-      <c r="DC1" s="194"/>
-      <c r="DD1" s="200" t="s">
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="197" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="202" t="s">
+      <c r="DE1" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="DF1" s="204" t="s">
+      <c r="DF1" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="DG1" s="206">
+      <c r="DG1" s="201">
         <v>44958</v>
       </c>
-      <c r="DH1" s="206"/>
-      <c r="DI1" s="194" t="s">
+      <c r="DH1" s="201"/>
+      <c r="DI1" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="DJ1" s="194"/>
-      <c r="DK1" s="194"/>
-      <c r="DL1" s="194"/>
-      <c r="DM1" s="194"/>
-      <c r="DN1" s="194"/>
-      <c r="DO1" s="194"/>
-      <c r="DP1" s="194" t="s">
+      <c r="DJ1" s="191"/>
+      <c r="DK1" s="191"/>
+      <c r="DL1" s="191"/>
+      <c r="DM1" s="191"/>
+      <c r="DN1" s="191"/>
+      <c r="DO1" s="191"/>
+      <c r="DP1" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="DQ1" s="194"/>
-      <c r="DR1" s="194" t="s">
+      <c r="DQ1" s="191"/>
+      <c r="DR1" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="DS1" s="194"/>
-      <c r="DT1" s="194" t="s">
+      <c r="DS1" s="191"/>
+      <c r="DT1" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="DU1" s="208" t="s">
+      <c r="DU1" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="DV1" s="209"/>
-      <c r="DW1" s="210" t="s">
+      <c r="DV1" s="204"/>
+      <c r="DW1" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="DX1" s="194" t="s">
+      <c r="DX1" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="DY1" s="194"/>
-      <c r="DZ1" s="194"/>
-      <c r="EA1" s="194" t="s">
+      <c r="DY1" s="191"/>
+      <c r="DZ1" s="191"/>
+      <c r="EA1" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="EB1" s="194"/>
-      <c r="EC1" s="194"/>
-      <c r="ED1" s="207" t="s">
+      <c r="EB1" s="191"/>
+      <c r="EC1" s="191"/>
+      <c r="ED1" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="EE1" s="139" t="s">
+      <c r="EE1" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="EF1" s="139"/>
-      <c r="EG1" s="139"/>
-      <c r="EH1" s="139"/>
+      <c r="EF1" s="131"/>
+      <c r="EG1" s="131"/>
+      <c r="EH1" s="131"/>
     </row>
     <row r="2" spans="1:139" s="3" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="159"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="156"/>
       <c r="P2" s="4" t="s">
         <v>82</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
       <c r="AC2" s="5">
         <v>1.5</v>
       </c>
@@ -4094,14 +4106,14 @@
       <c r="AN2" s="5">
         <v>3.9</v>
       </c>
-      <c r="AO2" s="153"/>
-      <c r="AP2" s="153"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="153"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="153"/>
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165"/>
+      <c r="AV2" s="150"/>
       <c r="AW2" s="5">
         <v>1.5</v>
       </c>
@@ -4138,8 +4150,8 @@
       <c r="BH2" s="5">
         <v>3.9</v>
       </c>
-      <c r="BI2" s="153"/>
-      <c r="BJ2" s="153"/>
+      <c r="BI2" s="150"/>
+      <c r="BJ2" s="150"/>
       <c r="BK2" s="6" t="s">
         <v>84</v>
       </c>
@@ -4155,605 +4167,605 @@
       <c r="BO2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="168"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="64" t="s">
+      <c r="BP2" s="165"/>
+      <c r="BQ2" s="172"/>
+      <c r="BR2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="BS2" s="64" t="s">
+      <c r="BS2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="BT2" s="170"/>
-      <c r="BU2" s="170"/>
-      <c r="BV2" s="170"/>
-      <c r="BW2" s="170"/>
-      <c r="BX2" s="170"/>
-      <c r="BY2" s="170"/>
-      <c r="BZ2" s="181"/>
-      <c r="CA2" s="181"/>
-      <c r="CB2" s="181"/>
-      <c r="CC2" s="183"/>
-      <c r="CD2" s="181"/>
-      <c r="CE2" s="185"/>
-      <c r="CF2" s="185"/>
-      <c r="CG2" s="185"/>
-      <c r="CH2" s="187"/>
-      <c r="CI2" s="179"/>
-      <c r="CJ2" s="185"/>
-      <c r="CK2" s="145"/>
-      <c r="CL2" s="187"/>
-      <c r="CM2" s="187"/>
-      <c r="CN2" s="189"/>
-      <c r="CO2" s="187"/>
-      <c r="CP2" s="189"/>
-      <c r="CQ2" s="187"/>
-      <c r="CR2" s="191"/>
-      <c r="CS2" s="193"/>
-      <c r="CT2" s="187"/>
-      <c r="CU2" s="187"/>
-      <c r="CV2" s="187"/>
-      <c r="CW2" s="196"/>
-      <c r="CX2" s="198"/>
-      <c r="CY2" s="139"/>
-      <c r="CZ2" s="28" t="s">
+      <c r="BT2" s="167"/>
+      <c r="BU2" s="167"/>
+      <c r="BV2" s="167"/>
+      <c r="BW2" s="167"/>
+      <c r="BX2" s="167"/>
+      <c r="BY2" s="167"/>
+      <c r="BZ2" s="178"/>
+      <c r="CA2" s="178"/>
+      <c r="CB2" s="178"/>
+      <c r="CC2" s="180"/>
+      <c r="CD2" s="178"/>
+      <c r="CE2" s="182"/>
+      <c r="CF2" s="182"/>
+      <c r="CG2" s="182"/>
+      <c r="CH2" s="184"/>
+      <c r="CI2" s="176"/>
+      <c r="CJ2" s="182"/>
+      <c r="CK2" s="142"/>
+      <c r="CL2" s="184"/>
+      <c r="CM2" s="184"/>
+      <c r="CN2" s="186"/>
+      <c r="CO2" s="184"/>
+      <c r="CP2" s="186"/>
+      <c r="CQ2" s="184"/>
+      <c r="CR2" s="188"/>
+      <c r="CS2" s="190"/>
+      <c r="CT2" s="184"/>
+      <c r="CU2" s="184"/>
+      <c r="CV2" s="184"/>
+      <c r="CW2" s="193"/>
+      <c r="CX2" s="195"/>
+      <c r="CY2" s="131"/>
+      <c r="CZ2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="DA2" s="28" t="s">
+      <c r="DA2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="DB2" s="28" t="s">
+      <c r="DB2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="DC2" s="28" t="s">
+      <c r="DC2" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="DD2" s="201"/>
-      <c r="DE2" s="203"/>
-      <c r="DF2" s="205"/>
-      <c r="DG2" s="29" t="s">
+      <c r="DD2" s="198"/>
+      <c r="DE2" s="131"/>
+      <c r="DF2" s="200"/>
+      <c r="DG2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="DH2" s="29" t="s">
+      <c r="DH2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="DI2" s="30" t="s">
+      <c r="DI2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="DJ2" s="30" t="s">
+      <c r="DJ2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="DK2" s="30" t="s">
+      <c r="DK2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="DL2" s="30" t="s">
+      <c r="DL2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="DM2" s="30" t="s">
+      <c r="DM2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="DN2" s="30" t="s">
+      <c r="DN2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="DO2" s="30" t="s">
+      <c r="DO2" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="DP2" s="30" t="s">
+      <c r="DP2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="DQ2" s="30" t="s">
+      <c r="DQ2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="DR2" s="28" t="s">
+      <c r="DR2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="DS2" s="30" t="s">
+      <c r="DS2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="DT2" s="207"/>
-      <c r="DU2" s="136" t="s">
+      <c r="DT2" s="202"/>
+      <c r="DU2" s="129" t="s">
         <v>242</v>
       </c>
-      <c r="DV2" s="31">
+      <c r="DV2" s="29">
         <f>4160000/26</f>
         <v>160000</v>
       </c>
-      <c r="DW2" s="211"/>
-      <c r="DX2" s="32" t="s">
+      <c r="DW2" s="206"/>
+      <c r="DX2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="DY2" s="32" t="s">
+      <c r="DY2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="DZ2" s="32" t="s">
+      <c r="DZ2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="EA2" s="32" t="s">
+      <c r="EA2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="EB2" s="32" t="s">
+      <c r="EB2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="EC2" s="32" t="s">
+      <c r="EC2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="ED2" s="207"/>
-      <c r="EE2" s="137" t="s">
+      <c r="ED2" s="202"/>
+      <c r="EE2" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="EF2" s="137" t="s">
+      <c r="EF2" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="EG2" s="137" t="s">
+      <c r="EG2" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="EH2" s="137" t="s">
+      <c r="EH2" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="9" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="36">
         <v>42065</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="37">
         <v>4800000</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="38">
         <v>350000</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="38">
         <f>+IF(OR(H3="Group Leader/ Trưởng bộ phận",H5="Engineer Group Leader/ Trưởng bộ phận kỹ thuật",H5="Production Group Leader/ Trưởng bộ phận sản xuất"),2000000,IF(OR($H5="Part Leader/ Trưởng nhóm",$H5="Engineer Part Leader/ Trưởng nhóm kỹ thuật",$H5="Production Part Leader/ Trưởng nhóm sản xuất"),1000000,IF(OR($H5="Assistant leader/ Phó nhóm",$H5="Engineer Assistant leader/ Phó nhóm kỹ thuật",$H5="Production Assistant leader/ Phó nhóm sản xuất"),700000,IF(OR($H5="Engineer Supervisor/ Giám sát kỹ thuật",$H5="Supervisor/ Giám sát line"),500000,IF(OR($H5="Engineer shift leader/ Tổ trưởng kỹ thuật",$H5="Shift Leader/ Tổ trưởng sản xuất"),300000,0)))))</f>
         <v>2000000</v>
       </c>
-      <c r="M3" s="39">
-        <v>0</v>
-      </c>
-      <c r="N3" s="138">
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+      <c r="N3" s="130">
         <f>+IF(DG3&gt;=96,1000000,IF(AND(DG3&lt;=95,DG3&gt;=84),950000,IF(AND(DG3&lt;=83,DG3&gt;=72),850000,IF(AND(DG3&lt;=71,DG3&gt;=60),750000,IF(AND(DG3&lt;=59,DG3&gt;=48),650000,IF(AND(DG3&lt;=47,DG3&gt;=36),550000,IF(AND(DG3&lt;=35,DG3&gt;=24),450000,IF(AND(DG3&lt;=23,DG3&gt;=18),350000,IF(AND(DG3&lt;=17,DG3&gt;=12),250000,IF(AND(DG3&lt;=11,DG3&gt;=2),150000,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="O3" s="40">
+      <c r="O3" s="38">
         <f>+IF($G3="Utility",J3*5%,IF(C3="x",J3*7%,0))</f>
         <v>0</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="39">
         <f t="shared" ref="P3" si="0">+SUM($J3:$O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>297916.66666666669</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="39">
         <f t="shared" ref="Q3" si="1">+IF(NETWORKDAYS.INTL($P$1,$Q$1,11)&lt;=26,P3/8,(SUM(J3:O3)/26)/8)</f>
         <v>37239.583333333336</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42">
-        <v>0</v>
-      </c>
-      <c r="T3" s="42">
-        <v>0</v>
-      </c>
-      <c r="U3" s="43">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40">
+        <v>0</v>
+      </c>
+      <c r="T3" s="40">
+        <v>0</v>
+      </c>
+      <c r="U3" s="41">
         <f t="shared" ref="U3" si="2">85%*$P3*$S3</f>
         <v>0</v>
       </c>
-      <c r="V3" s="43">
+      <c r="V3" s="41">
         <f t="shared" ref="V3" si="3">85%*$P3*130%*$T3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="43">
+      <c r="W3" s="40"/>
+      <c r="X3" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="41">
         <f t="shared" ref="Z3" si="4">+$P3*($W3+$Y3)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="43">
+      <c r="AA3" s="41">
         <f t="shared" ref="AA3" si="5">+$P3*130%*X3</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="43">
+      <c r="AB3" s="41">
         <f t="shared" ref="AB3" si="6">+U3+V3+Z3+AA3</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="43">
+      <c r="AC3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="41">
         <f t="shared" ref="AO3" si="7">SUM(AC3:AH3,AI3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="43">
+      <c r="AP3" s="41">
         <f t="shared" ref="AP3" si="8">+IF(H3="operator",Q3*((AC3+AI3)*150%+(AD3+AJ3)*200%+(AE3+AK3)*210%+(AF3+AL3)*270%+(AG3+AM3)*300%+(AH3+AN3)*390%),Q3*85%*(AC3*150%+AD3*200%+AE3*210%+AF3*270%+AG3*300%+AH3*390%)+Q3*(AI3*150%+AJ3*200%+AK3*210%+AL3*270%+AM3*300%+AN3*390%))</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="43">
+      <c r="AQ3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="41">
         <f t="shared" ref="AS3" si="9">260%*P3*(85%*AQ3/2+AR3/2)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="43">
+      <c r="AT3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="41">
         <f t="shared" ref="AV3" si="10">+IF(E3="M1-1",Q3*(AT3+AU3)*200%*(45/60),Q3*85%*AT3*200%*(45/60)+Q3*AU3*200%*(45/60))</f>
         <v>0</v>
       </c>
-      <c r="AW3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="42">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="43">
+      <c r="AW3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="41">
         <f t="shared" ref="BI3" si="11">SUM(AW3:BB3,BC3:BH3)</f>
         <v>0</v>
       </c>
-      <c r="BJ3" s="43">
+      <c r="BJ3" s="41">
         <f t="shared" ref="BJ3" si="12">+Q3*85%*(AW3*$AW$2+AX3*$AX$2+AY3*$AY$2+AZ3*$AZ$2+BA3*$BA$2+BB3*$BB$2)+Q3*(BC3*$BC$2+BD3*$BD$2+BE3*$BE$2+BF3*$BF$2+BG3*$BG$2+BH3*$BH$2)</f>
         <v>0</v>
       </c>
-      <c r="BK3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="44">
+      <c r="BK3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="42">
         <f t="shared" ref="BO3" si="13">+P3*(BK3*85%+BL3)+Q3*(85%*BM3*(2*70%+2*140%)+BN3*(2*70%+2*140%))</f>
         <v>0</v>
       </c>
-      <c r="BP3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="42">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="44">
+      <c r="BP3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="42">
         <f>+IF(BQ3&lt;=0,IF(E3="M1-1",350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*(R3+BP3),350000*85%/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)+350000/NETWORKDAYS.INTL($P$1,$Q$1,11)*((W3+X3+Y3+BP3))),0)+(BS3)*350000/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BU3" s="44">
+      <c r="BU3" s="42">
         <f>(DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(BS3)*DB3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BV3" s="44">
+      <c r="BV3" s="42">
         <f>DC3/NETWORKDAYS.INTL($P$1,$Q$1,11)*R3</f>
         <v>0</v>
       </c>
-      <c r="BW3" s="135">
+      <c r="BW3" s="128">
         <f>+BS3*SUM(K3:O3)/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BX3" s="135">
+      <c r="BX3" s="128">
         <f>30%*P3*(BR3+BS3)</f>
         <v>0</v>
       </c>
-      <c r="BY3" s="44">
+      <c r="BY3" s="42">
         <f>(DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(S3+T3)*85%+DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)*(W3+X3+Y3))+(85%*BS3)*DD3/NETWORKDAYS.INTL($P$1,$Q$1,11)</f>
         <v>0</v>
       </c>
-      <c r="BZ3" s="44">
+      <c r="BZ3" s="42">
         <f t="shared" ref="BZ3" si="14">30000*$DT3</f>
         <v>0</v>
       </c>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="44">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="46">
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="42">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="44">
         <f>+DY3+EB3+ED3</f>
         <v>0</v>
       </c>
-      <c r="CD3" s="44">
+      <c r="CD3" s="42">
         <f>+EH3</f>
         <v>0</v>
       </c>
-      <c r="CE3" s="42">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="42">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="42">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="43">
+      <c r="CE3" s="40">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="40">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="40">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="41">
         <f t="shared" ref="CH3" si="15">IF(H3="operator",(CF3+CG3)*$Q3,CF3*$Q3*85%+CG3*$Q3)</f>
         <v>0</v>
       </c>
-      <c r="CI3" s="46">
+      <c r="CI3" s="44">
         <f>+DZ3+EC3</f>
         <v>0</v>
       </c>
-      <c r="CJ3" s="47">
+      <c r="CJ3" s="45">
         <f>ROUND(AB3+AP3+AS3+AV3+BJ3+BO3+SUM(BT3:CD3)+DV3-SUM(CH3:CI3),0)</f>
         <v>0</v>
       </c>
-      <c r="CK3" s="48">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="49">
+      <c r="CK3" s="46">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="47">
         <f>IF(CK3="x",10.5%*(J3+K3+L3+M3+N3+O3+CA3+CB3+DD3),IF(DR3="x",DS3,0))</f>
         <v>321750</v>
       </c>
-      <c r="CM3" s="49">
+      <c r="CM3" s="47">
         <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;180000,(J3+K3+L3+M3+N3+O3)*1%,180000),0)</f>
         <v>0</v>
       </c>
-      <c r="CN3" s="49">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="43">
+      <c r="CN3" s="47">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="41">
         <f>IF(H3="operator",Q3*((AC3+AI3)*50%+(AD3+AJ3)*100%+(AE3+AK3)*110%+(AF3+AL3)*170%+(AG3+AM3)*200%+(AH3+AN3)*290%),Q3*85%*(AC3*50%+AD3*100%+AE3*110%+AF3*170%+AG3*200%+AH3*290%)+Q3*(AI3*50%+AJ3*100%+AK3*110%+AL3*170%+AM3*200%+AN3*290%))+P3*30%*(85%*T3+X3)</f>
         <v>0</v>
       </c>
-      <c r="CP3" s="50">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="43">
+      <c r="CP3" s="48">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="41">
         <f t="shared" ref="CQ3" si="16">(CJ3+CP3-CO3-O3)</f>
         <v>0</v>
       </c>
-      <c r="CR3" s="50">
+      <c r="CR3" s="48">
         <v>11000000</v>
       </c>
-      <c r="CS3" s="51">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="43">
+      <c r="CS3" s="49">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="41">
         <f t="shared" ref="CT3" si="17">CS3*4400000</f>
         <v>0</v>
       </c>
-      <c r="CU3" s="49">
+      <c r="CU3" s="47">
         <f t="shared" ref="CU3" si="18">IF((CQ3-CL3-CR3-CT3-CN3)&lt;=0,0,(CQ3-CL3-CR3-CT3-CN3))</f>
         <v>0</v>
       </c>
-      <c r="CV3" s="49">
+      <c r="CV3" s="47">
         <f t="shared" ref="CV3" si="19">IF(AND(CU3&gt;0,CU3&lt;=5000000),CU3*5%,IF(AND(CU3&gt;5000000,CU3&lt;=10000000),CU3*10%-250000,IF(AND(CU3&gt;10000000,CU3&lt;=18000000),CU3*15%-750000,IF(AND(CU3&gt;18000000,CU3&lt;=32000000),CU3*20%-1650000,IF(AND(CU3&gt;32000000,CU3&lt;=52000000),CU3*25%-3250000,IF(AND(CU3&gt;52000000,CU3&lt;=80000000),CU3*30%-5850000,IF(CU3&gt;80000000,CU3*35%-9850000,0)))))))</f>
         <v>0</v>
       </c>
-      <c r="CW3" s="52">
+      <c r="CW3" s="50">
         <f t="shared" ref="CW3" si="20">ROUND(+CJ3-SUM(CL3:CN3,CV3),0)</f>
         <v>-321750</v>
       </c>
-      <c r="CX3" s="53">
+      <c r="CX3" s="51">
         <f t="shared" ref="CX3" si="21">I3</f>
         <v>42065</v>
       </c>
-      <c r="CY3" s="54"/>
-      <c r="CZ3" s="55">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="55"/>
-      <c r="DB3" s="55">
-        <f t="shared" ref="DB3" si="22">ROUNDUP(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*105%,IF(OR($DA3="C",$DA3="D",$DA3="N"),$CZ3,0))),-3)</f>
-        <v>0</v>
-      </c>
-      <c r="DC3" s="56">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="55">
-        <v>0</v>
-      </c>
-      <c r="DE3" s="57"/>
-      <c r="DF3" s="63"/>
-      <c r="DG3" s="58">
-        <f t="shared" ref="DG3" si="23">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DH3" s="58">
-        <f t="shared" ref="DH3" si="24">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
-        <v>0</v>
-      </c>
-      <c r="DI3" s="59">
-        <f t="shared" ref="DI3" si="25">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="59">
-        <f t="shared" ref="DJ3" si="26">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DK3" s="59">
-        <f t="shared" ref="DK3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DL3" s="59">
-        <f t="shared" ref="DL3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DM3" s="59">
-        <f t="shared" ref="DM3" si="29">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DN3" s="59">
-        <f t="shared" ref="DN3" si="30">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DO3" s="59">
-        <f t="shared" ref="DO3" si="31">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DP3" s="55">
-        <f t="shared" ref="DP3" si="32">+CM3</f>
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="55">
-        <f t="shared" ref="DQ3" si="33">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DR3" s="56" t="s">
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="53"/>
+      <c r="DA3" s="53"/>
+      <c r="DB3" s="53">
+        <f>+ROUND(IF($DA3="A",$CZ3*110%,IF($DA3="B",$CZ3*107.5%,IF($DA3="C",CZ3*105%,IF(OR($DA3="D",$DA3="N"),$CZ3,0)))),-3)</f>
+        <v>0</v>
+      </c>
+      <c r="DC3" s="54">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="53">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="55"/>
+      <c r="DF3" s="61"/>
+      <c r="DG3" s="56">
+        <f t="shared" ref="DG3" si="22">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"m")),0,DATEDIF($I3,$DG$1,"m")),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH3" s="56">
+        <f t="shared" ref="DH3" si="23">IF(OR($E3="M1-1",$E3="P2-1"),IF(ISERROR(DATEDIF($I3,$DG$1,"md")),0,DATEDIF($I3,$DG$1,"md")&amp;" "&amp;"ngày"),0)</f>
+        <v>0</v>
+      </c>
+      <c r="DI3" s="57">
+        <f t="shared" ref="DI3" si="24">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*8%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="57">
+        <f t="shared" ref="DJ3" si="25">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DK3" s="57">
+        <f t="shared" ref="DK3" si="26">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DL3" s="57">
+        <f t="shared" ref="DL3" si="27">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*17%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DM3" s="57">
+        <f t="shared" ref="DM3" si="28">+IF($CK3="x",($J3+$K3+$L3+M3+$N3+$O3+CA3+CB3)*0.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DN3" s="57">
+        <f t="shared" ref="DN3" si="29">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*3%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DO3" s="57">
+        <f t="shared" ref="DO3" si="30">+IF($CK3="x",($J3+$K3+$L3+$M3+$N3+$O3+$CA3+$CB3)*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DP3" s="53">
+        <f t="shared" ref="DP3" si="31">+CM3</f>
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="53">
+        <f t="shared" ref="DQ3" si="32">IF(CK3="x",SUM(J3:O3)*2%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DR3" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="DS3" s="60">
+      <c r="DS3" s="58">
         <f>+IF($DR3="x",(J3+K3+L3+M3+N3+O3+CA3+CB3+DD3)*4.5%,0)</f>
         <v>321750</v>
       </c>
-      <c r="DT3" s="61">
-        <v>0</v>
-      </c>
-      <c r="DU3" s="59">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="59">
+      <c r="DT3" s="59">
+        <v>0</v>
+      </c>
+      <c r="DU3" s="57">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="57">
         <f>+DU3*$DV$2</f>
         <v>0</v>
       </c>
-      <c r="DW3" s="53" t="s">
+      <c r="DW3" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="DX3" s="62">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="62">
-        <f t="shared" ref="DY3" si="34">+IF(DX3&gt;0,DX3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="62">
-        <f t="shared" ref="DZ3" si="35">+IF(DX3&lt;0,-DX3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="EA3" s="62">
-        <v>0</v>
-      </c>
-      <c r="EB3" s="55">
-        <f t="shared" ref="EB3" si="36">+IF(EA3&gt;0,EA3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="EC3" s="55">
-        <f t="shared" ref="EC3" si="37">-IF(EA3&lt;0,EA3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="ED3" s="62">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="62"/>
-      <c r="EF3" s="62"/>
-      <c r="EG3" s="62"/>
-      <c r="EH3" s="62">
+      <c r="DX3" s="60">
+        <v>0</v>
+      </c>
+      <c r="DY3" s="60">
+        <f t="shared" ref="DY3" si="33">+IF(DX3&gt;0,DX3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="60">
+        <f t="shared" ref="DZ3" si="34">+IF(DX3&lt;0,-DX3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EA3" s="60">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="53">
+        <f t="shared" ref="EB3" si="35">+IF(EA3&gt;0,EA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="EC3" s="53">
+        <f t="shared" ref="EC3" si="36">-IF(EA3&lt;0,EA3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="ED3" s="60">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="60"/>
+      <c r="EF3" s="60"/>
+      <c r="EG3" s="60"/>
+      <c r="EH3" s="60">
         <f>+IF(AND(EE3="Female",EF3=""),Q3*150%*EG3,0)</f>
         <v>0</v>
       </c>
-      <c r="EI3" s="27"/>
+      <c r="EI3" s="25"/>
     </row>
     <row r="4" spans="1:139" ht="34.5" customHeight="1">
-      <c r="EE4" s="239"/>
-      <c r="EF4" s="240"/>
+      <c r="DB4" s="231"/>
+      <c r="EE4" s="132"/>
+      <c r="EF4" s="133"/>
       <c r="EG4" s="11"/>
     </row>
     <row r="5" spans="1:139" ht="34.5" customHeight="1">
       <c r="J5" s="14"/>
-      <c r="EE5" s="236"/>
-      <c r="EF5" s="237"/>
-      <c r="EG5" s="237"/>
-      <c r="EH5" s="238"/>
+      <c r="EE5" s="134"/>
+      <c r="EF5" s="135"/>
+      <c r="EG5" s="135"/>
+      <c r="EH5" s="136"/>
     </row>
     <row r="6" spans="1:139" ht="34.5" customHeight="1">
       <c r="J6" s="14"/>
+      <c r="CX6" s="8"/>
     </row>
     <row r="7" spans="1:139" ht="34.5" customHeight="1">
       <c r="J7" s="14"/>
@@ -4789,7 +4801,7 @@
       <c r="J17" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:EI3"/>
+  <autoFilter ref="A2:EI3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="93">
     <mergeCell ref="EA1:EC1"/>
     <mergeCell ref="ED1:ED2"/>
@@ -4886,17 +4898,15 @@
     <mergeCell ref="Z1:Z2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="17" priority="513"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="16" priority="505"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="506"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="507"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="508"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="509"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="510"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="511"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="512"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="508"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="512"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="513"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 B1:B2">
     <cfRule type="duplicateValues" dxfId="8" priority="2744"/>
@@ -4907,8 +4917,6 @@
     <cfRule type="duplicateValues" dxfId="3" priority="2749"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2750"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2751"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B1048576 B1:B2">
     <cfRule type="duplicateValues" dxfId="0" priority="2752"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4924,8 +4932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
@@ -4937,1011 +4945,1000 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="70" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="6" style="70" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="70" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="70" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="70" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="70" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="98" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="102" customWidth="1"/>
-    <col min="15" max="15" width="15" style="103" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="103" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" style="103" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="103" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="70" customWidth="1"/>
-    <col min="21" max="21" width="11" style="70" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="70" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="70" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="70" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="70" customWidth="1"/>
-    <col min="26" max="26" width="9" style="70" customWidth="1"/>
-    <col min="27" max="27" width="11" style="70" customWidth="1"/>
-    <col min="28" max="28" width="13" style="70" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="70" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="70" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="70" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="70" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" style="70" customWidth="1"/>
-    <col min="34" max="34" width="13.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11" style="70" customWidth="1"/>
-    <col min="37" max="37" width="13" style="70" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="70" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" style="70" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" style="70" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="70"/>
+    <col min="1" max="1" width="5" style="63" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="6" style="63" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="63" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="63" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="63" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="93" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="97" customWidth="1"/>
+    <col min="15" max="15" width="15" style="98" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="98" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="98" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="98" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="63" customWidth="1"/>
+    <col min="21" max="21" width="11" style="63" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="63" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="63" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="63" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="63" customWidth="1"/>
+    <col min="26" max="26" width="9" style="63" customWidth="1"/>
+    <col min="27" max="27" width="11" style="63" customWidth="1"/>
+    <col min="28" max="28" width="13" style="63" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="63" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" style="63" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="63" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="63" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="63" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11" style="63" customWidth="1"/>
+    <col min="37" max="37" width="13" style="63" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="63" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="63" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" style="63" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="230" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="23.25" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="231"/>
-      <c r="AB2" s="231"/>
-      <c r="AC2" s="231"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="231"/>
-      <c r="AG2" s="231"/>
-      <c r="AH2" s="231"/>
-      <c r="AI2" s="231"/>
-      <c r="AJ2" s="231"/>
-      <c r="AK2" s="231"/>
-      <c r="AL2" s="231"/>
-      <c r="AM2" s="231"/>
-      <c r="AN2" s="231"/>
-      <c r="AO2" s="231"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="226"/>
+      <c r="AJ2" s="226"/>
+      <c r="AK2" s="226"/>
+      <c r="AL2" s="226"/>
+      <c r="AM2" s="226"/>
+      <c r="AN2" s="226"/>
+      <c r="AO2" s="226"/>
     </row>
     <row r="3" spans="1:41" ht="30" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="226" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="231"/>
-      <c r="U3" s="231"/>
-      <c r="V3" s="231"/>
-      <c r="W3" s="231"/>
-      <c r="X3" s="231"/>
-      <c r="Y3" s="231"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="231"/>
-      <c r="AB3" s="231"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="231"/>
-      <c r="AG3" s="231"/>
-      <c r="AH3" s="231"/>
-      <c r="AI3" s="231"/>
-      <c r="AJ3" s="231"/>
-      <c r="AK3" s="231"/>
-      <c r="AL3" s="231"/>
-      <c r="AM3" s="231"/>
-      <c r="AN3" s="231"/>
-      <c r="AO3" s="231"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="226"/>
+      <c r="AB3" s="226"/>
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="226"/>
+      <c r="AE3" s="226"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="226"/>
+      <c r="AJ3" s="226"/>
+      <c r="AK3" s="226"/>
+      <c r="AL3" s="226"/>
+      <c r="AM3" s="226"/>
+      <c r="AN3" s="226"/>
+      <c r="AO3" s="226"/>
     </row>
     <row r="4" spans="1:41" ht="21.75" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="232" t="s">
+      <c r="A4" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="D4" s="211" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="216" t="s">
+      <c r="G4" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="214" t="s">
+      <c r="H4" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="216" t="s">
+      <c r="I4" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="216" t="s">
+      <c r="J4" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="216" t="s">
+      <c r="K4" s="211" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="224" t="s">
+      <c r="M4" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="224" t="s">
+      <c r="N4" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="226" t="s">
+      <c r="O4" s="221" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="228" t="s">
+      <c r="P4" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="226" t="s">
+      <c r="Q4" s="221" t="s">
         <v>128</v>
       </c>
-      <c r="R4" s="228" t="s">
+      <c r="R4" s="223" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="228" t="s">
+      <c r="S4" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="216" t="s">
+      <c r="T4" s="211" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="216"/>
-      <c r="V4" s="216"/>
-      <c r="W4" s="216"/>
-      <c r="X4" s="216"/>
-      <c r="Y4" s="216"/>
-      <c r="Z4" s="216"/>
-      <c r="AA4" s="216"/>
-      <c r="AB4" s="216"/>
-      <c r="AC4" s="216" t="s">
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="211"/>
+      <c r="X4" s="211"/>
+      <c r="Y4" s="211"/>
+      <c r="Z4" s="211"/>
+      <c r="AA4" s="211"/>
+      <c r="AB4" s="211"/>
+      <c r="AC4" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="222" t="s">
+      <c r="AD4" s="217" t="s">
         <v>243</v>
       </c>
-      <c r="AE4" s="214" t="s">
+      <c r="AE4" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="AF4" s="214" t="s">
+      <c r="AF4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="AG4" s="216" t="s">
+      <c r="AG4" s="211" t="s">
         <v>135</v>
       </c>
-      <c r="AH4" s="214" t="s">
+      <c r="AH4" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="AI4" s="216" t="s">
+      <c r="AI4" s="211" t="s">
         <v>137</v>
       </c>
-      <c r="AJ4" s="216"/>
-      <c r="AK4" s="216"/>
-      <c r="AL4" s="216"/>
-      <c r="AM4" s="216"/>
-      <c r="AN4" s="216"/>
-      <c r="AO4" s="217" t="s">
+      <c r="AJ4" s="211"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="211"/>
+      <c r="AO4" s="212" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="45" customHeight="1">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="227"/>
-      <c r="R5" s="229"/>
-      <c r="S5" s="229"/>
-      <c r="T5" s="71" t="s">
+      <c r="A5" s="228"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="U5" s="71" t="s">
+      <c r="U5" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="V5" s="71" t="s">
+      <c r="V5" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="W5" s="71" t="s">
+      <c r="W5" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="X5" s="71" t="s">
+      <c r="X5" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="Y5" s="71" t="s">
+      <c r="Y5" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="Z5" s="71" t="s">
+      <c r="Z5" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AA5" s="71" t="s">
+      <c r="AA5" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AB5" s="71" t="s">
+      <c r="AB5" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AC5" s="221"/>
-      <c r="AD5" s="223"/>
-      <c r="AE5" s="215"/>
-      <c r="AF5" s="215"/>
-      <c r="AG5" s="221"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="71" t="s">
+      <c r="AC5" s="216"/>
+      <c r="AD5" s="218"/>
+      <c r="AE5" s="210"/>
+      <c r="AF5" s="210"/>
+      <c r="AG5" s="216"/>
+      <c r="AH5" s="210"/>
+      <c r="AI5" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AJ5" s="71" t="s">
+      <c r="AJ5" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AK5" s="71" t="s">
+      <c r="AK5" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="AL5" s="71" t="s">
+      <c r="AL5" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="AM5" s="71" t="s">
+      <c r="AM5" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="AN5" s="71" t="s">
+      <c r="AN5" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="AO5" s="218"/>
+      <c r="AO5" s="213"/>
     </row>
-    <row r="6" spans="1:41" s="76" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A6" s="72">
+    <row r="6" spans="1:41" s="73" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="69">
         <f>+IF(B6="","",SUBTOTAL(3,$B$6:B6))</f>
         <v>1</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="69" t="str">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,4,0)</f>
         <v>M7-1</v>
       </c>
-      <c r="D6" s="72" t="str">
+      <c r="D6" s="69" t="str">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,5,0)</f>
         <v>Vũ Thị Ngọc</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,9,0)</f>
         <v>4800000</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,10,0)</f>
         <v>350000</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,11,0)</f>
         <v>2000000</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,12,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,13,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,14,0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,15,0)</f>
         <v>297916.66666666669</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,16,0)</f>
         <v>37239.583333333336</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,17,0)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,40,0)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,41,0)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="74">
+      <c r="P6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,44,0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="74">
+      <c r="Q6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,47,0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="74">
+      <c r="R6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,61,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="74">
-        <v>0</v>
-      </c>
-      <c r="T6" s="74">
+      <c r="S6" s="71">
+        <v>0</v>
+      </c>
+      <c r="T6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,71,0)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="74">
+      <c r="U6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,72,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="74">
-        <v>0</v>
-      </c>
-      <c r="W6" s="74">
+      <c r="V6" s="71">
+        <v>0</v>
+      </c>
+      <c r="W6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,73,0)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="74">
+      <c r="X6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,78,0)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="74">
+      <c r="Y6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,79,0)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="74">
+      <c r="Z6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,76,0)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="74">
+      <c r="AA6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,74,0)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="74">
+      <c r="AB6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,75,0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="74">
+      <c r="AC6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,27,0)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="74">
+      <c r="AD6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,125,0)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="74">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="74">
+      <c r="AE6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,80,0)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="74">
+      <c r="AH6" s="71">
         <f>ROUND(SUM(O6:AG6)-AN6-AM6,0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="74">
+      <c r="AI6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,89,0)</f>
         <v>321750</v>
       </c>
-      <c r="AJ6" s="74">
+      <c r="AJ6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,90,0)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="74">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="74">
+      <c r="AK6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,99,0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="74">
+      <c r="AM6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,86,0)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="74">
+      <c r="AN6" s="71">
         <f>+VLOOKUP($B6,'Salary detail'!$B$3:$EI$1048576,85,0)</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="75">
+      <c r="AO6" s="72">
         <f>ROUND(AH6-SUM(AI6:AL6),0)</f>
         <v>-321750</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="79" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="219" t="s">
+    <row r="7" spans="1:41" s="76" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="74"/>
+      <c r="B7" s="214" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="78">
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="75">
         <f t="shared" ref="E7:AO7" si="0">+SUBTOTAL(9,E6:E6)</f>
         <v>4800000</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="75">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="75">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="75">
         <f t="shared" si="0"/>
         <v>297916.66666666669</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="75">
         <f t="shared" si="0"/>
         <v>37239.583333333336</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="78">
+      <c r="N7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="78">
+      <c r="O7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="78">
+      <c r="P7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="78">
+      <c r="R7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="78">
+      <c r="S7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="78">
+      <c r="U7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="78">
+      <c r="V7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="78">
+      <c r="W7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X7" s="78">
+      <c r="X7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="78">
+      <c r="Y7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="78">
+      <c r="Z7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="78">
+      <c r="AA7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="78">
+      <c r="AB7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="78">
+      <c r="AC7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="78">
+      <c r="AD7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="78">
+      <c r="AE7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="78">
+      <c r="AF7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="78">
+      <c r="AG7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="78">
+      <c r="AH7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="78">
+      <c r="AI7" s="75">
         <f t="shared" si="0"/>
         <v>321750</v>
       </c>
-      <c r="AJ7" s="78">
+      <c r="AJ7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="78">
+      <c r="AK7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="78">
+      <c r="AL7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="78">
+      <c r="AM7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="78">
+      <c r="AN7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="78">
+      <c r="AO7" s="75">
         <f t="shared" si="0"/>
         <v>-321750</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="85" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
+    <row r="8" spans="1:41" s="78" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="77"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
     </row>
-    <row r="9" spans="1:41" s="89" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="88"/>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="88"/>
+    <row r="9" spans="1:41" s="82" customFormat="1" ht="23.25" customHeight="1">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
     </row>
-    <row r="10" spans="1:41" s="90" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
+    <row r="10" spans="1:41" s="85" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
     </row>
-    <row r="11" spans="1:41" s="90" customFormat="1" ht="18.75">
-      <c r="D11" s="91"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="220"/>
-      <c r="AH11" s="220"/>
-      <c r="AI11" s="220"/>
-      <c r="AJ11" s="220"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="92"/>
+    <row r="11" spans="1:41" s="85" customFormat="1" ht="18.75">
+      <c r="D11" s="86"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="215"/>
+      <c r="AH11" s="215"/>
+      <c r="AI11" s="215"/>
+      <c r="AJ11" s="215"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="87"/>
     </row>
-    <row r="12" spans="1:41" s="90" customFormat="1" ht="18.75" customHeight="1">
-      <c r="D12" s="91"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="212"/>
-      <c r="O12" s="212"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="212"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="92"/>
+    <row r="12" spans="1:41" s="85" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D12" s="86"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="87"/>
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
-      <c r="I13" s="97"/>
-      <c r="N13" s="212"/>
-      <c r="O13" s="212"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="212"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
+      <c r="I13" s="92"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="207"/>
+      <c r="Q13" s="207"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N14" s="212"/>
-      <c r="O14" s="212"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="212"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
     </row>
     <row r="15" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N15" s="212"/>
-      <c r="O15" s="212"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="212"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="100"/>
-      <c r="AJ15" s="100"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N16" s="212"/>
-      <c r="O16" s="212"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="212"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="207"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
     </row>
-    <row r="17" spans="14:41" ht="22.5" customHeight="1">
-      <c r="N17" s="213"/>
-      <c r="O17" s="213"/>
-      <c r="P17" s="213"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="213"/>
-      <c r="AH17" s="213"/>
-      <c r="AI17" s="213"/>
-      <c r="AJ17" s="213"/>
-      <c r="AK17" s="101"/>
-      <c r="AL17" s="101"/>
-      <c r="AM17" s="101"/>
-      <c r="AN17" s="101"/>
-    </row>
-    <row r="18" spans="14:41">
-      <c r="AO18" s="104"/>
+    <row r="17" spans="14:40" ht="22.5" customHeight="1">
+      <c r="N17" s="208"/>
+      <c r="O17" s="208"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="208"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="208"/>
+      <c r="AH17" s="208"/>
+      <c r="AI17" s="208"/>
+      <c r="AJ17" s="208"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AO9"/>
+  <autoFilter ref="A5:AO9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="37">
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="C1:J1"/>
@@ -5992,7 +5989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6005,2981 +6002,2981 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="105"/>
-    <col min="2" max="2" width="26.140625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="107" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="107" customWidth="1"/>
-    <col min="5" max="8" width="15.85546875" style="107" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="107" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="107" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="107" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="107" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="107" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="107" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="107" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" style="107" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="107" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="107"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="26.140625" style="101" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="101" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="101" customWidth="1"/>
+    <col min="5" max="8" width="15.85546875" style="101" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="101" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="101" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="101" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="101" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="101" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="101" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="101" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="59.25" customHeight="1">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="100" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="113" customFormat="1" ht="51" customHeight="1">
-      <c r="A3" s="234" t="s">
+    <row r="3" spans="1:22" s="107" customFormat="1" ht="51" customHeight="1">
+      <c r="A3" s="229" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="230"/>
+      <c r="C3" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="110" t="s">
+      <c r="L3" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="Q3" s="110" t="s">
+      <c r="Q3" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="110" t="s">
+      <c r="R3" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="111" t="s">
+      <c r="S3" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="T3" s="111" t="s">
+      <c r="T3" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="112" t="s">
+      <c r="U3" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="V3" s="110" t="s">
+      <c r="V3" s="104" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="105" t="s">
+    <row r="4" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="133">
+      <c r="D4" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$J$3:$J$1048576)</f>
         <v>4800000</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$K$3:$K$1048576)</f>
         <v>350000</v>
       </c>
-      <c r="F4" s="133">
+      <c r="F4" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$L$3:$L$1048576)</f>
         <v>2000000</v>
       </c>
-      <c r="G4" s="133">
+      <c r="G4" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="133">
+      <c r="H4" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="134">
+      <c r="I4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="134">
+      <c r="J4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="134">
+      <c r="K4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="134">
+      <c r="L4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="134">
+      <c r="M4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="134">
+      <c r="N4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="134">
+      <c r="O4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="134">
+      <c r="P4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="134">
+      <c r="Q4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="134">
+      <c r="R4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="134">
+      <c r="S4" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A4,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>321750</v>
       </c>
-      <c r="T4" s="134">
-        <v>0</v>
-      </c>
-      <c r="U4" s="116">
+      <c r="T4" s="127">
+        <v>0</v>
+      </c>
+      <c r="U4" s="110">
         <f>ROUND(I4-SUM(J4:L4,P4,R4,S4,T4),0)</f>
         <v>-321750</v>
       </c>
-      <c r="V4" s="116"/>
+      <c r="V4" s="110"/>
     </row>
-    <row r="5" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F5" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="134">
+      <c r="I5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="134">
+      <c r="J5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="134">
+      <c r="K5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="134">
+      <c r="L5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="134">
+      <c r="M5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="134">
+      <c r="N5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="134">
+      <c r="O5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="134">
+      <c r="P5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="134">
+      <c r="Q5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="134">
+      <c r="R5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="134">
+      <c r="S5" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A5,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="134">
-        <v>0</v>
-      </c>
-      <c r="U5" s="116">
+      <c r="T5" s="127">
+        <v>0</v>
+      </c>
+      <c r="U5" s="110">
         <f t="shared" ref="U5:U35" si="0">ROUND(I5-SUM(J5:L5,P5,R5,S5,T5),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="116"/>
+      <c r="V5" s="110"/>
     </row>
-    <row r="6" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="133">
+      <c r="G6" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="134">
+      <c r="I6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="134">
+      <c r="J6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="134">
+      <c r="K6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="134">
+      <c r="L6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="134">
+      <c r="M6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="134">
+      <c r="N6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="134">
+      <c r="O6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="134">
+      <c r="P6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="134">
+      <c r="Q6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="134">
+      <c r="R6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="134">
+      <c r="S6" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A6,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="134">
-        <v>0</v>
-      </c>
-      <c r="U6" s="116">
+      <c r="T6" s="127">
+        <v>0</v>
+      </c>
+      <c r="U6" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="116"/>
+      <c r="V6" s="110"/>
     </row>
-    <row r="7" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="133">
+      <c r="F7" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H7" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="134">
+      <c r="I7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="134">
+      <c r="J7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="134">
+      <c r="K7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="134">
+      <c r="L7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="134">
+      <c r="M7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="134">
+      <c r="N7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="134">
+      <c r="O7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="134">
+      <c r="P7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="134">
+      <c r="Q7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="134">
+      <c r="R7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="134">
+      <c r="S7" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A7,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="134">
-        <v>0</v>
-      </c>
-      <c r="U7" s="116">
+      <c r="T7" s="127">
+        <v>0</v>
+      </c>
+      <c r="U7" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V7" s="116"/>
+      <c r="V7" s="110"/>
     </row>
-    <row r="8" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="105" t="s">
+    <row r="8" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="133">
+      <c r="F8" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="133">
+      <c r="H8" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="134">
+      <c r="I8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="134">
+      <c r="K8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="134">
+      <c r="L8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="134">
+      <c r="M8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="134">
+      <c r="N8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="134">
+      <c r="O8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="134">
+      <c r="P8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="134">
+      <c r="Q8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="134">
+      <c r="R8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="134">
+      <c r="S8" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A8,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="134">
-        <v>0</v>
-      </c>
-      <c r="U8" s="116">
+      <c r="T8" s="127">
+        <v>0</v>
+      </c>
+      <c r="U8" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V8" s="116"/>
+      <c r="V8" s="110"/>
     </row>
-    <row r="9" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="105" t="s">
+    <row r="9" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="133">
+      <c r="F9" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="133">
+      <c r="H9" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="134">
+      <c r="J9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="134">
+      <c r="K9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="134">
+      <c r="L9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="134">
+      <c r="M9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="134">
+      <c r="N9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="134">
+      <c r="O9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="134">
+      <c r="P9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="134">
+      <c r="Q9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="134">
+      <c r="R9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="134">
+      <c r="S9" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A9,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="134">
-        <v>0</v>
-      </c>
-      <c r="U9" s="116">
+      <c r="T9" s="127">
+        <v>0</v>
+      </c>
+      <c r="U9" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V9" s="116"/>
+      <c r="V9" s="110"/>
     </row>
-    <row r="10" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="105">
+    <row r="10" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="99">
         <v>201016</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="133">
+      <c r="F10" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="133">
+      <c r="G10" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="133">
+      <c r="H10" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="134">
+      <c r="J10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="134">
+      <c r="K10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="134">
+      <c r="L10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="134">
+      <c r="M10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="134">
+      <c r="N10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="134">
+      <c r="O10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="134">
+      <c r="P10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="134">
+      <c r="Q10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="134">
+      <c r="R10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="134">
+      <c r="S10" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A10,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="134">
-        <v>0</v>
-      </c>
-      <c r="U10" s="116">
+      <c r="T10" s="127">
+        <v>0</v>
+      </c>
+      <c r="U10" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="116"/>
+      <c r="V10" s="110"/>
     </row>
-    <row r="11" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="133">
+      <c r="F11" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="133">
+      <c r="G11" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="133">
+      <c r="H11" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="134">
+      <c r="I11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="134">
+      <c r="J11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="134">
+      <c r="K11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="134">
+      <c r="L11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="134">
+      <c r="M11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="134">
+      <c r="N11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="134">
+      <c r="O11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="134">
+      <c r="P11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="134">
+      <c r="Q11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="134">
+      <c r="R11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="134">
+      <c r="S11" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A11,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="134">
-        <v>0</v>
-      </c>
-      <c r="U11" s="116">
+      <c r="T11" s="127">
+        <v>0</v>
+      </c>
+      <c r="U11" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V11" s="116"/>
+      <c r="V11" s="110"/>
     </row>
-    <row r="12" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="133">
+      <c r="F12" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="133">
+      <c r="G12" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="133">
+      <c r="H12" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="134">
+      <c r="I12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="134">
+      <c r="J12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="134">
+      <c r="K12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="134">
+      <c r="L12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="134">
+      <c r="M12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="134">
+      <c r="N12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="134">
+      <c r="O12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="134">
+      <c r="P12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="134">
+      <c r="Q12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="134">
+      <c r="R12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="134">
+      <c r="S12" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A12,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="134">
-        <v>0</v>
-      </c>
-      <c r="U12" s="116">
+      <c r="T12" s="127">
+        <v>0</v>
+      </c>
+      <c r="U12" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V12" s="116"/>
+      <c r="V12" s="110"/>
     </row>
-    <row r="13" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="133">
+      <c r="F13" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="133">
+      <c r="G13" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="133">
+      <c r="H13" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="134">
+      <c r="K13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="134">
+      <c r="L13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="134">
+      <c r="M13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="134">
+      <c r="N13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="134">
+      <c r="O13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="134">
+      <c r="P13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="134">
+      <c r="Q13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="134">
+      <c r="R13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="134">
+      <c r="S13" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A13,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="134">
-        <v>0</v>
-      </c>
-      <c r="U13" s="116">
+      <c r="T13" s="127">
+        <v>0</v>
+      </c>
+      <c r="U13" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="116"/>
+      <c r="V13" s="110"/>
     </row>
-    <row r="14" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="105" t="s">
+    <row r="14" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="133">
+      <c r="F14" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="133">
+      <c r="G14" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="133">
+      <c r="H14" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="134">
+      <c r="I14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="134">
+      <c r="J14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="134">
+      <c r="K14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="134">
+      <c r="L14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="134">
+      <c r="M14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="134">
+      <c r="N14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="134">
+      <c r="O14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="134">
+      <c r="P14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="134">
+      <c r="Q14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="134">
+      <c r="R14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="134">
+      <c r="S14" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A14,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="134">
-        <v>0</v>
-      </c>
-      <c r="U14" s="116">
+      <c r="T14" s="127">
+        <v>0</v>
+      </c>
+      <c r="U14" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V14" s="116"/>
+      <c r="V14" s="110"/>
     </row>
-    <row r="15" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="105" t="s">
+    <row r="15" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="133">
+      <c r="F15" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="133">
+      <c r="G15" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="133">
+      <c r="H15" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="134">
+      <c r="I15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="134">
+      <c r="J15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="134">
+      <c r="K15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="134">
+      <c r="L15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="134">
+      <c r="M15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="134">
+      <c r="N15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="134">
+      <c r="O15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="134">
+      <c r="P15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="134">
+      <c r="Q15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="134">
+      <c r="R15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="134">
+      <c r="S15" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A15,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="134">
-        <v>0</v>
-      </c>
-      <c r="U15" s="116">
+      <c r="T15" s="127">
+        <v>0</v>
+      </c>
+      <c r="U15" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="116"/>
+      <c r="V15" s="110"/>
     </row>
-    <row r="16" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="105" t="s">
+    <row r="16" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="133">
+      <c r="F16" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="133">
+      <c r="G16" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="133">
+      <c r="H16" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="134">
+      <c r="I16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="134">
+      <c r="J16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="134">
+      <c r="K16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="134">
+      <c r="L16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="134">
+      <c r="M16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="134">
+      <c r="N16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="134">
+      <c r="O16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="134">
+      <c r="P16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="134">
+      <c r="Q16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="134">
+      <c r="R16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="134">
+      <c r="S16" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A16,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="134">
-        <v>0</v>
-      </c>
-      <c r="U16" s="116">
+      <c r="T16" s="127">
+        <v>0</v>
+      </c>
+      <c r="U16" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V16" s="116"/>
+      <c r="V16" s="110"/>
     </row>
-    <row r="17" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="105" t="s">
+    <row r="17" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="133">
+      <c r="F17" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="133">
+      <c r="G17" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="133">
+      <c r="H17" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="134">
+      <c r="J17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="134">
+      <c r="K17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="134">
+      <c r="L17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="134">
+      <c r="M17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="134">
+      <c r="N17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="134">
+      <c r="O17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="134">
+      <c r="P17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="134">
+      <c r="Q17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="134">
+      <c r="R17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="134">
+      <c r="S17" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A17,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="134">
-        <v>0</v>
-      </c>
-      <c r="U17" s="116">
+      <c r="T17" s="127">
+        <v>0</v>
+      </c>
+      <c r="U17" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="116"/>
+      <c r="V17" s="110"/>
     </row>
-    <row r="18" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="105" t="s">
+    <row r="18" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="133">
+      <c r="E18" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="133">
+      <c r="F18" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="133">
+      <c r="G18" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="133">
+      <c r="H18" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="134">
+      <c r="I18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="134">
+      <c r="J18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="134">
+      <c r="K18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="134">
+      <c r="L18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="134">
+      <c r="M18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="134">
+      <c r="N18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="134">
+      <c r="O18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="134">
+      <c r="P18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="134">
+      <c r="Q18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="134">
+      <c r="R18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="134">
+      <c r="S18" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A18,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="134">
-        <v>0</v>
-      </c>
-      <c r="U18" s="116">
+      <c r="T18" s="127">
+        <v>0</v>
+      </c>
+      <c r="U18" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V18" s="116"/>
+      <c r="V18" s="110"/>
     </row>
-    <row r="19" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="105" t="s">
+    <row r="19" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="133">
+      <c r="F19" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="133">
+      <c r="G19" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="133">
+      <c r="H19" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="134">
+      <c r="I19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="134">
+      <c r="J19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="134">
+      <c r="K19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="134">
+      <c r="L19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="134">
+      <c r="M19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="134">
+      <c r="N19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="134">
+      <c r="O19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P19" s="134">
+      <c r="P19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="134">
+      <c r="Q19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="134">
+      <c r="R19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="134">
+      <c r="S19" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A19,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="134">
-        <v>0</v>
-      </c>
-      <c r="U19" s="116">
+      <c r="T19" s="127">
+        <v>0</v>
+      </c>
+      <c r="U19" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="116"/>
+      <c r="V19" s="110"/>
     </row>
-    <row r="20" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="105" t="s">
+    <row r="20" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="133">
+      <c r="F20" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="133">
+      <c r="G20" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="133">
+      <c r="H20" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="134">
+      <c r="I20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="134">
+      <c r="J20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="134">
+      <c r="K20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="134">
+      <c r="M20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="134">
+      <c r="N20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="134">
+      <c r="O20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="134">
+      <c r="P20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="134">
+      <c r="Q20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="134">
+      <c r="R20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="134">
+      <c r="S20" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A20,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="134">
-        <v>0</v>
-      </c>
-      <c r="U20" s="116">
+      <c r="T20" s="127">
+        <v>0</v>
+      </c>
+      <c r="U20" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="116"/>
+      <c r="V20" s="110"/>
     </row>
-    <row r="21" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="105">
+    <row r="21" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="99">
         <v>202007</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="115">
+      <c r="C21" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="133">
+      <c r="F21" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="133">
+      <c r="G21" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="133">
+      <c r="H21" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="134">
+      <c r="I21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="134">
+      <c r="J21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="134">
+      <c r="K21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="134">
+      <c r="L21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="134">
+      <c r="M21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="134">
+      <c r="N21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="134">
+      <c r="O21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="134">
+      <c r="P21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="134">
+      <c r="Q21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="134">
+      <c r="R21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="134">
+      <c r="S21" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A21,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="134">
-        <v>0</v>
-      </c>
-      <c r="U21" s="116">
+      <c r="T21" s="127">
+        <v>0</v>
+      </c>
+      <c r="U21" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V21" s="116"/>
+      <c r="V21" s="110"/>
     </row>
-    <row r="22" spans="1:22" s="118" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="105">
+    <row r="22" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="99">
         <v>202008</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="115">
+      <c r="C22" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="133">
+      <c r="F22" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="133">
+      <c r="G22" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="133">
+      <c r="H22" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="134">
+      <c r="I22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="134">
+      <c r="J22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="134">
+      <c r="K22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="134">
+      <c r="L22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="134">
+      <c r="M22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="134">
+      <c r="N22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="134">
+      <c r="O22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="134">
+      <c r="P22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="134">
+      <c r="Q22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="134">
+      <c r="R22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="134">
+      <c r="S22" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A22,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="134">
-        <v>0</v>
-      </c>
-      <c r="U22" s="116">
+      <c r="T22" s="127">
+        <v>0</v>
+      </c>
+      <c r="U22" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="116"/>
+      <c r="V22" s="110"/>
     </row>
-    <row r="23" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="105" t="s">
+    <row r="23" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="133">
+      <c r="F23" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="133">
+      <c r="G23" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="133">
+      <c r="H23" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="134">
+      <c r="I23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="134">
+      <c r="J23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="134">
+      <c r="K23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="134">
+      <c r="L23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="134">
+      <c r="M23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="134">
+      <c r="N23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="134">
+      <c r="O23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="134">
+      <c r="P23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="134">
+      <c r="Q23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="134">
+      <c r="R23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="134">
+      <c r="S23" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A23,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="134">
-        <v>0</v>
-      </c>
-      <c r="U23" s="116">
+      <c r="T23" s="127">
+        <v>0</v>
+      </c>
+      <c r="U23" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V23" s="116"/>
+      <c r="V23" s="110"/>
     </row>
-    <row r="24" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="105" t="s">
+    <row r="24" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="115">
+      <c r="C24" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="133">
+      <c r="F24" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="133">
+      <c r="G24" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="133">
+      <c r="H24" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="134">
+      <c r="I24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="134">
+      <c r="J24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="134">
+      <c r="K24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="134">
+      <c r="L24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="134">
+      <c r="M24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="134">
+      <c r="N24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="134">
+      <c r="O24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="134">
+      <c r="P24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="134">
+      <c r="Q24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="134">
+      <c r="R24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="134">
+      <c r="S24" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A24,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="134">
-        <v>0</v>
-      </c>
-      <c r="U24" s="116">
+      <c r="T24" s="127">
+        <v>0</v>
+      </c>
+      <c r="U24" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24" s="116"/>
+      <c r="V24" s="110"/>
     </row>
-    <row r="25" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="105" t="s">
+    <row r="25" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="115">
+      <c r="C25" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E25" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="133">
+      <c r="F25" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="133">
+      <c r="G25" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="133">
+      <c r="H25" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="134">
+      <c r="I25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="134">
+      <c r="J25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="134">
+      <c r="K25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="134">
+      <c r="L25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="134">
+      <c r="M25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="134">
+      <c r="N25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="134">
+      <c r="O25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="134">
+      <c r="P25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="134">
+      <c r="Q25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="134">
+      <c r="R25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="134">
+      <c r="S25" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A25,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="134">
-        <v>0</v>
-      </c>
-      <c r="U25" s="116">
+      <c r="T25" s="127">
+        <v>0</v>
+      </c>
+      <c r="U25" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V25" s="116"/>
+      <c r="V25" s="110"/>
     </row>
-    <row r="26" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="105" t="s">
+    <row r="26" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="115">
+      <c r="C26" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="133">
+      <c r="D26" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="133">
+      <c r="E26" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="133">
+      <c r="F26" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="133">
+      <c r="G26" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="133">
+      <c r="H26" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="134">
+      <c r="I26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="134">
+      <c r="J26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="134">
+      <c r="K26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="134">
+      <c r="L26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="134">
+      <c r="M26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="134">
+      <c r="N26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="134">
+      <c r="O26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="134">
+      <c r="P26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="134">
+      <c r="Q26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="134">
+      <c r="R26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="134">
+      <c r="S26" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A26,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="134">
-        <v>0</v>
-      </c>
-      <c r="U26" s="116">
+      <c r="T26" s="127">
+        <v>0</v>
+      </c>
+      <c r="U26" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V26" s="116"/>
+      <c r="V26" s="110"/>
     </row>
-    <row r="27" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="119" t="s">
+    <row r="27" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="133">
+      <c r="D27" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="133">
+      <c r="E27" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="133">
+      <c r="F27" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="133">
+      <c r="G27" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="134">
+      <c r="I27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="134">
+      <c r="J27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="134">
+      <c r="K27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="134">
+      <c r="L27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="134">
+      <c r="M27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="134">
+      <c r="N27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="134">
+      <c r="O27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="134">
+      <c r="P27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="134">
+      <c r="Q27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="134">
+      <c r="R27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="134">
+      <c r="S27" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A27,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="134">
-        <v>0</v>
-      </c>
-      <c r="U27" s="116">
+      <c r="T27" s="127">
+        <v>0</v>
+      </c>
+      <c r="U27" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V27" s="116"/>
+      <c r="V27" s="110"/>
     </row>
-    <row r="28" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="105" t="s">
+    <row r="28" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="115">
+      <c r="C28" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="133">
+      <c r="D28" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="133">
+      <c r="E28" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="133">
+      <c r="F28" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="133">
+      <c r="G28" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="133">
+      <c r="H28" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="134">
+      <c r="I28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="134">
+      <c r="J28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="134">
+      <c r="K28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="134">
+      <c r="L28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="134">
+      <c r="M28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="134">
+      <c r="N28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="134">
+      <c r="O28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="134">
+      <c r="P28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="134">
+      <c r="Q28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="134">
+      <c r="R28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="134">
+      <c r="S28" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A28,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="134">
-        <v>0</v>
-      </c>
-      <c r="U28" s="116">
+      <c r="T28" s="127">
+        <v>0</v>
+      </c>
+      <c r="U28" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V28" s="116"/>
+      <c r="V28" s="110"/>
     </row>
-    <row r="29" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="105" t="s">
+    <row r="29" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="115">
+      <c r="C29" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="133">
+      <c r="D29" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="133">
+      <c r="E29" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="133">
+      <c r="F29" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="133">
+      <c r="G29" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="133">
+      <c r="H29" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="134">
+      <c r="I29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="134">
+      <c r="J29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="134">
+      <c r="K29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="134">
+      <c r="L29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="134">
+      <c r="M29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="134">
+      <c r="N29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O29" s="134">
+      <c r="O29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P29" s="134">
+      <c r="P29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="134">
+      <c r="Q29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="134">
+      <c r="R29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="134">
+      <c r="S29" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A29,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="134">
-        <v>0</v>
-      </c>
-      <c r="U29" s="116">
+      <c r="T29" s="127">
+        <v>0</v>
+      </c>
+      <c r="U29" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V29" s="116"/>
+      <c r="V29" s="110"/>
     </row>
-    <row r="30" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="105" t="s">
+    <row r="30" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="115">
+      <c r="C30" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="133">
+      <c r="D30" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="133">
+      <c r="E30" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="133">
+      <c r="F30" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="133">
+      <c r="G30" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="133">
+      <c r="H30" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="134">
+      <c r="I30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="134">
+      <c r="J30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="134">
+      <c r="K30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="134">
+      <c r="L30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="134">
+      <c r="M30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="134">
+      <c r="N30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O30" s="134">
+      <c r="O30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="134">
+      <c r="P30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="134">
+      <c r="Q30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="134">
+      <c r="R30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="134">
+      <c r="S30" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A30,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="134">
-        <v>0</v>
-      </c>
-      <c r="U30" s="116">
+      <c r="T30" s="127">
+        <v>0</v>
+      </c>
+      <c r="U30" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V30" s="116"/>
+      <c r="V30" s="110"/>
     </row>
-    <row r="31" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="105" t="s">
+    <row r="31" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="115">
+      <c r="C31" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="133">
+      <c r="D31" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="133">
+      <c r="E31" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="133">
+      <c r="F31" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="133">
+      <c r="G31" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="133">
+      <c r="H31" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="134">
+      <c r="I31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="134">
+      <c r="J31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="134">
+      <c r="K31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="134">
+      <c r="L31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="134">
+      <c r="M31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="134">
+      <c r="N31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="134">
+      <c r="O31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="134">
+      <c r="P31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="134">
+      <c r="Q31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="134">
+      <c r="R31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="134">
+      <c r="S31" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A31,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="134">
-        <v>0</v>
-      </c>
-      <c r="U31" s="116">
+      <c r="T31" s="127">
+        <v>0</v>
+      </c>
+      <c r="U31" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31" s="116"/>
+      <c r="V31" s="110"/>
     </row>
-    <row r="32" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="105">
+    <row r="32" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="99">
         <v>252001</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="115">
+      <c r="C32" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D32" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="133">
+      <c r="E32" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="133">
+      <c r="F32" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="133">
+      <c r="G32" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="133">
+      <c r="H32" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="134">
+      <c r="I32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="134">
+      <c r="J32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="134">
+      <c r="K32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="134">
+      <c r="L32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="134">
+      <c r="M32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="134">
+      <c r="N32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="134">
+      <c r="O32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="134">
+      <c r="P32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="134">
+      <c r="Q32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="134">
+      <c r="R32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="134">
+      <c r="S32" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A32,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="134">
-        <v>0</v>
-      </c>
-      <c r="U32" s="116">
+      <c r="T32" s="127">
+        <v>0</v>
+      </c>
+      <c r="U32" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V32" s="120"/>
+      <c r="V32" s="113"/>
     </row>
-    <row r="33" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="105">
+    <row r="33" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="99">
         <v>251001</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="133">
+      <c r="D33" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="133">
+      <c r="E33" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="133">
+      <c r="F33" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="133">
+      <c r="G33" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="133">
+      <c r="H33" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="134">
+      <c r="I33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="134">
+      <c r="J33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="134">
+      <c r="K33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="134">
+      <c r="L33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="134">
+      <c r="M33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="134">
+      <c r="N33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="134">
+      <c r="O33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="134">
+      <c r="P33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="134">
+      <c r="Q33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="134">
+      <c r="R33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="134">
+      <c r="S33" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A33,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="134">
-        <v>0</v>
-      </c>
-      <c r="U33" s="116">
+      <c r="T33" s="127">
+        <v>0</v>
+      </c>
+      <c r="U33" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V33" s="120"/>
+      <c r="V33" s="113"/>
     </row>
-    <row r="34" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="105">
+    <row r="34" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="99">
         <v>262001</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="133">
+      <c r="D34" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="133">
+      <c r="E34" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="133">
+      <c r="F34" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="133">
+      <c r="G34" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="133">
+      <c r="H34" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="134">
+      <c r="I34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="134">
+      <c r="J34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="134">
+      <c r="K34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="134">
+      <c r="L34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="134">
+      <c r="M34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="134">
+      <c r="N34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="134">
+      <c r="O34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P34" s="134">
+      <c r="P34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="134">
+      <c r="Q34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="134">
+      <c r="R34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S34" s="134">
+      <c r="S34" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A34,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="134">
-        <v>0</v>
-      </c>
-      <c r="U34" s="116">
+      <c r="T34" s="127">
+        <v>0</v>
+      </c>
+      <c r="U34" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V34" s="120"/>
+      <c r="V34" s="113"/>
     </row>
-    <row r="35" spans="1:22" s="117" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="105">
+    <row r="35" spans="1:22" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="99">
         <v>261001</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="109">
         <f>+COUNTIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="133">
+      <c r="D35" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$J$3:$J$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="133">
+      <c r="E35" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$K$3:$K$1048576)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="133">
+      <c r="F35" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$L$3:$L$1048576)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="133">
+      <c r="G35" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$N$3:$N$1048576)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="133">
+      <c r="H35" s="126">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$O$3:$O$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="134">
+      <c r="I35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$CJ$3:$CJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="134">
+      <c r="J35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DI$3:$DI$1048576)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="134">
+      <c r="K35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DJ$3:$DJ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="134">
+      <c r="L35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DK$3:$DK$1048576)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="134">
+      <c r="M35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DL$3:$DL$1048576)+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DM$3:$DM$1048576)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="134">
+      <c r="N35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DN$3:$DN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="134">
+      <c r="O35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DO$3:$DO$1048576)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="134">
+      <c r="P35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DP$3:$DP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="134">
+      <c r="Q35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DQ$3:$DQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="134">
+      <c r="R35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$CV$3:$CV$1048576)</f>
         <v>0</v>
       </c>
-      <c r="S35" s="134">
+      <c r="S35" s="127">
         <f>+SUMIF('Salary detail'!$D$3:$D$1048576,'Pivot 01 (.)'!$A35,'Salary detail'!$DS$3:$DS$1048576)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="134">
-        <v>0</v>
-      </c>
-      <c r="U35" s="116">
+      <c r="T35" s="127">
+        <v>0</v>
+      </c>
+      <c r="U35" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V35" s="120"/>
+      <c r="V35" s="113"/>
     </row>
-    <row r="36" spans="1:22" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="121" t="s">
+    <row r="36" spans="1:22" s="107" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="123">
+      <c r="C36" s="116">
         <f>SUM(C4:C35)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="116">
         <f t="shared" ref="D36:T36" si="1">SUM(D4:D35)</f>
         <v>4800000</v>
       </c>
-      <c r="E36" s="123">
+      <c r="E36" s="116">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
-      <c r="F36" s="123">
+      <c r="F36" s="116">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="G36" s="123">
+      <c r="G36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="123">
+      <c r="H36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="123">
+      <c r="I36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="123">
+      <c r="J36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="123">
+      <c r="K36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="123">
+      <c r="L36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="123">
+      <c r="M36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="123">
+      <c r="N36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="123">
+      <c r="O36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P36" s="123">
+      <c r="P36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="123">
+      <c r="Q36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="123">
+      <c r="R36" s="116">
         <f>SUM(R4:R35)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="123">
+      <c r="S36" s="116">
         <f t="shared" si="1"/>
         <v>321750</v>
       </c>
-      <c r="T36" s="123">
+      <c r="T36" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36" s="123">
+      <c r="U36" s="116">
         <f>SUM(U4:U35)</f>
         <v>-321750</v>
       </c>
-      <c r="V36" s="123"/>
+      <c r="V36" s="116"/>
     </row>
-    <row r="37" spans="1:22" s="113" customFormat="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="126"/>
-      <c r="U37" s="128"/>
+    <row r="37" spans="1:22" s="107" customFormat="1">
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="121"/>
     </row>
-    <row r="38" spans="1:22" s="113" customFormat="1">
-      <c r="A38" s="105" t="s">
+    <row r="38" spans="1:22" s="107" customFormat="1">
+      <c r="A38" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
-      <c r="O38" s="127"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="129"/>
-      <c r="T39" s="129"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="J40" s="130"/>
-      <c r="K40" s="131"/>
-      <c r="U40" s="132"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="124"/>
+      <c r="U40" s="125"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="J42" s="130"/>
-      <c r="U42" s="132"/>
+      <c r="J42" s="123"/>
+      <c r="U42" s="125"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="M44" s="126"/>
+      <c r="M44" s="119"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="J45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
+      <c r="J45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="J46" s="129"/>
-      <c r="M46" s="129"/>
+      <c r="J46" s="122"/>
+      <c r="M46" s="122"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="J47" s="129"/>
+      <c r="J47" s="122"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:U3">
+  <autoFilter ref="A3:U3" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -8992,7 +8989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
